--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="QuickStart" sheetId="2" r:id="rId2"/>
     <sheet name="S3" sheetId="3" r:id="rId3"/>
     <sheet name="EC2" sheetId="4" r:id="rId4"/>
+    <sheet name="DynamoDB" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Topics</t>
   </si>
@@ -230,6 +231,9 @@
   </si>
   <si>
     <t>Material Links</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB</t>
   </si>
 </sst>
 </file>
@@ -409,12 +413,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -423,6 +421,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -728,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -737,7 +741,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -755,19 +759,27 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
+    <hyperlink ref="A3" location="'S3'!A1" display="S3"/>
+    <hyperlink ref="A4" location="'EC2'!A1" display="EC2"/>
+    <hyperlink ref="A5" location="DynamoDB!A1" display="Amazon DynamoDB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -777,15 +789,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="124.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.625" customWidth="1"/>
+    <col min="2" max="2" width="111.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -797,16 +809,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -814,23 +826,23 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -838,75 +850,75 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
@@ -915,178 +927,178 @@
       <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="7" t="s">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="90">
+    <row r="40" spans="1:2" ht="75">
       <c r="A40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="10"/>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="10"/>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60">
+    <row r="43" spans="1:2" ht="45">
       <c r="A43" s="10"/>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1094,23 +1106,23 @@
       <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1144,24 +1156,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="109.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'S3'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="2" max="2" width="107.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.875" customWidth="1"/>
+    <col min="2" max="2" width="105.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="DynamoDB!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="S3" sheetId="3" r:id="rId3"/>
     <sheet name="EC2" sheetId="4" r:id="rId4"/>
     <sheet name="DynamoDB" sheetId="5" r:id="rId5"/>
+    <sheet name="SQS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Topics</t>
   </si>
@@ -234,6 +235,36 @@
   </si>
   <si>
     <t>Amazon DynamoDB</t>
+  </si>
+  <si>
+    <t>SQS</t>
+  </si>
+  <si>
+    <t>Material links</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>What is Amazon SQS</t>
+  </si>
+  <si>
+    <t>A queue is a temporary repository for messages that are awaiting processing. Using Amazon SQS, you can decouple the components of an application so they run independently, with Amazon SQS easing message management between components. Any component of a distributed application can store messages in a fail-safe queue.</t>
+  </si>
+  <si>
+    <t>Simple Queue Service</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>AWS Developer Fundamentals</t>
+  </si>
+  <si>
+    <t>AWS Developer: The Big Picture</t>
   </si>
 </sst>
 </file>
@@ -732,11 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,6 +804,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
@@ -780,6 +816,7 @@
     <hyperlink ref="A3" location="'S3'!A1" display="S3"/>
     <hyperlink ref="A4" location="'EC2'!A1" display="EC2"/>
     <hyperlink ref="A5" location="DynamoDB!A1" display="Amazon DynamoDB"/>
+    <hyperlink ref="A6" location="SQS!A1" display="SQS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -787,11 +824,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -815,220 +852,228 @@
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" ht="90">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" ht="90">
+      <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5"/>
@@ -1039,116 +1084,124 @@
       <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="5" t="s">
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="10" t="s">
+    <row r="42" spans="1:2" ht="75">
+      <c r="A42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
+    <row r="43" spans="1:2">
       <c r="A43" s="10"/>
       <c r="B43" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="10"/>
+      <c r="B45" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="5" t="s">
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B15" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1236,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
@@ -1269,4 +1322,75 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58" style="5" customWidth="1"/>
+    <col min="2" max="2" width="105.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="SQS!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>Topics</t>
   </si>
@@ -28,12 +28,6 @@
   </si>
   <si>
     <t>QuickStart</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>EC2</t>
   </si>
   <si>
     <t>AWS Documentation</t>
@@ -234,9 +228,6 @@
     <t>Material Links</t>
   </si>
   <si>
-    <t>Amazon DynamoDB</t>
-  </si>
-  <si>
     <t>SQS</t>
   </si>
   <si>
@@ -261,10 +252,166 @@
     <t>Pluralsight</t>
   </si>
   <si>
-    <t>AWS Developer Fundamentals</t>
-  </si>
-  <si>
     <t>AWS Developer: The Big Picture</t>
+  </si>
+  <si>
+    <t>AWS Developer: Getting started</t>
+  </si>
+  <si>
+    <t>EC2 (Elastic Cloud Compute)</t>
+  </si>
+  <si>
+    <t>Extended Services</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>Different ways to access AWS</t>
+  </si>
+  <si>
+    <t>Core Services of AWS: 
+commonly used services and form the base of for most of the web applications</t>
+  </si>
+  <si>
+    <t>S3 (Simple Storage Service)</t>
+  </si>
+  <si>
+    <t>RDS (Relational Database Service)</t>
+  </si>
+  <si>
+    <t>Route 53</t>
+  </si>
+  <si>
+    <t>Application Services</t>
+  </si>
+  <si>
+    <t>Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>Redshift</t>
+  </si>
+  <si>
+    <t>Virtual Private Cloud</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>SQS (Simple Queue Service)</t>
+  </si>
+  <si>
+    <t>1. Browser (Web Console)
+2. Application Code (Amazon SDK)
+3. Command Line</t>
+  </si>
+  <si>
+    <t>What is AWS</t>
+  </si>
+  <si>
+    <t>Collection of Cloud Computing Services that can work together or independently to run application</t>
+  </si>
+  <si>
+    <t>is a provider of Cloud Services</t>
+  </si>
+  <si>
+    <t>Why AWS</t>
+  </si>
+  <si>
+    <t>AWS Regions</t>
+  </si>
+  <si>
+    <t>Where physical servers are located</t>
+  </si>
+  <si>
+    <t>AWS Availability Zones</t>
+  </si>
+  <si>
+    <t>Sub set of Regions and collection of data centers that have separate power, network and connectivity</t>
+  </si>
+  <si>
+    <t>Amazon Web Services Fundamentals for System Administrators</t>
+  </si>
+  <si>
+    <t>Other cloud service providers in market - but these are as good as AWS</t>
+  </si>
+  <si>
+    <t>1. Microsoft Azure
+2. IBM Bluemix
+2. Heroku</t>
+  </si>
+  <si>
+    <t>1. Pricing - If we want setup new startup. We don’t need to invest huge amount in buying expensive servers. By using AWS we can host our application and pay for how much we use.
+2. Scalability - If no.of requests are increasing for application it is very easy to add more servers using AWS. Again we pay for how much we use</t>
+  </si>
+  <si>
+    <t>AWS Developer: The Big Picture -&gt; module 2 -&gt; Understanding the Core Services of AWS</t>
+  </si>
+  <si>
+    <t>What is S3</t>
+  </si>
+  <si>
+    <t>Static file storage service</t>
+  </si>
+  <si>
+    <t>What is EC2</t>
+  </si>
+  <si>
+    <t>What we can do with EC2 instance?</t>
+  </si>
+  <si>
+    <t>Instance is a computer
+1. To run an application
+2. Login and use it like a virtual machine</t>
+  </si>
+  <si>
+    <t>1. Service provided by AWS for computing needs
+2. Computing services operating in remote data servers around the world</t>
+  </si>
+  <si>
+    <t>What is Elastic means in EC2?</t>
+  </si>
+  <si>
+    <t>Instance running computing operations can increase and decrease at will</t>
+  </si>
+  <si>
+    <t>Basic building block of EC2</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>What is instance?</t>
+  </si>
+  <si>
+    <t>Virtual server</t>
+  </si>
+  <si>
+    <t>Creating an EC2 instance</t>
+  </si>
+  <si>
+    <t>AMI (Amazon Machine Image)</t>
+  </si>
+  <si>
+    <t>Operating System + preinstalled softwares like Java, perl, python etc used on an EC2 instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage termed as </t>
+  </si>
+  <si>
+    <t>EBS (Elastic Block Storage) in EC2. EBS is specific to storage used by EC2. EBS is not same as S3</t>
+  </si>
+  <si>
+    <t>Security Groups</t>
+  </si>
+  <si>
+    <t>Little firewals installed per instance basics</t>
+  </si>
+  <si>
+    <t>Login to Amazon web console -&gt; click on EC2 -&gt; click Launch Instance button -&gt; Select any image -&gt; Select instance Type -&gt; click on "Next: Configure Instance Details" button -&gt; Select Number of instances (replications of same image) -&gt; click on "Next:Add Storage" button -&gt; click "Next: Tag Instance" button -&gt; click "Next: Configure Security Group" button -&gt; click "Review and Launch" button -&gt; click "Launch" button -&gt; select security key pair option -&gt; click "Launch Instances" button</t>
   </si>
 </sst>
 </file>
@@ -352,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -427,12 +574,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -453,6 +609,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -467,6 +629,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -763,20 +928,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,51 +951,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
-    <hyperlink ref="A3" location="'S3'!A1" display="S3"/>
-    <hyperlink ref="A4" location="'EC2'!A1" display="EC2"/>
-    <hyperlink ref="A5" location="DynamoDB!A1" display="Amazon DynamoDB"/>
-    <hyperlink ref="A6" location="SQS!A1" display="SQS"/>
+    <hyperlink ref="A4" location="'EC2'!A1" display="EC2 (Elastic Cloud Compute)"/>
+    <hyperlink ref="B4" location="DynamoDB!A1" display="DynamoDB"/>
+    <hyperlink ref="A5" location="'S3'!A1" display="S3 (Simple Storage Service)"/>
+    <hyperlink ref="B5" location="SQS!A1" display="SQS (Simple Queue Service)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,238 +1055,242 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" ht="90">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" ht="90">
+      <c r="A34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5"/>
@@ -1092,116 +1305,175 @@
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="10" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="5" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="5" t="s">
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="12"/>
+      <c r="B46" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="5" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="5" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="5" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>66</v>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B15" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="B14" r:id="rId8"/>
+    <hyperlink ref="B16" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B17" r:id="rId11"/>
+    <hyperlink ref="B18" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1209,11 +1481,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1231,16 +1503,46 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'S3'!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1248,17 +1550,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.125" customWidth="1"/>
-    <col min="2" max="2" width="107.25" customWidth="1"/>
+    <col min="2" max="2" width="107.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1270,12 +1572,108 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
@@ -1291,7 +1689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1309,8 +1707,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1318,7 +1716,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="DynamoDB!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!B4" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1330,7 +1728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1348,37 +1746,37 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="11"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1787,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="SQS!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!B5" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="EC2" sheetId="4" r:id="rId4"/>
     <sheet name="DynamoDB" sheetId="5" r:id="rId5"/>
     <sheet name="SQS" sheetId="6" r:id="rId6"/>
+    <sheet name="RDS" sheetId="7" r:id="rId7"/>
+    <sheet name="Route53" sheetId="8" r:id="rId8"/>
+    <sheet name="EB" sheetId="9" r:id="rId9"/>
+    <sheet name="Redshift" sheetId="10" r:id="rId10"/>
+    <sheet name="VPC" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
   <si>
     <t>Topics</t>
   </si>
@@ -261,19 +266,12 @@
     <t>EC2 (Elastic Cloud Compute)</t>
   </si>
   <si>
-    <t>Extended Services</t>
-  </si>
-  <si>
     <t>DynamoDB</t>
   </si>
   <si>
     <t>Different ways to access AWS</t>
   </si>
   <si>
-    <t>Core Services of AWS: 
-commonly used services and form the base of for most of the web applications</t>
-  </si>
-  <si>
     <t>S3 (Simple Storage Service)</t>
   </si>
   <si>
@@ -286,16 +284,7 @@
     <t>Application Services</t>
   </si>
   <si>
-    <t>Elastic Beanstalk</t>
-  </si>
-  <si>
     <t>Redshift</t>
-  </si>
-  <si>
-    <t>Virtual Private Cloud</t>
-  </si>
-  <si>
-    <t>CloudFront</t>
   </si>
   <si>
     <t>CloudWatch</t>
@@ -412,6 +401,151 @@
   </si>
   <si>
     <t>Login to Amazon web console -&gt; click on EC2 -&gt; click Launch Instance button -&gt; Select any image -&gt; Select instance Type -&gt; click on "Next: Configure Instance Details" button -&gt; Select Number of instances (replications of same image) -&gt; click on "Next:Add Storage" button -&gt; click "Next: Tag Instance" button -&gt; click "Next: Configure Security Group" button -&gt; click "Review and Launch" button -&gt; click "Launch" button -&gt; select security key pair option -&gt; click "Launch Instances" button</t>
+  </si>
+  <si>
+    <t>Maximum file size that can be stored in S3</t>
+  </si>
+  <si>
+    <t>5 TB</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>1. folder to which we add, read and delete objects/files
+2. We can set different configurations on buckets like permissions, hosting options and logging
+3. Can configure to trigger events when objects are added/modified/deleted
+4. can configure to preserve older version of objects/files
+5. automatically replicate objects across regions</t>
+  </si>
+  <si>
+    <t>6. Buckets can be accessed using URLs</t>
+  </si>
+  <si>
+    <t>Ex S3 Buket URL</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-1.amazonws.com/okfido.org/img/okfido_logo.png</t>
+  </si>
+  <si>
+    <t>s3-us-west-1</t>
+  </si>
+  <si>
+    <t>S3 Bucket Region</t>
+  </si>
+  <si>
+    <t>okfido.org</t>
+  </si>
+  <si>
+    <t>Bucket Name</t>
+  </si>
+  <si>
+    <t>img/okfido_logon.png</t>
+  </si>
+  <si>
+    <t>Object Path</t>
+  </si>
+  <si>
+    <t>S3 pricing structure depends on</t>
+  </si>
+  <si>
+    <t>1. Amount of data stored
+2. Number of requests
+3. Amount of data transferred</t>
+  </si>
+  <si>
+    <t>Projects links</t>
+  </si>
+  <si>
+    <t>Relational Database Services</t>
+  </si>
+  <si>
+    <t>Collection of AWS services to manage relational databases</t>
+  </si>
+  <si>
+    <t>Managed database aspects and benefits</t>
+  </si>
+  <si>
+    <t>RDS database options</t>
+  </si>
+  <si>
+    <t>1. MySQL
+2. Postgre SQL
+3. SQL Server
+4. Maria DB
+5. Oracle
+6. Amazon Aurora</t>
+  </si>
+  <si>
+    <t>AWS will take care of
+1. Scheduled automated backups
+2. Software Updates
+3. Managed infrastructure
+4. configure security groups for database security</t>
+  </si>
+  <si>
+    <t>RDS pricing depends on</t>
+  </si>
+  <si>
+    <t>1. type of database
+2. region
+3. EC2 instance type</t>
+  </si>
+  <si>
+    <t>Other managed database offerings from Amazon</t>
+  </si>
+  <si>
+    <t>1. DynamoDB - No SQL Database
+2. Red Shift - Data warehouse</t>
+  </si>
+  <si>
+    <t>what is Route53</t>
+  </si>
+  <si>
+    <t>service for DNS management both inside and outside AWS</t>
+  </si>
+  <si>
+    <t>DNS - Domain Name System</t>
+  </si>
+  <si>
+    <t>System that translates human readable URLs to IP addresses</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>1. Setup Hosted Zone - hosted zone is like domain name like google.com
+2. we can configure sub domains in hosted zones</t>
+  </si>
+  <si>
+    <t>Compute Services</t>
+  </si>
+  <si>
+    <t>Storage Services</t>
+  </si>
+  <si>
+    <t>Cloud Front</t>
+  </si>
+  <si>
+    <t>Elastic File System</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>VPC (Virtual Private Cloud)</t>
+  </si>
+  <si>
+    <t>Management Tools</t>
+  </si>
+  <si>
+    <t>EB (Elastic Beanstalk)</t>
+  </si>
+  <si>
+    <t>Content Delivery</t>
   </si>
 </sst>
 </file>
@@ -588,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -612,7 +746,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,9 +770,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -928,22 +1066,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,68 +1089,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" ht="45">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="5"/>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1022,12 +1178,125 @@
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
     <hyperlink ref="A4" location="'EC2'!A1" display="EC2 (Elastic Cloud Compute)"/>
-    <hyperlink ref="B4" location="DynamoDB!A1" display="DynamoDB"/>
-    <hyperlink ref="A5" location="'S3'!A1" display="S3 (Simple Storage Service)"/>
-    <hyperlink ref="B5" location="SQS!A1" display="SQS (Simple Queue Service)"/>
+    <hyperlink ref="C5" location="DynamoDB!A1" display="DynamoDB"/>
+    <hyperlink ref="B4" location="'S3'!A1" display="S3 (Simple Storage Service)"/>
+    <hyperlink ref="A12" location="SQS!A1" display="SQS (Simple Queue Service)"/>
+    <hyperlink ref="C4" location="RDS!A1" display="RDS (Relational Database Service)"/>
+    <hyperlink ref="D4" location="Route53!A1" display="Route 53"/>
+    <hyperlink ref="A5" location="EB!A1" display="EB (Elastic Beanstalk)"/>
+    <hyperlink ref="C6" location="Redshift!A1" display="Redshift"/>
+    <hyperlink ref="D5" location="VPC!A1" display="VPC (Virtual Private Cloud)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="110.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Redshift!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!C6" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.625" customWidth="1"/>
+    <col min="2" max="2" width="108.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="VPC!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!D5" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1055,10 +1324,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1081,7 +1350,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1117,7 +1386,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1125,7 +1394,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1191,10 +1460,10 @@
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="16"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
@@ -1309,10 +1578,10 @@
       <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
@@ -1331,7 +1600,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1339,19 +1608,19 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="12"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>56</v>
       </c>
@@ -1398,56 +1667,56 @@
     </row>
     <row r="52" spans="1:2" ht="45">
       <c r="A52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
-        <v>92</v>
+      <c r="A53" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
       <c r="A55" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
       <c r="A58" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1503,46 +1772,110 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17"/>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'S3'!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!B4" display="Topics"/>
+    <hyperlink ref="B17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1552,9 +1885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1572,101 +1905,101 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1707,8 +2040,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1716,7 +2049,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="DynamoDB!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B4" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!C5" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1746,22 +2079,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
@@ -1787,7 +2120,254 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="SQS!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B5" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="115.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="RDS!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!C4" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="109.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Route53!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!D4" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.875" customWidth="1"/>
+    <col min="2" max="2" width="112.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="EB!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="EB" sheetId="9" r:id="rId9"/>
     <sheet name="Redshift" sheetId="10" r:id="rId10"/>
     <sheet name="VPC" sheetId="11" r:id="rId11"/>
+    <sheet name="cloudwatch" sheetId="12" r:id="rId12"/>
+    <sheet name="cloudfront" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="219">
   <si>
     <t>Topics</t>
   </si>
@@ -546,6 +548,203 @@
   </si>
   <si>
     <t>Content Delivery</t>
+  </si>
+  <si>
+    <t>What is EB (Elastic Beanstalk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why EB </t>
+  </si>
+  <si>
+    <t>1. If we deploy application EC2 that needs lots of configuration and settings manually
+2. Scaling have to be taken care manually with AMIs
+3. all the other settings needed by application we need to do manually.
+All these can be done automatically if we EB</t>
+  </si>
+  <si>
+    <t>Advantages of using EB</t>
+  </si>
+  <si>
+    <t>1. Easy deployment with various tools
+2. Set it and forge it configuration
+3. configuration of application monitoring and logging</t>
+  </si>
+  <si>
+    <t>4. EB provides monitoring dashboard where we can see no.of requests, CPU utilization, Network Traffic</t>
+  </si>
+  <si>
+    <t>EB pricing</t>
+  </si>
+  <si>
+    <t>EB is free of cost. We only need to pay for S3 and EC2 instances</t>
+  </si>
+  <si>
+    <t>What is DynamoDB</t>
+  </si>
+  <si>
+    <t>Managed No SQL database service from AWS that supports both document and key-value store models</t>
+  </si>
+  <si>
+    <t>DynamoDB features</t>
+  </si>
+  <si>
+    <t>1. Unlimited and Elastic Storage
+2. No hard ware choices
+3. pay only for what you use</t>
+  </si>
+  <si>
+    <t>DynamoDB core structure</t>
+  </si>
+  <si>
+    <t>Table
+Each table needs primary key for partitioning and indexing the data. Can have secondary index also but its optional</t>
+  </si>
+  <si>
+    <t>Provisioned throughput capacity</t>
+  </si>
+  <si>
+    <t>Number of Read/Write units per second</t>
+  </si>
+  <si>
+    <t>DynamoDB provisoned throughput capacity</t>
+  </si>
+  <si>
+    <t>4 kb per unit</t>
+  </si>
+  <si>
+    <t>What is Redshift</t>
+  </si>
+  <si>
+    <t>Amazon's data warehousing solution</t>
+  </si>
+  <si>
+    <t>Moving data to Redshift</t>
+  </si>
+  <si>
+    <t>Using data pipeline ETL process we can move data from DynamoDB, RDS, S3 to Redshift and analyze the data</t>
+  </si>
+  <si>
+    <t>Redshift basic structure</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>One or more nodes. Where nodes are virtual machines</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>1. Dataware house encryption
+2. VPC protection making sure that requests are coming from specific VPC
+3. No public IP to restrict access to sensitive data to public IP addresses</t>
+  </si>
+  <si>
+    <t>Redshift node categories</t>
+  </si>
+  <si>
+    <t>1. Dense Compute - cheaper, less storage, provides large and 8 large nodes
+2. Dense Storage - Expensive, more storage, provides xlarge and 8xlarge nodes</t>
+  </si>
+  <si>
+    <t>Why VPC</t>
+  </si>
+  <si>
+    <t>Security resources and groups and follow logical spaces to share resources</t>
+  </si>
+  <si>
+    <t>VPC structure</t>
+  </si>
+  <si>
+    <t>Virtual Private Cloud subnets</t>
+  </si>
+  <si>
+    <t>Types of Subnets</t>
+  </si>
+  <si>
+    <t>1. public subnet
+2. private subnet</t>
+  </si>
+  <si>
+    <t>public subnet</t>
+  </si>
+  <si>
+    <t>private subnet</t>
+  </si>
+  <si>
+    <t>1. contains DB and EC2 instances
+2. no access to internet
+3. can use NAT gatway to access internet in public gateway</t>
+  </si>
+  <si>
+    <t>1. access to internet
+2. use security groups to make it secure
+3. contains NAT, Jump Box, Load Balancer etc</t>
+  </si>
+  <si>
+    <t>VPC security tools</t>
+  </si>
+  <si>
+    <t>1. Routing Tables
+2. Network ACL (Access Control Level)</t>
+  </si>
+  <si>
+    <t>what is cloudwatch</t>
+  </si>
+  <si>
+    <t>monitoring service for other services in AWS</t>
+  </si>
+  <si>
+    <t>cloudwatch key functionalities</t>
+  </si>
+  <si>
+    <t>1. monitoring services
+2. Acting on Alerts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acting on alerts </t>
+  </si>
+  <si>
+    <t>performing some actions automatically like 
+1. Sending SMS alert
+2. Autoscale EC2 instances</t>
+  </si>
+  <si>
+    <t>Monitors logs of Ec2</t>
+  </si>
+  <si>
+    <t>This can be done by installing "awslogs agent" in EC2 instance and configure which logs can be sent to cloudwatch. Then clodwatch can be configured to filter logs and send alerts based on criteria we defined</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>It is CDN (Content Delivery Network)
+CloundFront works with S3, EC2, Load balancer, Route 53 to get the content from closest point</t>
+  </si>
+  <si>
+    <t>Key strutcture</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>1. Set of content to be served by cloudfront
+2. for each distribution we need to specify the original location of content such as S3 bucket
+3. once distribution created a unique url will be created for distribution using which we can access the content</t>
+  </si>
+  <si>
+    <t>CloudFront configuration</t>
+  </si>
+  <si>
+    <t>1. Allowed HTTP methods
+2. Edge locations to use
+3. SSL Certificates</t>
+  </si>
+  <si>
+    <t>To run our code on EC2 instances
+Application deployment and management service</t>
   </si>
 </sst>
 </file>
@@ -722,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -749,6 +948,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1070,7 +1277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,10 +1297,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
@@ -1163,10 +1370,10 @@
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1186,6 +1393,8 @@
     <hyperlink ref="A5" location="EB!A1" display="EB (Elastic Beanstalk)"/>
     <hyperlink ref="C6" location="Redshift!A1" display="Redshift"/>
     <hyperlink ref="D5" location="VPC!A1" display="VPC (Virtual Private Cloud)"/>
+    <hyperlink ref="B12" location="cloudwatch!A1" display="CloudWatch"/>
+    <hyperlink ref="C12" location="cloudfront!A1" display="Cloud Front"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1194,11 +1403,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1216,10 +1425,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1229,9 +1438,69 @@
         <v>74</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Redshift!A2" display="Up"/>
@@ -1243,11 +1512,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:B13"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1265,10 +1534,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1279,12 +1548,62 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1295,6 +1614,192 @@
   <hyperlinks>
     <hyperlink ref="B1" location="VPC!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!D5" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="110.125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="cloudwatch!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B12" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.25" customWidth="1"/>
+    <col min="2" max="2" width="109.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="cloudfront!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!C12" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1324,10 +1829,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1386,7 +1891,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1394,7 +1899,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1460,10 +1965,10 @@
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
@@ -1578,10 +2083,10 @@
       <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
@@ -1600,7 +2105,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1608,19 +2113,19 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="14"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="5" t="s">
         <v>56</v>
       </c>
@@ -1674,7 +2179,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -1682,7 +2187,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="5" t="s">
         <v>89</v>
       </c>
@@ -1772,10 +2277,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1786,14 +2291,14 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -1812,7 +2317,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1820,7 +2325,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="21"/>
       <c r="B16" t="s">
         <v>124</v>
       </c>
@@ -1905,10 +2410,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1919,16 +2424,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
@@ -2018,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2040,12 +2545,74 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="DynamoDB!A2" display="Up"/>
@@ -2061,7 +2628,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2079,22 +2646,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
@@ -2150,10 +2717,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2164,16 +2731,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -2253,10 +2820,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2267,14 +2834,14 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -2316,11 +2883,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2338,10 +2905,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2352,18 +2919,61 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="17"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="EB!A2" display="Up"/>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="VPC" sheetId="11" r:id="rId11"/>
     <sheet name="cloudwatch" sheetId="12" r:id="rId12"/>
     <sheet name="cloudfront" sheetId="13" r:id="rId13"/>
+    <sheet name="CLI" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
   <si>
     <t>Topics</t>
   </si>
@@ -262,9 +263,6 @@
     <t>AWS Developer: The Big Picture</t>
   </si>
   <si>
-    <t>AWS Developer: Getting started</t>
-  </si>
-  <si>
     <t>EC2 (Elastic Cloud Compute)</t>
   </si>
   <si>
@@ -324,9 +322,6 @@
     <t>Sub set of Regions and collection of data centers that have separate power, network and connectivity</t>
   </si>
   <si>
-    <t>Amazon Web Services Fundamentals for System Administrators</t>
-  </si>
-  <si>
     <t>Other cloud service providers in market - but these are as good as AWS</t>
   </si>
   <si>
@@ -337,9 +332,6 @@
   <si>
     <t>1. Pricing - If we want setup new startup. We don’t need to invest huge amount in buying expensive servers. By using AWS we can host our application and pay for how much we use.
 2. Scalability - If no.of requests are increasing for application it is very easy to add more servers using AWS. Again we pay for how much we use</t>
-  </si>
-  <si>
-    <t>AWS Developer: The Big Picture -&gt; module 2 -&gt; Understanding the Core Services of AWS</t>
   </si>
   <si>
     <t>What is S3</t>
@@ -745,6 +737,21 @@
   <si>
     <t>To run our code on EC2 instances
 Application deployment and management service</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>CLI amazon documentation</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/cli/</t>
+  </si>
+  <si>
+    <t>AWS Developer: Getting Started</t>
+  </si>
+  <si>
+    <t>Pluralsight tutorial videos - go through in the same order</t>
   </si>
 </sst>
 </file>
@@ -921,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -962,6 +969,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -978,6 +989,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1273,11 +1293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1300,56 +1320,58 @@
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1357,29 +1379,46 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
@@ -1395,6 +1434,7 @@
     <hyperlink ref="D5" location="VPC!A1" display="VPC (Virtual Private Cloud)"/>
     <hyperlink ref="B12" location="cloudwatch!A1" display="CloudWatch"/>
     <hyperlink ref="C12" location="cloudfront!A1" display="Cloud Front"/>
+    <hyperlink ref="B2" location="CLI!A1" display="CLI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1407,7 +1447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1425,75 +1465,72 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1505,6 +1542,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Redshift!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C6" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1516,7 +1554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1534,75 +1572,72 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1614,6 +1649,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="VPC!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!D5" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1623,9 +1659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1643,59 +1679,56 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1707,6 +1740,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="cloudwatch!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B12" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1718,7 +1752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1736,59 +1770,57 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1800,6 +1832,63 @@
   <hyperlinks>
     <hyperlink ref="B1" location="cloudfront!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C12" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.625" customWidth="1"/>
+    <col min="2" max="2" width="110" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="CLI!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A4" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1807,11 +1896,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1820,7 +1909,7 @@
     <col min="2" max="2" width="111.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1828,426 +1917,394 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="20"/>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" ht="90">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
+      <c r="A37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="17"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A41" s="20"/>
       <c r="B41" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45">
+      <c r="A42" s="20"/>
       <c r="B42" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="75">
-      <c r="A43" s="18" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="18"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45">
+      <c r="A44" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="18"/>
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
       <c r="B45" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="18"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B46" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
       <c r="A47" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
       <c r="A48" s="5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>11</v>
+      <c r="A49" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A50" s="17"/>
       <c r="B50" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
       <c r="A51" s="5" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
-        <v>87</v>
+      <c r="A53" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="15"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45">
+      <c r="A54" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="B54" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="45">
-      <c r="A55" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A53:A54"/>
+  <mergeCells count="8">
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
     <hyperlink ref="B13" r:id="rId7"/>
     <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B16" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B17" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
+    <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="B5" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2258,8 +2315,8 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2277,97 +2334,112 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>99</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="19"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23"/>
+      <c r="B16" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="21"/>
-      <c r="B16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2381,6 +2453,9 @@
     <hyperlink ref="B1" location="'S3'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B4" display="Topics"/>
     <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2391,8 +2466,8 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2410,101 +2485,98 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2516,6 +2588,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2527,7 +2600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2545,67 +2618,65 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2617,6 +2688,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="DynamoDB!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C5" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2628,7 +2700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2646,22 +2718,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
@@ -2688,6 +2765,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="SQS!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2699,7 +2777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2717,69 +2795,66 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="19"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2791,6 +2866,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="RDS!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C4" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2802,7 +2878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2820,51 +2896,48 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2876,6 +2949,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Route53!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!D4" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2887,7 +2961,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2905,67 +2979,64 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2978,6 +3049,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="EB!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="QuickStart" sheetId="2" r:id="rId2"/>
-    <sheet name="S3" sheetId="3" r:id="rId3"/>
-    <sheet name="EC2" sheetId="4" r:id="rId4"/>
-    <sheet name="DynamoDB" sheetId="5" r:id="rId5"/>
-    <sheet name="SQS" sheetId="6" r:id="rId6"/>
-    <sheet name="RDS" sheetId="7" r:id="rId7"/>
-    <sheet name="Route53" sheetId="8" r:id="rId8"/>
-    <sheet name="EB" sheetId="9" r:id="rId9"/>
-    <sheet name="Redshift" sheetId="10" r:id="rId10"/>
-    <sheet name="VPC" sheetId="11" r:id="rId11"/>
-    <sheet name="cloudwatch" sheetId="12" r:id="rId12"/>
-    <sheet name="cloudfront" sheetId="13" r:id="rId13"/>
-    <sheet name="CLI" sheetId="14" r:id="rId14"/>
+    <sheet name="Materials" sheetId="16" r:id="rId2"/>
+    <sheet name="QuickStart" sheetId="2" r:id="rId3"/>
+    <sheet name="S3" sheetId="3" r:id="rId4"/>
+    <sheet name="EC2" sheetId="4" r:id="rId5"/>
+    <sheet name="DynamoDB" sheetId="5" r:id="rId6"/>
+    <sheet name="SQS" sheetId="6" r:id="rId7"/>
+    <sheet name="RDS" sheetId="7" r:id="rId8"/>
+    <sheet name="Route53" sheetId="8" r:id="rId9"/>
+    <sheet name="EB" sheetId="9" r:id="rId10"/>
+    <sheet name="Redshift" sheetId="10" r:id="rId11"/>
+    <sheet name="VPC" sheetId="11" r:id="rId12"/>
+    <sheet name="cloudwatch" sheetId="12" r:id="rId13"/>
+    <sheet name="cloudfront" sheetId="13" r:id="rId14"/>
+    <sheet name="CLI" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="232">
   <si>
     <t>Topics</t>
   </si>
@@ -389,9 +390,6 @@
   </si>
   <si>
     <t>Security Groups</t>
-  </si>
-  <si>
-    <t>Little firewals installed per instance basics</t>
   </si>
   <si>
     <t>Login to Amazon web console -&gt; click on EC2 -&gt; click Launch Instance button -&gt; Select any image -&gt; Select instance Type -&gt; click on "Next: Configure Instance Details" button -&gt; Select Number of instances (replications of same image) -&gt; click on "Next:Add Storage" button -&gt; click "Next: Tag Instance" button -&gt; click "Next: Configure Security Group" button -&gt; click "Review and Launch" button -&gt; click "Launch" button -&gt; select security key pair option -&gt; click "Launch Instances" button</t>
@@ -753,12 +751,136 @@
   <si>
     <t>Pluralsight tutorial videos - go through in the same order</t>
   </si>
+  <si>
+    <t>Little firewals installed per instance basis</t>
+  </si>
+  <si>
+    <t>Installing AWS CLI (Command Line Interface)</t>
+  </si>
+  <si>
+    <t>AWS CLI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. go to url: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://aws.amazon.com/cli/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Download installer - right top side we can see download link for windows. Download 64-bit
+3. AWSCLI64.msi will be downloaded
+4. install it
+5. open command prompt and type execute this command. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aws --version
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. if you see aws command not recognized then restart your machine becuase AWS CLI needs to restart machine to update path settings</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS console</t>
+  </si>
+  <si>
+    <t>https://console.aws.amazon.com</t>
+  </si>
+  <si>
+    <t>Create new access key</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Login to aws console
+2. click on login user name -&gt; opens a popup -&gt; click on "Security Credentials"
+3. Popup opens contains 2 buttons. Continue to Security Credentials, Get Started with IAM Users
+4. Click on Continue to Security Credentials
+5. Click on "Access Keys (Access Key ID and Secret Access Key)"
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on "Create New Access Key" button
+7. Access key, Security key will be generated and displayed in popup. We can copy them manually or download as CSV file
+8. Security key will be displayed only once, so keep it safe and secure
+9. How ever we can delete existing keys and delete new ones
+10. Access and Security keys will be used to access AWS from CLI and SDK</t>
+    </r>
+  </si>
+  <si>
+    <t>Accessing AWS from CLI</t>
+  </si>
+  <si>
+    <t>To check whether aws CLI configured correctly? Execute this command</t>
+  </si>
+  <si>
+    <t>1. open command prompt
+2. type "aws configure"
+3. it will ask for access key. Enter your access key
+4. it will ask for security key. Enter your security key
+5. Default region name. Enter ur region. I entered "ap-south-1". This we can see by selecting your region and check URL. URL will have region request parameter
+6. Default output format. Enter "json".</t>
+  </si>
+  <si>
+    <t>aws ec2 describe-instances</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +927,27 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -928,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -973,14 +1116,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -989,13 +1154,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1302,10 +1461,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="34.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1321,21 +1481,24 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="C3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1354,21 +1517,21 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>82</v>
@@ -1382,10 +1545,10 @@
         <v>81</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1396,30 +1559,17 @@
         <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="15" t="s">
-        <v>219</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" ht="15" customHeight="1"/>
+    <row r="22" spans="5:5">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
@@ -1435,6 +1585,7 @@
     <hyperlink ref="B12" location="cloudwatch!A1" display="CloudWatch"/>
     <hyperlink ref="C12" location="cloudfront!A1" display="Cloud Front"/>
     <hyperlink ref="B2" location="CLI!A1" display="CLI"/>
+    <hyperlink ref="C2" location="Materials!A1" display="Material Links"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1452,6 +1603,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="50.875" customWidth="1"/>
+    <col min="2" max="2" width="112.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="28"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="EB!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
     <col min="1" max="1" width="54.125" customWidth="1"/>
     <col min="2" max="2" width="110.125" customWidth="1"/>
   </cols>
@@ -1465,10 +1716,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1476,61 +1727,61 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1572,10 +1823,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1583,61 +1834,61 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1679,10 +1930,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1690,45 +1941,45 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1770,10 +2021,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -1782,45 +2033,45 @@
       <c r="B3" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +2089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1862,17 +2113,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1896,11 +2147,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.875" customWidth="1"/>
+    <col min="2" max="2" width="105.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="22" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B18" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="B20" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B21" r:id="rId10"/>
+    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!C2" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C4"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1909,7 +2324,7 @@
     <col min="2" max="2" width="111.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1917,400 +2332,332 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="5" spans="1:2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="90">
       <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25"/>
       <c r="B30" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="25"/>
       <c r="B31" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="25"/>
+      <c r="B32" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
+      <c r="A33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="19"/>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="20" t="s">
-        <v>52</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="20"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="20"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="20"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="5" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="45">
-      <c r="A54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="5" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="45" spans="1:2" ht="90">
+      <c r="A45" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="150">
+      <c r="A46" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="105">
+      <c r="A47" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A49:A50"/>
+  <mergeCells count="5">
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
     <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
-    <hyperlink ref="B4" r:id="rId9"/>
-    <hyperlink ref="B5" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2334,10 +2681,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2361,16 +2708,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -2382,64 +2729,64 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
         <v>117</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="23" t="s">
+      <c r="B15" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="31"/>
+      <c r="B16" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
-      <c r="B16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
         <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
         <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
         <v>128</v>
-      </c>
-      <c r="B20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2461,13 +2808,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2485,27 +2832,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
@@ -2552,7 +2907,7 @@
         <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2575,8 +2930,8 @@
       <c r="A22" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>115</v>
+      <c r="B22" s="17" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2589,12 +2944,13 @@
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -2618,10 +2974,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2630,53 +2986,53 @@
       <c r="B3" s="11"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +3050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -2718,10 +3074,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2729,16 +3085,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
@@ -2771,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -2795,10 +3151,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2806,55 +3162,55 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="19"/>
+      <c r="A6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="28"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +3228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -2896,10 +3252,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2907,37 +3263,37 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
         <v>145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2953,104 +3309,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.875" customWidth="1"/>
-    <col min="2" max="2" width="112.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:A16"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="EB!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="cloudwatch" sheetId="12" r:id="rId13"/>
     <sheet name="cloudfront" sheetId="13" r:id="rId14"/>
     <sheet name="CLI" sheetId="14" r:id="rId15"/>
+    <sheet name="IAM" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="314">
   <si>
     <t>Topics</t>
   </si>
@@ -256,9 +257,6 @@
   </si>
   <si>
     <t>Simple Queue Service</t>
-  </si>
-  <si>
-    <t>Pluralsight</t>
   </si>
   <si>
     <t>AWS Developer: The Big Picture</t>
@@ -681,9 +679,6 @@
   </si>
   <si>
     <t>what is cloudwatch</t>
-  </si>
-  <si>
-    <t>monitoring service for other services in AWS</t>
   </si>
   <si>
     <t>cloudwatch key functionalities</t>
@@ -874,6 +869,294 @@
   </si>
   <si>
     <t>aws ec2 describe-instances</t>
+  </si>
+  <si>
+    <t>Command to access list of access keys</t>
+  </si>
+  <si>
+    <t>aws iam list-access-keys</t>
+  </si>
+  <si>
+    <t>Command to debug describe-instances command</t>
+  </si>
+  <si>
+    <t>aws ec2 describe-instances --debug</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/AmazonSQSPractice.git</t>
+  </si>
+  <si>
+    <t>Security and Identity</t>
+  </si>
+  <si>
+    <t>IAM (Identity and Access Management)</t>
+  </si>
+  <si>
+    <t>1. monitoring service for other services in AWS
+2. Service to set alarms based on Service metric thresholds (for example, EC2 CPU usage, DynamoDB Read/Write throughput, Estimated billing charges)</t>
+  </si>
+  <si>
+    <t>What happens on setting cloudwatch</t>
+  </si>
+  <si>
+    <t>We can set cloud watch to send alerts if some thing weird is happening like examples told above. We can easily configure where the alert should be sent using SNS</t>
+  </si>
+  <si>
+    <t>Notifications can be sent to</t>
+  </si>
+  <si>
+    <t>1. Email
+2. SMS
+3. HTTP and more</t>
+  </si>
+  <si>
+    <t>What else we can do with cloud watch other setting an alarm</t>
+  </si>
+  <si>
+    <t>We can configure an alarm to trigger an action when certain threshold is passed
+This action based response is available for EC2 instances and Autoscaling Groups</t>
+  </si>
+  <si>
+    <t>For example if incoming network requests of an EC2 instancs passed a certain threshold then we can trigger an Auto Scaling Group action that adds another EC2 instance to the group.
+Infact Auto scaling groups use cloud watch under the covers to trigger their own scaling actions</t>
+  </si>
+  <si>
+    <t>SNS (Simple Notification Service)</t>
+  </si>
+  <si>
+    <t>Integral companion to cloudwatch allowing you to easily push alerts to a group of notification end points</t>
+  </si>
+  <si>
+    <t>Note on SNS</t>
+  </si>
+  <si>
+    <t>Main structure in SNS in Topic. Topic is used to create a unique Amazon resource name that can then have notification sent to it. Once you subscribe to a Topic with an email or SMS number then any notification sent to that SNS topic will then be communicated to your subscribed end point</t>
+  </si>
+  <si>
+    <t>Setting Billing alarm SNS</t>
+  </si>
+  <si>
+    <t>Setting CloudWatch billing alarm (Billing alerts are currently available in north verginia region)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting CloudWatch alarm </t>
+  </si>
+  <si>
+    <t>1. This service available in US East N Verginia region. So change to this region before setting this alarm
+2. Click on Services on top menu -&gt; click SNS -&gt; click on Get Started button -&gt; Click on Create Topic -&gt; Give Topic Name, Display Name -&gt;  click Create Topic button
+3. In subscriptions section we can manage end points subscribed to this topic
+4. Setting Email subscription. Click Create Subscription button -&gt; click Protocol -&gt; Choose Email in the drop down -&gt; enter your email in the EndPoint text box -&gt; click Create Subscription button -&gt; Now confirmation mail will be sent to email we entered in Endpoint text box -&gt; Click Confirm Subscription link in the email -&gt; Now refresh subscriptions section in AWS console -&gt; Now email subscription will be indicated active</t>
+  </si>
+  <si>
+    <t>Click on Services on top menu -&gt; click on CloudWatch -&gt; on cloud watch dashboard we will see menu option on left side where we can see different options available</t>
+  </si>
+  <si>
+    <t>1. Select US East N Verginia region
+2. Click on user name -&gt; click on Billing &amp; Cost Management in the drop down -&gt; on the left hand side click on Preferences -&gt; check "Receive Billing Alerts" check box -&gt; click Save Preferences button
+3. Click on Services on Top menu -&gt; click on CloudWatch -&gt; click on Alarms on left side menu -&gt; click on Create Alarm button (in the popup we can see several billing metrics available) -&gt; click on Total Estimated Charge -&gt; Select USD check box -&gt; Set Time Range -&gt; click 12H -&gt; click Next button -&gt; enter any name(Ex: Billing Alarm) in Name text box -&gt; Estimated chanrges (this is threshold when alarm has to be triggered), I am entering 5 means alarm has to be triggered if billing is more than 5$ -&gt; Under Actions setup notification action -&gt; click on Send Notification to: drop down -&gt; select the SNS we created above -&gt; click Create Alarm button</t>
+  </si>
+  <si>
+    <t>What is IAM (Identity Access Management)</t>
+  </si>
+  <si>
+    <t>Access management service that controls who can have access to what in your AWS account</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Allows us to manage passwords, authentication, multifactor autentication, access keys and SSH keys for all users created on an account. Permission to those users to access/manage other services on the account can also be managed using IAM</t>
+  </si>
+  <si>
+    <t>IAM structure</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>For example Developer Group Policy</t>
+  </si>
+  <si>
+    <t>can have full access to EC2 instances</t>
+  </si>
+  <si>
+    <t>Tester Group Policy</t>
+  </si>
+  <si>
+    <t>1. Read only access to DynamoDB
+2. Full access to S3 Test Bucket</t>
+  </si>
+  <si>
+    <t>is a collection of permissions to access different services in a particular way.
+Policies can be resource level or in a broad upto service level
+Policies will mixed and matched with particular user or group
+Policies make it easy to assign permissions to users or groups in an administrative way</t>
+  </si>
+  <si>
+    <t>Access IAM</t>
+  </si>
+  <si>
+    <t>1. Click on Identity and Access Management link -&gt; opens a dashboard -&gt; Here can see current users, groups etc
+2. Dashboard will have Securty status check based on amazon suggeste best practices
+3. On the left side we will see individual sections of IAM like users, groups, policies etc</t>
+  </si>
+  <si>
+    <t>Base of AWS account is called</t>
+  </si>
+  <si>
+    <t>Root account</t>
+  </si>
+  <si>
+    <t>To root accont all services are available like</t>
+  </si>
+  <si>
+    <t>1. Administer all services
+2. Modify Billing information
+3. Manage Users
+Amazon suggested many best practices to secure accounts. One such is MFA</t>
+  </si>
+  <si>
+    <t>MFA (Multi Factor Authentication)</t>
+  </si>
+  <si>
+    <t>1. has long been industry standard for secure authentication of online accounts. Multi factor means there are more than one way that we will authenticate. The MFA provided by AWS ensures the user knows a specific password and also has a specific device.
+2. When MFA has been activated you will need to enter your password, as well as an authentication code from your MFA device.
+3. This authentication code refreshes every 60 seconds, which is what makes this second form of authentication very secure</t>
+  </si>
+  <si>
+    <t>MFA device</t>
+  </si>
+  <si>
+    <t>1. For MFA device AWS allows us to use either hard ware device (mobile) or virtual device (virtual smart phone)
+2. There are plenty of MFA apps available in Google play. One such app is "Duo Mobile". This works great with AWS</t>
+  </si>
+  <si>
+    <t>Set MFA on AWS account</t>
+  </si>
+  <si>
+    <t>Test above set MFA account</t>
+  </si>
+  <si>
+    <t>Click on user name -&gt; click Security Credentials in the drop down -&gt; click on Continue to Security Credentials button -&gt; click on Multi-Factor Authentication (MFA) -&gt; Click Activate MFA button -&gt; select A virtual MFA device if you are using smart phone -&gt; click Next Step button -&gt; click on Next Step button -&gt; We will see QR Code -&gt; Scan the QR code with Duo Mobile installed in smart phone  -&gt; Enter 2 authentication codes from the account created in that MFA app -&gt; Once both codes entered click on Activate Virtual MFA button -&gt; Finish -&gt; MFA activated on root account</t>
+  </si>
+  <si>
+    <t>1. Signout AWS console
+2. login again
+3. Enter password
+4. Now new screen asking for Authentication Code
+5. Enter authentication code from MFA app</t>
+  </si>
+  <si>
+    <t>Understading Policies</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Values are "Allow" or "Deny" and controls how a policy can respond when a user requests access. All AWS permissions are denied by default.</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Action an user can perform. Each service has set list of actions that can be performed on it, and this property says what the user is able to perform</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Resource user can request to perform action on.
+The Resource property should have ARN (Amazon Resource Name) entered for the given resource. Alternatively we can use an asterisk for this property to give the user access to any resource</t>
+  </si>
+  <si>
+    <t>IAM policy types</t>
+  </si>
+  <si>
+    <t>1. AWS Managed Policy - General purpose, Service-wide permissions
+2. Customer Managed Policy - Custom, Specific Resource Permissions (for example allowing user to upload files to specific bucket in S3 or not)</t>
+  </si>
+  <si>
+    <t>Take a look at the policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS console -&gt; click on Identity and Access Management -&gt; loads IAM dashboard -&gt; select Policies on left side menu (if you are seeing this page for first time then you will see a popup and click on manage policies button) -&gt; we can see all the available policies -&gt; click on the entry with the name "Administrator Access" -&gt; open a page to show policy details -&gt; policy document is important part of the policy </t>
+  </si>
+  <si>
+    <t>1. Fundamental building blocks of IAM application
+2. Policies are one or more statements that declare whether a user is allowed to do something or not
+3. Policies can be applies to individual users or groups (users will then be added to)
+4. Policy statement has three properties that give or restrict access. They are Effect, Action, Resource
+5. policies are used to give permissions to users</t>
+  </si>
+  <si>
+    <t>IAM Groups</t>
+  </si>
+  <si>
+    <t>Group of IAM users</t>
+  </si>
+  <si>
+    <t>Why IAM Groups</t>
+  </si>
+  <si>
+    <t>1. Groups allow us to apply policies to group of users that have been added to said group
+2. Amazon suggests applying policies to groups instead of users , since it is easier to manage permissions.
+3. Users can be added to more than one group
+4. As a best practice amazon suggests not to use root account to do things in AWS because root user will have unlimited access to do just about anything. Instead it is suggested to create a user and login under that account to administer services in AWS</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click on Identity and Access Management -&gt; left hand side click on Users -&gt; click Create New Users button -&gt; We can create more than one user, enter usernames based on how many users needed -&gt; Enter username -&gt; check "Generate an access key for each user" check box -&gt; click Create button -&gt; Now Either Download the credentials or show user credentials -&gt; copy the Access Key, Sercret Key -&gt; click Close link below -&gt; click Close link -&gt; we will be navigated to user creation screen -&gt; here we can see new user created</t>
+  </si>
+  <si>
+    <t>Creating a new user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once new user created configure AWS console with new user using "aws configure" command -&gt; give Access Key and Secret Key of this user -&gt; </t>
+  </si>
+  <si>
+    <t>Delete Access keys to root account to increase security of root account</t>
+  </si>
+  <si>
+    <t>click on user name -&gt; click on Security Credentials -&gt; click Continue to Security Credentials button -&gt; click Access Key -&gt; click on Delete link -&gt; click Yes button</t>
+  </si>
+  <si>
+    <t>Giving permissions to user created above</t>
+  </si>
+  <si>
+    <t>1. Amazon suggests to apply policies to groups, so lets create admin group
+2. IAM dashboard -&gt; click Groups in left side menu -&gt; click Create New Group button -&gt; enter name "admin" -&gt; click Next Step button -&gt; select "Administrator Access" policy -&gt; click Next Step button -&gt; click Create Group button -&gt; we will be navigated to Groups screen where we can see new Group created</t>
+  </si>
+  <si>
+    <t>Adding user to Group</t>
+  </si>
+  <si>
+    <t>click on admin group created above -&gt; click Users tab -&gt; click Add Users to Group button -&gt; select the user(s) you want to add -&gt; click Add Users button</t>
+  </si>
+  <si>
+    <t>Check permissions added to user added in the above group</t>
+  </si>
+  <si>
+    <t>click on user added to group above -&gt; click Permissions tab -&gt; under Group policies we can see Administrator Access policy</t>
+  </si>
+  <si>
+    <t>Create Password policy on AWS account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM dashboarc -&gt; Account Settings -&gt; in password policy section we can see many different options available -&gt; select choices of our requirement -&gt; Apply Password Policy </t>
+  </si>
+  <si>
+    <t>Assign Password to user created above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM dashboard -&gt; Users -&gt; click on user -&gt; click Security Credentials tab -&gt; click Manage Password -&gt; click Assign a custom password -&gt; enter password and confirm password fields -&gt; click Apply button </t>
+  </si>
+  <si>
+    <t>Login as user created above</t>
+  </si>
+  <si>
+    <t>IAM dashboard -&gt; copy IAM User Signin Link -&gt; keep it safe -&gt; Enter in the new tab -&gt; login with new username and password</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1066,12 +1349,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1129,6 +1438,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1138,8 +1463,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1147,16 +1484,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1456,7 +1784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1481,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>65</v>
@@ -1489,52 +1817,52 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="C3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1542,24 +1870,30 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" customHeight="1"/>
@@ -1586,6 +1920,7 @@
     <hyperlink ref="C12" location="cloudfront!A1" display="Cloud Front"/>
     <hyperlink ref="B2" location="CLI!A1" display="CLI"/>
     <hyperlink ref="C2" location="Materials!A1" display="Material Links"/>
+    <hyperlink ref="D12" location="IAM!A1" display="IAM (Identity and Access Management)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1594,11 +1929,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1616,77 +1951,71 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
+      <c r="B2" s="38"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="28"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="27" t="s">
+      <c r="B6" s="38"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2" ht="30">
+      <c r="B11" s="38"/>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
       <c r="A13" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="39" t="s">
+        <v>160</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="10" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="B16" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="EB!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1694,11 +2023,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1716,40 +2045,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="28"/>
+      <c r="A11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1760,40 +2092,31 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="45">
       <c r="A15" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
+      <c r="B15" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Redshift!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C6" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1801,11 +2124,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1823,48 +2146,51 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="38"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
+      <c r="B15" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
       <c r="A16" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
@@ -1872,35 +2198,26 @@
         <v>193</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="B18" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="VPC!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!D5" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1908,16 +2225,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="1" max="1" width="53.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="110.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1930,44 +2247,47 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
+      <c r="B2" s="38"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="26" t="s">
         <v>199</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="26" t="s">
         <v>201</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="26" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1975,23 +2295,85 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>206</v>
+      <c r="A15" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="34"/>
+      <c r="B19" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="105">
+      <c r="A21" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="120">
+      <c r="A23" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="cloudwatch!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B12" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1999,11 +2381,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2021,41 +2403,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
+      <c r="B2" s="38"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:2" ht="30">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
@@ -2066,24 +2450,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="cloudfront!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C12" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2091,17 +2466,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.625" customWidth="1"/>
-    <col min="2" max="2" width="110" customWidth="1"/>
+    <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="107.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2113,33 +2488,371 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="105">
+      <c r="A12" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="CLI!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="A4" location="Topics!A21" display="Pluralsight"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="105.375" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75">
+      <c r="A24" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75">
+      <c r="A33" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="34"/>
+      <c r="B35" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A34:A35"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="IAM!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!D12" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2169,26 +2882,26 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -2207,7 +2920,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2215,7 +2928,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2270,18 +2983,18 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2311,11 +3024,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2333,121 +3046,120 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B2" s="33"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="30"/>
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="90">
+    <row r="19" spans="1:2" ht="90">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5"/>
@@ -2462,195 +3174,166 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="38"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="28"/>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="25" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="31"/>
       <c r="B29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="25"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="25"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B32" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
       <c r="A33" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>11</v>
+      <c r="A35" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
       <c r="A37" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="26" t="s">
-        <v>86</v>
-      </c>
+      <c r="A39" s="34"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="26"/>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
       <c r="A43" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="45">
-      <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="90">
-      <c r="A45" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="150">
-      <c r="A46" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="105">
-      <c r="A47" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>231</v>
+    </row>
+    <row r="45" spans="1:2" ht="150">
+      <c r="A45" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2659,11 +3342,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2681,128 +3364,122 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="28"/>
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="31" t="s">
+      <c r="B14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="39"/>
+      <c r="B15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
-      <c r="B16" t="s">
+      <c r="A16" t="s">
         <v>120</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="3" t="s">
         <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
       <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" t="s">
+      <c r="B20" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'S3'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B4" display="Topics"/>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2810,11 +3487,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2832,119 +3509,113 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="28"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
+      <c r="B7" s="38"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" ht="30">
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>220</v>
+      <c r="B21" s="17" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2952,11 +3623,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2974,77 +3645,70 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="A11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="45">
+      <c r="B12" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="10" t="s">
         <v>171</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="DynamoDB!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C5" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3052,11 +3716,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3074,54 +3738,57 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="38"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="28"/>
+      <c r="A7" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="38"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="SQS!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A12" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3129,11 +3796,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3151,78 +3818,72 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
+      <c r="B2" s="38"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="38"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="28"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75">
       <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="75">
+      <c r="B11" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90">
       <c r="A12" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="90">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
       <c r="B13" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" t="s">
         <v>140</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="RDS!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C4" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3230,11 +3891,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3252,60 +3913,54 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="28"/>
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" t="s">
+      <c r="B14" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Route53!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!D4" display="Topics"/>
-    <hyperlink ref="A3" location="Topics!A21" display="Pluralsight"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="326">
   <si>
     <t>Topics</t>
   </si>
@@ -1157,6 +1157,101 @@
   </si>
   <si>
     <t>IAM dashboard -&gt; copy IAM User Signin Link -&gt; keep it safe -&gt; Enter in the new tab -&gt; login with new username and password</t>
+  </si>
+  <si>
+    <t>classes for below code samples</t>
+  </si>
+  <si>
+    <t>import com.amazonaws.auth.BasicAWSCredentials;
+import com.amazonaws.services.sqs.AmazonSQS;
+import com.amazonaws.services.sqs.AmazonSQSClient;
+import com.amazonaws.services.sqs.model.DeleteMessageRequest;
+import com.amazonaws.services.sqs.model.GetQueueUrlRequest;
+import com.amazonaws.services.sqs.model.GetQueueUrlResult;
+import com.amazonaws.services.sqs.model.ListQueuesResult;
+import com.amazonaws.services.sqs.model.Message;
+import com.amazonaws.services.sqs.model.ReceiveMessageRequest;
+import com.amazonaws.services.sqs.model.ReceiveMessageResult;
+import com.amazonaws.services.sqs.model.SendMessageRequest;
+import com.amazonaws.services.sqs.model.SendMessageResult;</t>
+  </si>
+  <si>
+    <t>getQueueURL</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest getQueueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(getQueueUrlRequest);
+  String queueUrl = getQueueUrlResult.getQueueUrl();
+  System.out.println("----- queue url ---------");
+  System.out.println("queueUrl: " + queueUrl);</t>
+  </si>
+  <si>
+    <t>listQueues</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  ListQueuesResult queues = sqs.listQueues();
+  System.out.println("---- queues list-----");
+  System.out.println(queues);</t>
+  </si>
+  <si>
+    <t>sendMessageToQueue</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  String message = "Welcome to my queue";
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest getQueueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(getQueueUrlRequest);
+  String queueURL = getQueueUrlResult.getQueueUrl();
+  System.out.println("------- queue url----");
+  System.out.println(queueURL);
+  SendMessageRequest messageRequest = new SendMessageRequest(queueURL, message);
+  System.out.println("---- send message----");
+  SendMessageResult messageResult = sqs.sendMessage(messageRequest);
+  System.out.println("-----message result-----");
+  System.out.println(messageResult.toString());</t>
+  </si>
+  <si>
+    <t>getMessageFromQueue</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest queueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult queueUrlResult = sqs.getQueueUrl(queueUrlRequest);
+  String queueUrl = queueUrlResult.getQueueUrl();
+  ReceiveMessageRequest receiveMessageRequest = new ReceiveMessageRequest(queueUrl);
+  ReceiveMessageResult receiveMessageResult = sqs.receiveMessage(receiveMessageRequest);
+  List&lt;Message&gt; messages = receiveMessageResult.getMessages();
+  System.out.println("--- messages ----");
+  System.out.println(messages);</t>
+  </si>
+  <si>
+    <t>deleteMessageFromQueue</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest queueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(queueUrlRequest);
+  String queueUrl = getQueueUrlResult.getQueueUrl();
+  ReceiveMessageRequest receiveMessageRequest = new ReceiveMessageRequest(queueUrl);
+  ReceiveMessageResult receiveMessageResult = sqs.receiveMessage(receiveMessageRequest);
+  List&lt;Message&gt; messages = receiveMessageResult.getMessages();
+  Message message = messages.get(0);
+  String messageRecieptHandler = message.getReceiptHandle();
+  System.out.println("message to be deleted: " + message.getBody() + ", handle: " + message.getReceiptHandle());
+  DeleteMessageRequest deleteMessageRequest = new DeleteMessageRequest(queueUrl, messageRecieptHandler);
+  sqs.deleteMessage(deleteMessageRequest);</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1454,6 +1549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1485,6 +1583,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1784,7 +1885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1951,22 +2052,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -1985,7 +2086,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1993,7 +2094,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2045,20 +2146,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2146,20 +2247,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2228,7 +2329,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2247,20 +2348,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2319,7 +2420,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="35" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2327,7 +2428,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="26" t="s">
         <v>245</v>
       </c>
@@ -2403,20 +2504,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -2488,10 +2589,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2502,14 +2603,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
@@ -2570,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
@@ -2590,20 +2691,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -2774,7 +2875,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="35" t="s">
         <v>298</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2782,7 +2883,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="27" t="s">
         <v>299</v>
       </c>
@@ -2882,10 +2983,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2898,10 +2999,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -2920,7 +3021,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2928,7 +3029,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3028,7 +3129,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3046,20 +3147,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3174,10 +3275,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="39"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3196,7 +3297,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3204,19 +3305,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3270,7 +3371,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3278,7 +3379,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="34"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3364,10 +3465,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3386,16 +3487,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3414,7 +3515,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3422,7 +3523,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" t="s">
         <v>119</v>
       </c>
@@ -3509,10 +3610,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3523,16 +3624,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -3645,20 +3746,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -3716,11 +3817,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3738,16 +3839,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -3758,10 +3859,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -3772,11 +3873,59 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="41" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="180">
+      <c r="A15" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="165">
+      <c r="A16" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="120">
+      <c r="A17" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="255">
+      <c r="A18" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="210">
+      <c r="A19" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="285">
+      <c r="A20" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3818,22 +3967,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -3913,20 +4062,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="347">
   <si>
     <t>Topics</t>
   </si>
@@ -1252,6 +1252,77 @@
   System.out.println("message to be deleted: " + message.getBody() + ", handle: " + message.getReceiptHandle());
   DeleteMessageRequest deleteMessageRequest = new DeleteMessageRequest(queueUrl, messageRecieptHandler);
   sqs.deleteMessage(deleteMessageRequest);</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>Ec2 run in operation system of our choice that enables you to run your application in the cloud</t>
+  </si>
+  <si>
+    <t>Mateials</t>
+  </si>
+  <si>
+    <t>1. VPC allow developers to create virtual network where they can launch resources and have them logically isolated from other VPCs and outside world. 
+2. With VPC our resource can have IP addresses with which they communicate with other VPCs
+3. We can control access to all the resources inside VPCs
+4. VPCs are Free service by AWS. But we can have maximum of 5 VPCs per account</t>
+  </si>
+  <si>
+    <t>One of the widely used tools in VPC</t>
+  </si>
+  <si>
+    <t>Security Group</t>
+  </si>
+  <si>
+    <t>1. Collection of Ips that are allowed to connect to your instance, and Ips that instance allowed to connect to
+2. Security groups are attached at the instance level and can be shared among many instances
+3. We can configure security groups to allow other security groups instead of IP addresses</t>
+  </si>
+  <si>
+    <t>VPCs use Routing Tables</t>
+  </si>
+  <si>
+    <t>1. to configure routing destination for traffic coming out of the VPC
+2. Each VPC has one routing table which declared attempted destination Ips and where they should be routed to</t>
+  </si>
+  <si>
+    <t>1. Security Groups
+2. Network Access Controll list</t>
+  </si>
+  <si>
+    <t>Network Access Controll List</t>
+  </si>
+  <si>
+    <t>1. Each VPC will have one access controll list which acts as IP filtering table</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>1. Sub set of VPC
+2. EC2 instances will be launched in subnets</t>
+  </si>
+  <si>
+    <t>Creating Virtual Private Cloud</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click VPC -&gt; VPC dashboard will load -&gt; click Start VPC Wizard button -&gt; left side we will see type of VPCs we want to launch -&gt; click "VPC with Single Single public subnet" -&gt; click Select button -&gt; IP CIDR Block (available IP addresses, we can choose any) -&gt; VPC Name = Appliction name -&gt; Public subnet is subset of VPC block -&gt; Select Availability Zone from drop down -&gt; Give Subnet name (ex: Cerebro_subnet_a) -&gt; keep other options default -&gt; click Create VPC button -&gt; Once process done we are ready to launch EC2 instances in this VPC</t>
+  </si>
+  <si>
+    <t>The routing table that was created with this VPC currently doesn't have any way for instances to connect to internet. So we do need to add entry to routing table to allow all traffic to go through internet gateway into the public internet. Intenet gatewat is just a connection to the internet</t>
+  </si>
+  <si>
+    <t>Confguring Routing Table</t>
+  </si>
+  <si>
+    <t>click Your VPCs link on left side menu -&gt; in the VPC list select our VPC -&gt; click Summary tab -&gt; click on the link next to Route Table -&gt; We will navigate to a screen where we can see route table entry -&gt; click route table entry -&gt; click Routes tab -&gt; click Edit button -&gt; click Add Another Route button -&gt; in the Destination enter 0.0.0.0/0 (means any IP) -&gt; on clicking Target we can see auto suggestion select it -&gt; click Save button -&gt; Now our VPC configured to reach outside world</t>
+  </si>
+  <si>
+    <t>Configuring to add another Subnet from another availability zone</t>
+  </si>
+  <si>
+    <t>click Subnets on left side menu -&gt; click Create Subnet button -&gt; Enter Cerebro-subnet-b in Name Tag -&gt; Select VPC we created in the VPC drop down -&gt; in the availability zone drop down select a different zone than subnet-a -&gt; Give 10.0.1.0/24 in CIDR block -&gt; click Yes, Create button</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1552,6 +1623,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1583,9 +1661,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1885,7 +1960,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2052,22 +2127,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2086,7 +2161,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2094,7 +2169,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2146,20 +2221,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2225,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2247,20 +2322,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2310,15 +2390,95 @@
         <v>197</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="43"/>
+      <c r="B26" s="30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="VPC!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!D5" display="Topics"/>
+    <hyperlink ref="A3" location="Materials!A1" display="Mateials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2348,20 +2508,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2420,7 +2580,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="38" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2428,7 +2588,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="26" t="s">
         <v>245</v>
       </c>
@@ -2504,20 +2664,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -2589,10 +2749,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2603,14 +2763,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
@@ -2691,20 +2851,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -2875,7 +3035,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="38" t="s">
         <v>298</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2883,7 +3043,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="35"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="27" t="s">
         <v>299</v>
       </c>
@@ -2983,10 +3143,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2999,10 +3159,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="34"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3021,7 +3181,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3029,7 +3189,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,20 +3307,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3275,10 +3435,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="42"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3297,7 +3457,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3305,19 +3465,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="32"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3371,7 +3531,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3379,7 +3539,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3465,10 +3625,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3487,16 +3647,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3515,7 +3675,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3523,7 +3683,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" t="s">
         <v>119</v>
       </c>
@@ -3588,11 +3748,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3610,10 +3770,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3624,16 +3784,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="42"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -3705,6 +3865,14 @@
       </c>
       <c r="B21" s="17" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3746,20 +3914,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -3819,9 +3987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3839,16 +4007,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -3859,10 +4027,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="42"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -3873,7 +4041,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3881,7 +4049,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="32" t="s">
         <v>314</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -3889,7 +4057,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="165">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="32" t="s">
         <v>316</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -3897,7 +4065,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="32" t="s">
         <v>318</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -3905,7 +4073,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="255">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="32" t="s">
         <v>320</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -3913,7 +4081,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="210">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -3921,7 +4089,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="285">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="32" t="s">
         <v>324</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -3967,22 +4135,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="42"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4062,20 +4230,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="365">
   <si>
     <t>Topics</t>
   </si>
@@ -1323,6 +1323,71 @@
   </si>
   <si>
     <t>click Subnets on left side menu -&gt; click Create Subnet button -&gt; Enter Cerebro-subnet-b in Name Tag -&gt; Select VPC we created in the VPC drop down -&gt; in the availability zone drop down select a different zone than subnet-a -&gt; Give 10.0.1.0/24 in CIDR block -&gt; click Yes, Create button</t>
+  </si>
+  <si>
+    <t>EC2 instance types</t>
+  </si>
+  <si>
+    <t>1. General Purpose
+2. Compute Optmized
+3. Memory Optimized
+4. Storage Optimized</t>
+  </si>
+  <si>
+    <t>Independent storage volumes used with EC2 instances</t>
+  </si>
+  <si>
+    <t>Elastic Block Storage (EBS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC2 dashboard </t>
+  </si>
+  <si>
+    <t>1. Resources: Details of instances/resources we have created
+2. Running Instances: EC2 instances we have
+3. Volumes: Elastic Block Storage volumes
+4. Launch Instance button: To launch new EC2 instance</t>
+  </si>
+  <si>
+    <t>Login to Amazon web console -&gt; click on EC2 -&gt; click Launch Instance button -&gt; click Select button of any image we want -&gt; select instance type we want, as of now I am selecting free ties instance type -&gt; click Next: Configure Instance Details button -&gt; give Number of instances as 1 (we can increase while giving AutoScaling configurations) -&gt; For Network select VPC we have created -&gt; Select any subnet under that VPC -&gt; Auto Assign Public IP: Disable -&gt; leave rest section to defaults -&gt; click Next: Add Storage button -&gt; keep defaults -&gt; click Next: Tag Instance button -&gt; Give Name to instance -&gt; click Next: Configure Security Group -&gt; give Security Group Name "any name for example Cerebro-security-group" -&gt; enter description -&gt; click Add Rule button -&gt; keep Type "Custom TCP Rule" -&gt; Port Range = 3000 -&gt; Source == Anywhere in the drop down -&gt; click Review and Launch button -&gt; click Launch button -&gt; popup opens asking for key-pair -&gt; select "Create a new key pair" in the first drop down -&gt; give key pair name (Ex: cerebro key pairs) -&gt; click Download Key pair button -&gt; this will download a .pem file -&gt; save and keep it safe -&gt; click Launch Instances button</t>
+  </si>
+  <si>
+    <t>Getting inside virtual machine with EC2 and VPC</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click 1 Running Instances under Resources -&gt; navigates to instance dashboard -&gt; at the bottom -&gt; under Description we can see there is no  Public IP for this instance -&gt; We can see Private IP -&gt; we can see Availability Zone where this instance has been created -&gt; we can see Key Pair, this is important because we will use same key-pair to connect via SSH</t>
+  </si>
+  <si>
+    <t>Create and Assign Public IP address to VPC</t>
+  </si>
+  <si>
+    <t>Elastic IP</t>
+  </si>
+  <si>
+    <t>Public IP addresses that are created, destroyed and assigned independently to EC2 instances. If underlying instance is terminated then associated IP address can still exist and can be assigned to different instance</t>
+  </si>
+  <si>
+    <t>1. To assign this instance an IP address first we need to create an Elastic IP
+2. AWS Console -&gt; EC2 -&gt; click Elastic IPs in the left menu -&gt; click Allocate New Address button -&gt; click Yes, Allocate button in the popup -&gt; click Close button -&gt; Now we have public IP address
+3. select Elastic IP created above -&gt; click Actions button -&gt; click Associate Address -&gt; On clicking Instance text box auto suggestion will come, select intance to which we want to assign this IP -&gt; click Associate button -&gt; Elastic IP address will be updated with EC2 instance that this IP address is associated with -&gt; click on instance link -&gt; navigates to instance details -&gt; here we can see Public IP address assigned to this instance -&gt; Copy this IP address so that we can use it in next configurations</t>
+  </si>
+  <si>
+    <t>Connect to EC2 instance via SSH</t>
+  </si>
+  <si>
+    <t>1. downlod Putty
+2. Download puttyGen
+3. Under Action -&gt; click Load button -&gt; selecte .pem file we have downloaded above -&gt; click Generate button -&gt; click Save Private Key button -&gt; This will generate .ppk file, save it carefully
+4. Open Putty -&gt; Expand Connection -&gt; Expand SSH -&gt; Select Auth -&gt; Browse -&gt; select .ppk file generated above -&gt; click Session on left pane -&gt; In Host Name text box enter "ec2-user@ec2-instance-public-DNS" -&gt; click Open -&gt; EC2 instance will be connected</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/putty.html?icmpid=docs_ec2_console</t>
+  </si>
+  <si>
+    <t>After connecting to EC2 instance using Putty -&gt; run this command</t>
+  </si>
+  <si>
+    <t>sudo yum update</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1630,6 +1695,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1958,9 +2031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2127,22 +2200,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2161,7 +2234,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2169,7 +2242,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2221,20 +2294,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2302,9 +2375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2322,10 +2395,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2333,14 +2406,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2439,7 +2512,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="47" t="s">
         <v>340</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -2447,7 +2520,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="43"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="30" t="s">
         <v>342</v>
       </c>
@@ -2508,20 +2581,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2580,7 +2653,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="42" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2588,7 +2661,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="38"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="26" t="s">
         <v>245</v>
       </c>
@@ -2664,20 +2737,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -2749,10 +2822,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2763,14 +2836,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
@@ -2851,20 +2924,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -3035,7 +3108,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="42" t="s">
         <v>298</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -3043,7 +3116,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="38"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="27" t="s">
         <v>299</v>
       </c>
@@ -3143,10 +3216,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3159,10 +3232,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3181,7 +3254,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3189,7 +3262,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3307,20 +3380,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3435,10 +3508,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="46"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3457,7 +3530,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3465,19 +3538,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="35"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3531,7 +3604,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3539,7 +3612,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="38"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3625,10 +3698,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3647,16 +3720,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3675,7 +3748,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3683,7 +3756,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="47"/>
       <c r="B15" t="s">
         <v>119</v>
       </c>
@@ -3748,11 +3821,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3770,10 +3843,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3784,16 +3857,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -3839,7 +3912,7 @@
       <c r="A18" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="33" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3875,16 +3948,96 @@
         <v>327</v>
       </c>
     </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="135">
+      <c r="A26" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="105">
+      <c r="A28" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3914,20 +4067,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -4007,16 +4160,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -4027,10 +4180,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4135,22 +4288,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="46"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4230,20 +4383,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="386">
   <si>
     <t>Topics</t>
   </si>
@@ -1113,9 +1113,6 @@
     <t>Creating a new user</t>
   </si>
   <si>
-    <t xml:space="preserve">Once new user created configure AWS console with new user using "aws configure" command -&gt; give Access Key and Secret Key of this user -&gt; </t>
-  </si>
-  <si>
     <t>Delete Access keys to root account to increase security of root account</t>
   </si>
   <si>
@@ -1388,6 +1385,74 @@
   </si>
   <si>
     <t>sudo yum update</t>
+  </si>
+  <si>
+    <t>Scaling EC2 instances</t>
+  </si>
+  <si>
+    <t>Expand or Shrink pool of instances</t>
+  </si>
+  <si>
+    <t>Auto Scaling Group</t>
+  </si>
+  <si>
+    <t>Expand or Shrink pool of instances based on pre-defined rules</t>
+  </si>
+  <si>
+    <t>Auto configuration has launch configuration which has an image in it, and scaling rules to expand or shrink a pool of instances automatically</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>Routing appliances that maintains a consistant DNS entry and balances requests to multiple instances</t>
+  </si>
+  <si>
+    <t>Once new user created configure AWS console with new user using "aws configure" command -&gt; give Access Key and Secret Key of this user</t>
+  </si>
+  <si>
+    <t>Load balancer is essentially a router instance that provides a stable end point to reliably send your users and set DNS entries to. Load balancer will keep track of which Ips are available and send users to them efficiently</t>
+  </si>
+  <si>
+    <t>Creating an AMI from Ec2 Instance</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click on instances in the left menu -&gt; Select our instance we want to create AMI -&gt; click on Actions button open drop down -&gt; Image -&gt; click Create Image -&gt; give image name (any user defined name) -&gt; leave rest as defaults -&gt; click Create Image button -&gt; click Close button -&gt; We have an AMI created and ready for deployment</t>
+  </si>
+  <si>
+    <t>Where to check our AMI</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click on instances in the left menu -&gt; click Launch Instance button -&gt; click My AMIs tab -&gt; we can see AMI we have created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can also see AMIs in :
+EC2 dashboard -&gt; AMIs in left menu -&gt; </t>
+  </si>
+  <si>
+    <t>Creating Load Balancer</t>
+  </si>
+  <si>
+    <t>Enable stickiness on the load balancer</t>
+  </si>
+  <si>
+    <t>If user requests comes to one EC2 instance all sub sequence requests have to go to same instance, otherwise user may end up in other EC2 instance which does not user's session details which may cause defects. So we need to enable load balancer stickiness. Load Balancer will use cookie to keep track of which user should be sent which EC2 instance</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Load Balancers in the left menu -&gt; click Create Load Balancer button -&gt; give Load Balancer Name (any user defined name) -&gt; Create LB inside: select our VPC -&gt; do not check "create an internal load balancer" -&gt; Listener section is which ports the load balancer is listening on -&gt; select the Load Balancer Protocol: HTTP -&gt; Load Balancer Port: 80 -&gt; Instance Protocol: HTTP -&gt; Instance Port: on which port our application is running (in our case it is 8080) -&gt; Select Subnets section: select subnets we created previously -&gt; click "Next: Assign Security Groups" -&gt; select "Create New Security Group" radio button -&gt; Security group name: any user defined name -&gt; there will be an existing rule which accepts any request on port 80, this is fine for us -&gt; click "Next: Configure Security Settings" button -&gt; click "Next: Configure Health Check" button -&gt; load balancer will continuously check the health of application by using port and ping path, so give settings to which to hit to get 200 OK response -&gt; click "Next: Add EC2 Instances" -&gt; click "Next: Add Tags" button -&gt; click Review and Create button -&gt; click Create button -&gt; click Close button -&gt; we will navigate to Load Balancer list</t>
+  </si>
+  <si>
+    <t>Select load balancer we have created -&gt; click Description tab -&gt; we will see Port Configuration: Stickiness Disabled -&gt; click Edit link next to it -&gt; select "Enable load balancer generated cookie stickiness" -&gt; Expiration Period: give expiration seconds how many days that cookie should be alive -&gt; click Save button</t>
+  </si>
+  <si>
+    <t>Creating an Auto scaling group</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; Auto Scaling Groups in the left menu -&gt; click Create Auto scaling group button -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; click Select button on AMI we have created above -&gt; select free tier instance -&gt; click Next: Configure Details button -&gt; Name: any user defined name -&gt; Expand Advanced Details section -&gt; in the user data field we need to enter the script that should be run to make our application up and running after scaling new AMI EC2 instance -&gt; click Next: Add Storage button -&gt; click Next: Configure Security Group button -&gt; select "select an existing security group" radio button -&gt; select our SG group -&gt; click Review button -&gt; click Create Launch configuration button -&gt; choose key pair in popup -&gt; check confirmation check box -&gt; click Create Launch Configuration button</t>
+  </si>
+  <si>
+    <t>Now starts autscaling group configuration:
+Group Name: any user defined name -&gt; Group Size (initial number of instances) : 2 -&gt; Networl: select our VPC from drop down -&gt; click in Subnet text box we will our subnets as auto suggestions select one at a time -&gt; expand Advanced Details section -&gt; check "Receive traffic from Elastic Load Balancers" check box -&gt; click in the input box and select from auto suggestions -&gt; click "Next: Configure scaling policies" button -&gt; click "Next: Configure Notifications" button -&gt; here we can add new notification to be sent anytime scales up or down , for this we need to setup SNS etc -&gt; click Review button -&gt; click Create Auto Scaling Group button -&gt; click Close button -&gt; we will navigate back to auto scaling groups list</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1703,6 +1768,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1734,6 +1803,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2031,9 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2200,22 +2273,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2234,7 +2307,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2242,7 +2315,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2294,20 +2367,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2395,25 +2468,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2468,77 +2541,77 @@
         <v>186</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>331</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>333</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>336</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B24" s="30" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="49" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="47" t="s">
+      <c r="B25" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B25" s="30" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="49"/>
+      <c r="B26" s="30" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="47"/>
-      <c r="B26" s="30" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>343</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>345</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2581,20 +2654,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2653,7 +2726,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="44" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2661,7 +2734,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="42"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="26" t="s">
         <v>245</v>
       </c>
@@ -2737,20 +2810,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -2822,10 +2895,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2836,14 +2909,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
@@ -2906,7 +2979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2924,20 +2997,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -3108,7 +3181,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="44" t="s">
         <v>298</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -3116,65 +3189,65 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="42"/>
-      <c r="B35" s="27" t="s">
-        <v>299</v>
+      <c r="A35" s="44"/>
+      <c r="B35" s="37" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>300</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>302</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>304</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>306</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>308</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>310</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>312</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3216,10 +3289,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3232,10 +3305,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3254,7 +3327,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3262,7 +3335,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3380,20 +3453,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3508,10 +3581,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="48"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3530,7 +3603,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="41" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3538,19 +3611,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="39"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3604,7 +3677,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3612,7 +3685,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="42"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3698,10 +3771,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3720,16 +3793,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3748,7 +3821,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3756,7 +3829,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" t="s">
         <v>119</v>
       </c>
@@ -3821,11 +3894,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3843,10 +3916,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3857,16 +3930,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -3942,34 +4015,34 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>326</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>347</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>351</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
@@ -3977,61 +4050,160 @@
         <v>108</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>354</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="105">
       <c r="A28" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="B30" s="33" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="49"/>
+      <c r="B31" s="20" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="20" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="35" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="36" t="s">
         <v>364</v>
       </c>
+      <c r="B33" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="50"/>
+      <c r="B35" s="37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="51"/>
+      <c r="B37" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="49"/>
+      <c r="B40" s="37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="135">
+      <c r="A41" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45">
+      <c r="A42" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="49"/>
+      <c r="B43" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="105">
+      <c r="A44" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="105">
+      <c r="A45" s="49"/>
+      <c r="B45" s="37" t="s">
+        <v>385</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
@@ -4067,20 +4239,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -4160,16 +4332,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -4180,10 +4352,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4203,50 +4375,50 @@
     </row>
     <row r="15" spans="1:2" ht="180">
       <c r="A15" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>314</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="165">
       <c r="A16" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
       <c r="A17" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>318</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="255">
       <c r="A18" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="210">
       <c r="A19" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>322</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="285">
       <c r="A20" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>324</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4288,22 +4460,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4383,20 +4555,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="391">
   <si>
     <t>Topics</t>
   </si>
@@ -1439,20 +1439,79 @@
     <t>If user requests comes to one EC2 instance all sub sequence requests have to go to same instance, otherwise user may end up in other EC2 instance which does not user's session details which may cause defects. So we need to enable load balancer stickiness. Load Balancer will use cookie to keep track of which user should be sent which EC2 instance</t>
   </si>
   <si>
-    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Load Balancers in the left menu -&gt; click Create Load Balancer button -&gt; give Load Balancer Name (any user defined name) -&gt; Create LB inside: select our VPC -&gt; do not check "create an internal load balancer" -&gt; Listener section is which ports the load balancer is listening on -&gt; select the Load Balancer Protocol: HTTP -&gt; Load Balancer Port: 80 -&gt; Instance Protocol: HTTP -&gt; Instance Port: on which port our application is running (in our case it is 8080) -&gt; Select Subnets section: select subnets we created previously -&gt; click "Next: Assign Security Groups" -&gt; select "Create New Security Group" radio button -&gt; Security group name: any user defined name -&gt; there will be an existing rule which accepts any request on port 80, this is fine for us -&gt; click "Next: Configure Security Settings" button -&gt; click "Next: Configure Health Check" button -&gt; load balancer will continuously check the health of application by using port and ping path, so give settings to which to hit to get 200 OK response -&gt; click "Next: Add EC2 Instances" -&gt; click "Next: Add Tags" button -&gt; click Review and Create button -&gt; click Create button -&gt; click Close button -&gt; we will navigate to Load Balancer list</t>
-  </si>
-  <si>
     <t>Select load balancer we have created -&gt; click Description tab -&gt; we will see Port Configuration: Stickiness Disabled -&gt; click Edit link next to it -&gt; select "Enable load balancer generated cookie stickiness" -&gt; Expiration Period: give expiration seconds how many days that cookie should be alive -&gt; click Save button</t>
   </si>
   <si>
-    <t>Creating an Auto scaling group</t>
-  </si>
-  <si>
-    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; Auto Scaling Groups in the left menu -&gt; click Create Auto scaling group button -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; click Select button on AMI we have created above -&gt; select free tier instance -&gt; click Next: Configure Details button -&gt; Name: any user defined name -&gt; Expand Advanced Details section -&gt; in the user data field we need to enter the script that should be run to make our application up and running after scaling new AMI EC2 instance -&gt; click Next: Add Storage button -&gt; click Next: Configure Security Group button -&gt; select "select an existing security group" radio button -&gt; select our SG group -&gt; click Review button -&gt; click Create Launch configuration button -&gt; choose key pair in popup -&gt; check confirmation check box -&gt; click Create Launch Configuration button</t>
-  </si>
-  <si>
-    <t>Now starts autscaling group configuration:
-Group Name: any user defined name -&gt; Group Size (initial number of instances) : 2 -&gt; Networl: select our VPC from drop down -&gt; click in Subnet text box we will our subnets as auto suggestions select one at a time -&gt; expand Advanced Details section -&gt; check "Receive traffic from Elastic Load Balancers" check box -&gt; click in the input box and select from auto suggestions -&gt; click "Next: Configure scaling policies" button -&gt; click "Next: Configure Notifications" button -&gt; here we can add new notification to be sent anytime scales up or down , for this we need to setup SNS etc -&gt; click Review button -&gt; click Create Auto Scaling Group button -&gt; click Close button -&gt; we will navigate back to auto scaling groups list</t>
+    <t>Creating an Auto scaling group - this is 2 step process
+1. Create Launch Configuration
+2. Create Auto Scaling Group</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creating Launch Configuration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; Auto Scaling Groups in the left menu -&gt; click Create Auto scaling group button -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; click Select button on AMI we have created above -&gt; select free tier instance -&gt; click Next: Configure Details button -&gt; Name: any user defined name -&gt; Expand Advanced Details section -&gt; in the user data field we need to enter the script that should be run to make our application up and running after scaling new AMI EC2 instance -&gt; click Next: Add Storage button -&gt; click Next: Configure Security Group button -&gt; select "select an existing security group" radio button -&gt; select our SG group -&gt; click Review button -&gt; click Create Launch configuration button -&gt; choose key pair in popup -&gt; check confirmation check box -&gt; click Create Launch Configuration button</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Load Balancers in the left menu -&gt; click Create Load Balancer button -&gt; give Load Balancer Name (any user defined name) -&gt; Create LB inside: select our VPC -&gt; do not check "create an internal load balancer" -&gt; Listener section is which ports the load balancer is listening on -&gt; select the Load Balancer Protocol: HTTP -&gt; Load Balancer Port: 80 -&gt; Instance Protocol: HTTP -&gt; Instance Port: on which port our application is running (in our case it is 8080) -&gt; Select Subnets section: select subnets we created previously -&gt; click "Next: Assign Security Groups" -&gt; select "Create New Security Group" radio button -&gt; Security group name: any user defined name -&gt; there will be an existing rule which accepts any request on port 80, this is fine for us -&gt; click "Next: Configure Security Settings" button -&gt; click "Next: Configure Health Check" button -&gt; load balancer will continuously check the health of application by using port and ping path, so give settings to which to hit to get 200 OK response -&gt; click "Next: Add EC2 Instances" -&gt; select out EC2 instance -&gt; click "Next: Add Tags" button -&gt; click Review and Create button -&gt; click Create button -&gt; click Close button -&gt; we will navigate to Load Balancer list</t>
+  </si>
+  <si>
+    <t>Setting security groups to accept requests only from load balancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Security Groups in the left menu -&gt; select our security group -&gt; click Inbound tab -&gt; click Edit button -&gt; change Source: Custom in drop down -&gt; type s in the next text box -&gt; opens auto suggestion box displays our security groups </t>
+  </si>
+  <si>
+    <t>Adding Scaling policy to our Auto Scaling Group</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Auto scaling groups in the left menu -&gt; select out scaling group -&gt; click Scaling Policies button -&gt; click Add Policy button -&gt; click Create a Simple scaling policy link -&gt; Name: any user defined name. for eample "scale_up" -&gt; Execute policy when: click Create new alarm link -&gt; uncheck "send notification to" check unless you want to an email sent while scaling up -&gt; Whenever : second drop down select "Network Out" -&gt; Is: give 5000000 -&gt; leave the rest to default values -&gt; click Create Alarm button -&gt; click close button -&gt; Take action: first drop down=Add, second text box=1, drop down=Instances -&gt; click Create button.</t>
+  </si>
+  <si>
+    <t>Add one more policy to scale down:
+click Add Policy -&gt; Name: scale_down -&gt; click Create new alarm link -&gt; uncheck Send notification to check box -&gt; Whenever second drop down: Network Out -&gt; Is: 1st drop down: &lt; , text box = 5000000 -&gt; leave the rest to default values -&gt; change the rule name from Higt network out to low network out -&gt; click Create Alarm button -&gt; click Close button -&gt; click Create a simple scaling policy link -&gt; Take Action: drop down: Remove, text box=1, drop down= Instances -&gt; click Create button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Now starts autscaling group configuration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Group Name: any user defined name -&gt; Group Size (initial number of instances) : 2 -&gt; Network: select our VPC from drop down -&gt; click in Subnet text box we will get our subnets as auto suggestions select one at a time -&gt; expand Advanced Details section -&gt; check "Receive traffic from Elastic Load Balancers" check box -&gt; click in the input box and select from auto suggestions -&gt; click "Next: Configure scaling policies" button -&gt; click "Next: Configure Notifications" button -&gt; here we can add new notification to be sent anytime scales up or down , for this we need to setup SNS etc -&gt; click Next: Configure Tags button -&gt; click Review button -&gt; click Create Auto Scaling Group button -&gt; click Close button -&gt; we will navigate back to auto scaling groups list</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1676,7 +1735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1772,6 +1831,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1803,10 +1866,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2273,22 +2336,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2307,7 +2370,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="51" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2315,7 +2378,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2367,20 +2430,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2468,10 +2531,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2479,14 +2542,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2585,7 +2648,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="51" t="s">
         <v>339</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -2593,7 +2656,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="49"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="30" t="s">
         <v>341</v>
       </c>
@@ -2654,20 +2717,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2726,7 +2789,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="46" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2734,7 +2797,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="26" t="s">
         <v>245</v>
       </c>
@@ -2810,20 +2873,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -2895,10 +2958,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2909,14 +2972,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
@@ -2997,20 +3060,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -3181,7 +3244,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>298</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -3189,7 +3252,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="44"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="37" t="s">
         <v>371</v>
       </c>
@@ -3289,10 +3352,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3305,10 +3368,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="42"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3327,7 +3390,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3335,7 +3398,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3453,20 +3516,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3581,10 +3644,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="50"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3603,7 +3666,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3611,19 +3674,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="41"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="41"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3677,7 +3740,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="46" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3685,7 +3748,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3771,10 +3834,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3793,16 +3856,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3821,7 +3884,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="51" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3829,7 +3892,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="51"/>
       <c r="B15" t="s">
         <v>119</v>
       </c>
@@ -3894,11 +3957,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A45"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3916,10 +3979,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3930,16 +3993,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -4078,7 +4141,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="51" t="s">
         <v>359</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -4086,7 +4149,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="49"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="20" t="s">
         <v>361</v>
       </c>
@@ -4108,7 +4171,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="53" t="s">
         <v>366</v>
       </c>
       <c r="B34" s="37" t="s">
@@ -4116,13 +4179,13 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="50"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="37" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B36" s="37" t="s">
@@ -4130,7 +4193,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="51"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="37" t="s">
         <v>372</v>
       </c>
@@ -4144,7 +4207,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="51" t="s">
         <v>375</v>
       </c>
       <c r="B39" s="37" t="s">
@@ -4152,7 +4215,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="49"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="37" t="s">
         <v>377</v>
       </c>
@@ -4161,12 +4224,12 @@
       <c r="A41" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>381</v>
+      <c r="B41" s="39" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="51" t="s">
         <v>379</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -4174,23 +4237,44 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="49"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="120">
+      <c r="A44" s="46" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="105">
-      <c r="A44" s="49" t="s">
+      <c r="B44" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="45" spans="1:2" ht="105">
-      <c r="A45" s="49"/>
-      <c r="B45" s="37" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="40" t="s">
         <v>385</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="75">
+      <c r="A47" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="75">
+      <c r="B48" s="39" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4212,6 +4296,7 @@
     <hyperlink ref="B31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4239,20 +4324,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -4332,16 +4417,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -4352,10 +4437,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4460,22 +4545,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4555,20 +4640,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="430">
   <si>
     <t>Topics</t>
   </si>
@@ -1512,6 +1512,185 @@
       <t xml:space="preserve">
 Group Name: any user defined name -&gt; Group Size (initial number of instances) : 2 -&gt; Network: select our VPC from drop down -&gt; click in Subnet text box we will get our subnets as auto suggestions select one at a time -&gt; expand Advanced Details section -&gt; check "Receive traffic from Elastic Load Balancers" check box -&gt; click in the input box and select from auto suggestions -&gt; click "Next: Configure scaling policies" button -&gt; click "Next: Configure Notifications" button -&gt; here we can add new notification to be sent anytime scales up or down , for this we need to setup SNS etc -&gt; click Next: Configure Tags button -&gt; click Review button -&gt; click Create Auto Scaling Group button -&gt; click Close button -&gt; we will navigate back to auto scaling groups list</t>
     </r>
+  </si>
+  <si>
+    <t>S3 basic structure</t>
+  </si>
+  <si>
+    <t>S3 Object</t>
+  </si>
+  <si>
+    <t>File + metadata</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>1. like file type, modified date etc
+2. Will be used by S3
+3. No file type for the objects to be stored</t>
+  </si>
+  <si>
+    <t>Maximim file size for single put operation</t>
+  </si>
+  <si>
+    <t>5 GB</t>
+  </si>
+  <si>
+    <t>Permission on S3 buckets</t>
+  </si>
+  <si>
+    <t>1. By default S3 objects and buckets are accessible to AWS account, which created them
+2. Permission enable you to grant access to another AWS account or anyone</t>
+  </si>
+  <si>
+    <t>Cross region replication</t>
+  </si>
+  <si>
+    <t>1. automaticall copy any files added or modified in S3 bucket to a different region. This feature can be used to reduce latency or to increase redundancy of the data
+2. Cross region replication will copy a file to only one other region. If we want world wide reduction of latency then we have to use CloudFront</t>
+  </si>
+  <si>
+    <t>Creating S3 bucket</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click on S3 -&gt; click on Create Bucker button -&gt; Bucket Name: any user defined name but this name should be unique across all regions -&gt; Region: select region from drop down -&gt; click Create button -&gt; Now we will S3 bucket in the bucket list</t>
+  </si>
+  <si>
+    <t>Configuring permissions to bucket</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click on S3 -&gt; select bucket to which we want configure permissions -&gt; select the Properties on the top right corner -&gt; expand permissions -&gt; we will create a policy to make bucket accessible to every one for this we will AWS policy generator tool</t>
+  </si>
+  <si>
+    <t>AWS policy generator</t>
+  </si>
+  <si>
+    <t>http://awspolicygen.s3.amazonaws.com/policygen.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://awspolicygen.s3.amazonaws.com/policygen.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>link -&gt; Select type of policy: S3 bucket policy from drop down -&gt; Effect: Allow -&gt; Principal: if we want to give another account an access to S3 we need to enter that account ARN in this text field. We want to give an access to every one so enter asterisk (*) here -&gt; AWS Service: Amazon S3 (will be pre selected due to first drop down) -&gt; Actions: select the actions from drop down that principal user can do on bucket, i am selecting "Get Object" -&gt; ARN: we need to give as per format shown below, for example "arn:aws:s3:::adonthu-s3-practice/*" -&gt; click Add Statement button -&gt; click Generate Policy button -&gt; copy the JSON in the window that popsup -&gt; we will use this json to give permissions to our bucket</t>
+    </r>
+  </si>
+  <si>
+    <t>Go back to S3 dashboard -&gt; select S3 bucket -&gt; click Properties on the top right corner -&gt; expland Permissions -&gt; click Add Bucket Policy link -&gt; in the popup window paste the JSON we copied above -&gt; click Save button -&gt; policy will be validated -&gt; if validation done correctly -&gt; click Close button -&gt; click Save button in Permissions section</t>
+  </si>
+  <si>
+    <t>Uploading objects to S3</t>
+  </si>
+  <si>
+    <t>We can upload objects to S3 in 3 different ways
+1. AWS Console
+2. AWS CLI
+3. AWS SDK</t>
+  </si>
+  <si>
+    <t>uploading objects to S3 using AWS CLI</t>
+  </si>
+  <si>
+    <t>aws s3 cp E:\Backup\JavaPrep\AmazonWS\3_S3_upload_practice_files s3://adonthu-s3-practice/cli_practice --recursive --exclude ".xlsx"</t>
+  </si>
+  <si>
+    <t>uploading objects to S3 using AWS CLI (uploading to bucket created in Mumbai region, so did this example with bucket created in Singapore region)</t>
+  </si>
+  <si>
+    <t>Uploading from AWS console</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click S3 -&gt; click on bucket link -&gt; click Create Folder button -&gt; give a name to folder -&gt; click on folder link -&gt; click on upload button -&gt; drag and drop the file we want to upload -&gt; click Start Upload button</t>
+  </si>
+  <si>
+    <t>Uploading objects to S3 using SDK</t>
+  </si>
+  <si>
+    <t>Working with CORS in S3</t>
+  </si>
+  <si>
+    <t>CORS == Cross Origin Resource Sharing</t>
+  </si>
+  <si>
+    <t>If CORS is not enabled it will place restriction on resource for requests from coming another domains. For example if our application is running with domain name "cerebro.com" and it want to get image from S3 then S3 image domain will be something like "S3://cerebro-bucket/....". If we dont enable CORS then cerebro can not download image from S3</t>
+  </si>
+  <si>
+    <t>Enabling CORS on S3</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click S3 -&gt; click on bucket link -&gt; click Properties button -&gt; expand Permission -&gt; click Add CORS configuration link -&gt; popup will open displaying xml content in it -&gt; no changes needed -&gt; click Save button</t>
+  </si>
+  <si>
+    <t>Accessing S3 with EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Console -&gt; EC2 -&gt; Instances link in the left sub menu -&gt; select  our instance -&gt; Actions drop down -&gt; Image -&gt; Select Create Image -&gt; give any user defined name -&gt; click Create button </t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; IAM -&gt; click Roles in the left menu -&gt; click Create New Role button -&gt; Role Name: any user defined name -&gt; click Next Step button -&gt; click Select button next to Amazon EC2 -&gt; in the filer type s3 -&gt; select "AmazonS3FullAccess" -&gt; click Next Step button -&gt; click Create Role button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWS Console -&gt; EC2 -&gt; click Launch Configuration in the left menu -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; select the AMI we want -&gt; select free tier -&gt; click Next button -&gt; Name: any user defined name -&gt; IAM Role: select the role we have created from drop down -&gt; Advanced details we need to enter the startup script that has to be executed while creating new image (starts with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#! /bin/bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)-&gt; select "Assign public IP to every instance" radio button -&gt; click Next: Add Storage button -&gt; click Next: configure security group button -&gt; click Select existing group radio button -&gt; select security group -&gt; click Review button -&gt; click Create Launch Configuration button -&gt; popup opens -&gt; select Key pair -&gt; check confirmation box -&gt; click Create Launch Configuration button</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS console -&gt; EC2 -&gt; click Auto scaling group in the left menu -&gt; select our auto scaling group -&gt; select Details tab -&gt; click Edit button -&gt; Launch Configuration: select our new launch configuration from drop down -&gt; click Save button</t>
+  </si>
+  <si>
+    <t>Deleting an EC2 Instance</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; EC2 -&gt; instances in the left menu -&gt; select the instances we want to delete -&gt; Actions drop down -&gt; Instance State -&gt; Terminate -&gt; click Yes, Terminate button -&gt; this will take some time</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1835,6 +2014,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1866,10 +2050,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2169,7 +2353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2336,22 +2520,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2370,7 +2554,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="54" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2378,7 +2562,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2412,7 +2596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2430,20 +2614,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2531,10 +2715,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2542,14 +2726,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2648,7 +2832,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="54" t="s">
         <v>339</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -2656,7 +2840,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="51"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="30" t="s">
         <v>341</v>
       </c>
@@ -2717,20 +2901,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2789,7 +2973,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="49" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2797,7 +2981,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="46"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="26" t="s">
         <v>245</v>
       </c>
@@ -2873,20 +3057,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -2936,11 +3120,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2958,10 +3142,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -2972,14 +3156,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
@@ -3019,6 +3203,14 @@
       </c>
       <c r="B15" s="23" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3060,20 +3252,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -3244,7 +3436,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="49" t="s">
         <v>298</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -3252,7 +3444,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="46"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="37" t="s">
         <v>371</v>
       </c>
@@ -3330,10 +3522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -3352,10 +3544,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3368,10 +3560,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3390,7 +3582,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3398,7 +3590,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="43"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3465,6 +3657,14 @@
       </c>
       <c r="B22" s="3" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3487,6 +3687,7 @@
     <hyperlink ref="B22" r:id="rId11"/>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C2" display="Topics"/>
+    <hyperlink ref="B23" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3516,20 +3717,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3644,10 +3845,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="53"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3666,7 +3867,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3674,19 +3875,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="43"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3740,7 +3941,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3748,7 +3949,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="46"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3812,17 +4013,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="109.625" customWidth="1"/>
+    <col min="1" max="1" width="53.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="109.625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3834,115 +4035,267 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51"/>
-      <c r="B15" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" t="s">
+      <c r="A20" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="41" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="90">
+      <c r="A29" s="49"/>
+      <c r="B29" s="41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="49"/>
+      <c r="B30" s="41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="49"/>
+      <c r="B36" s="41" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45">
+      <c r="B39" s="41" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="90">
+      <c r="B40" s="41" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="B41" s="41" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'S3'!A2" display="Up"/>
@@ -3952,16 +4305,17 @@
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3979,10 +4333,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -3993,16 +4347,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="53"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -4141,7 +4495,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="54" t="s">
         <v>359</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -4149,7 +4503,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="20" t="s">
         <v>361</v>
       </c>
@@ -4171,7 +4525,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="55" t="s">
         <v>366</v>
       </c>
       <c r="B34" s="37" t="s">
@@ -4179,13 +4533,13 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="53"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="37" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="56" t="s">
         <v>369</v>
       </c>
       <c r="B36" s="37" t="s">
@@ -4193,7 +4547,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="52"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="37" t="s">
         <v>372</v>
       </c>
@@ -4207,7 +4561,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="54" t="s">
         <v>375</v>
       </c>
       <c r="B39" s="37" t="s">
@@ -4215,7 +4569,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="51"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="37" t="s">
         <v>377</v>
       </c>
@@ -4229,7 +4583,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="54" t="s">
         <v>379</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -4237,13 +4591,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="51"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="37" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="49" t="s">
         <v>382</v>
       </c>
       <c r="B44" s="39" t="s">
@@ -4251,7 +4605,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="105">
-      <c r="A45" s="51"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="39" t="s">
         <v>390</v>
       </c>
@@ -4265,7 +4619,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="54" t="s">
         <v>387</v>
       </c>
       <c r="B47" s="39" t="s">
@@ -4273,12 +4627,22 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="54"/>
       <c r="B48" s="39" t="s">
         <v>389</v>
       </c>
     </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A42:A43"/>
@@ -4324,20 +4688,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -4417,16 +4781,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -4437,10 +4801,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4545,22 +4909,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4640,20 +5004,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -815,6 +815,845 @@
     <t>Create new access key</t>
   </si>
   <si>
+    <t>Accessing AWS from CLI</t>
+  </si>
+  <si>
+    <t>To check whether aws CLI configured correctly? Execute this command</t>
+  </si>
+  <si>
+    <t>1. open command prompt
+2. type "aws configure"
+3. it will ask for access key. Enter your access key
+4. it will ask for security key. Enter your security key
+5. Default region name. Enter ur region. I entered "ap-south-1". This we can see by selecting your region and check URL. URL will have region request parameter
+6. Default output format. Enter "json".</t>
+  </si>
+  <si>
+    <t>aws ec2 describe-instances</t>
+  </si>
+  <si>
+    <t>Command to access list of access keys</t>
+  </si>
+  <si>
+    <t>aws iam list-access-keys</t>
+  </si>
+  <si>
+    <t>Command to debug describe-instances command</t>
+  </si>
+  <si>
+    <t>aws ec2 describe-instances --debug</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/AmazonSQSPractice.git</t>
+  </si>
+  <si>
+    <t>Security and Identity</t>
+  </si>
+  <si>
+    <t>IAM (Identity and Access Management)</t>
+  </si>
+  <si>
+    <t>1. monitoring service for other services in AWS
+2. Service to set alarms based on Service metric thresholds (for example, EC2 CPU usage, DynamoDB Read/Write throughput, Estimated billing charges)</t>
+  </si>
+  <si>
+    <t>What happens on setting cloudwatch</t>
+  </si>
+  <si>
+    <t>We can set cloud watch to send alerts if some thing weird is happening like examples told above. We can easily configure where the alert should be sent using SNS</t>
+  </si>
+  <si>
+    <t>Notifications can be sent to</t>
+  </si>
+  <si>
+    <t>1. Email
+2. SMS
+3. HTTP and more</t>
+  </si>
+  <si>
+    <t>What else we can do with cloud watch other setting an alarm</t>
+  </si>
+  <si>
+    <t>We can configure an alarm to trigger an action when certain threshold is passed
+This action based response is available for EC2 instances and Autoscaling Groups</t>
+  </si>
+  <si>
+    <t>For example if incoming network requests of an EC2 instancs passed a certain threshold then we can trigger an Auto Scaling Group action that adds another EC2 instance to the group.
+Infact Auto scaling groups use cloud watch under the covers to trigger their own scaling actions</t>
+  </si>
+  <si>
+    <t>SNS (Simple Notification Service)</t>
+  </si>
+  <si>
+    <t>Integral companion to cloudwatch allowing you to easily push alerts to a group of notification end points</t>
+  </si>
+  <si>
+    <t>Note on SNS</t>
+  </si>
+  <si>
+    <t>Main structure in SNS in Topic. Topic is used to create a unique Amazon resource name that can then have notification sent to it. Once you subscribe to a Topic with an email or SMS number then any notification sent to that SNS topic will then be communicated to your subscribed end point</t>
+  </si>
+  <si>
+    <t>Setting Billing alarm SNS</t>
+  </si>
+  <si>
+    <t>Setting CloudWatch billing alarm (Billing alerts are currently available in north verginia region)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting CloudWatch alarm </t>
+  </si>
+  <si>
+    <t>1. This service available in US East N Verginia region. So change to this region before setting this alarm
+2. Click on Services on top menu -&gt; click SNS -&gt; click on Get Started button -&gt; Click on Create Topic -&gt; Give Topic Name, Display Name -&gt;  click Create Topic button
+3. In subscriptions section we can manage end points subscribed to this topic
+4. Setting Email subscription. Click Create Subscription button -&gt; click Protocol -&gt; Choose Email in the drop down -&gt; enter your email in the EndPoint text box -&gt; click Create Subscription button -&gt; Now confirmation mail will be sent to email we entered in Endpoint text box -&gt; Click Confirm Subscription link in the email -&gt; Now refresh subscriptions section in AWS console -&gt; Now email subscription will be indicated active</t>
+  </si>
+  <si>
+    <t>Click on Services on top menu -&gt; click on CloudWatch -&gt; on cloud watch dashboard we will see menu option on left side where we can see different options available</t>
+  </si>
+  <si>
+    <t>1. Select US East N Verginia region
+2. Click on user name -&gt; click on Billing &amp; Cost Management in the drop down -&gt; on the left hand side click on Preferences -&gt; check "Receive Billing Alerts" check box -&gt; click Save Preferences button
+3. Click on Services on Top menu -&gt; click on CloudWatch -&gt; click on Alarms on left side menu -&gt; click on Create Alarm button (in the popup we can see several billing metrics available) -&gt; click on Total Estimated Charge -&gt; Select USD check box -&gt; Set Time Range -&gt; click 12H -&gt; click Next button -&gt; enter any name(Ex: Billing Alarm) in Name text box -&gt; Estimated chanrges (this is threshold when alarm has to be triggered), I am entering 5 means alarm has to be triggered if billing is more than 5$ -&gt; Under Actions setup notification action -&gt; click on Send Notification to: drop down -&gt; select the SNS we created above -&gt; click Create Alarm button</t>
+  </si>
+  <si>
+    <t>What is IAM (Identity Access Management)</t>
+  </si>
+  <si>
+    <t>Access management service that controls who can have access to what in your AWS account</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Allows us to manage passwords, authentication, multifactor autentication, access keys and SSH keys for all users created on an account. Permission to those users to access/manage other services on the account can also be managed using IAM</t>
+  </si>
+  <si>
+    <t>IAM structure</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>For example Developer Group Policy</t>
+  </si>
+  <si>
+    <t>can have full access to EC2 instances</t>
+  </si>
+  <si>
+    <t>Tester Group Policy</t>
+  </si>
+  <si>
+    <t>1. Read only access to DynamoDB
+2. Full access to S3 Test Bucket</t>
+  </si>
+  <si>
+    <t>is a collection of permissions to access different services in a particular way.
+Policies can be resource level or in a broad upto service level
+Policies will mixed and matched with particular user or group
+Policies make it easy to assign permissions to users or groups in an administrative way</t>
+  </si>
+  <si>
+    <t>Access IAM</t>
+  </si>
+  <si>
+    <t>1. Click on Identity and Access Management link -&gt; opens a dashboard -&gt; Here can see current users, groups etc
+2. Dashboard will have Securty status check based on amazon suggeste best practices
+3. On the left side we will see individual sections of IAM like users, groups, policies etc</t>
+  </si>
+  <si>
+    <t>Base of AWS account is called</t>
+  </si>
+  <si>
+    <t>Root account</t>
+  </si>
+  <si>
+    <t>To root accont all services are available like</t>
+  </si>
+  <si>
+    <t>1. Administer all services
+2. Modify Billing information
+3. Manage Users
+Amazon suggested many best practices to secure accounts. One such is MFA</t>
+  </si>
+  <si>
+    <t>MFA (Multi Factor Authentication)</t>
+  </si>
+  <si>
+    <t>1. has long been industry standard for secure authentication of online accounts. Multi factor means there are more than one way that we will authenticate. The MFA provided by AWS ensures the user knows a specific password and also has a specific device.
+2. When MFA has been activated you will need to enter your password, as well as an authentication code from your MFA device.
+3. This authentication code refreshes every 60 seconds, which is what makes this second form of authentication very secure</t>
+  </si>
+  <si>
+    <t>MFA device</t>
+  </si>
+  <si>
+    <t>1. For MFA device AWS allows us to use either hard ware device (mobile) or virtual device (virtual smart phone)
+2. There are plenty of MFA apps available in Google play. One such app is "Duo Mobile". This works great with AWS</t>
+  </si>
+  <si>
+    <t>Set MFA on AWS account</t>
+  </si>
+  <si>
+    <t>Test above set MFA account</t>
+  </si>
+  <si>
+    <t>Click on user name -&gt; click Security Credentials in the drop down -&gt; click on Continue to Security Credentials button -&gt; click on Multi-Factor Authentication (MFA) -&gt; Click Activate MFA button -&gt; select A virtual MFA device if you are using smart phone -&gt; click Next Step button -&gt; click on Next Step button -&gt; We will see QR Code -&gt; Scan the QR code with Duo Mobile installed in smart phone  -&gt; Enter 2 authentication codes from the account created in that MFA app -&gt; Once both codes entered click on Activate Virtual MFA button -&gt; Finish -&gt; MFA activated on root account</t>
+  </si>
+  <si>
+    <t>1. Signout AWS console
+2. login again
+3. Enter password
+4. Now new screen asking for Authentication Code
+5. Enter authentication code from MFA app</t>
+  </si>
+  <si>
+    <t>Understading Policies</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Values are "Allow" or "Deny" and controls how a policy can respond when a user requests access. All AWS permissions are denied by default.</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Action an user can perform. Each service has set list of actions that can be performed on it, and this property says what the user is able to perform</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Resource user can request to perform action on.
+The Resource property should have ARN (Amazon Resource Name) entered for the given resource. Alternatively we can use an asterisk for this property to give the user access to any resource</t>
+  </si>
+  <si>
+    <t>IAM policy types</t>
+  </si>
+  <si>
+    <t>1. AWS Managed Policy - General purpose, Service-wide permissions
+2. Customer Managed Policy - Custom, Specific Resource Permissions (for example allowing user to upload files to specific bucket in S3 or not)</t>
+  </si>
+  <si>
+    <t>Take a look at the policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS console -&gt; click on Identity and Access Management -&gt; loads IAM dashboard -&gt; select Policies on left side menu (if you are seeing this page for first time then you will see a popup and click on manage policies button) -&gt; we can see all the available policies -&gt; click on the entry with the name "Administrator Access" -&gt; open a page to show policy details -&gt; policy document is important part of the policy </t>
+  </si>
+  <si>
+    <t>1. Fundamental building blocks of IAM application
+2. Policies are one or more statements that declare whether a user is allowed to do something or not
+3. Policies can be applies to individual users or groups (users will then be added to)
+4. Policy statement has three properties that give or restrict access. They are Effect, Action, Resource
+5. policies are used to give permissions to users</t>
+  </si>
+  <si>
+    <t>IAM Groups</t>
+  </si>
+  <si>
+    <t>Group of IAM users</t>
+  </si>
+  <si>
+    <t>Why IAM Groups</t>
+  </si>
+  <si>
+    <t>1. Groups allow us to apply policies to group of users that have been added to said group
+2. Amazon suggests applying policies to groups instead of users , since it is easier to manage permissions.
+3. Users can be added to more than one group
+4. As a best practice amazon suggests not to use root account to do things in AWS because root user will have unlimited access to do just about anything. Instead it is suggested to create a user and login under that account to administer services in AWS</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click on Identity and Access Management -&gt; left hand side click on Users -&gt; click Create New Users button -&gt; We can create more than one user, enter usernames based on how many users needed -&gt; Enter username -&gt; check "Generate an access key for each user" check box -&gt; click Create button -&gt; Now Either Download the credentials or show user credentials -&gt; copy the Access Key, Sercret Key -&gt; click Close link below -&gt; click Close link -&gt; we will be navigated to user creation screen -&gt; here we can see new user created</t>
+  </si>
+  <si>
+    <t>Creating a new user</t>
+  </si>
+  <si>
+    <t>Delete Access keys to root account to increase security of root account</t>
+  </si>
+  <si>
+    <t>click on user name -&gt; click on Security Credentials -&gt; click Continue to Security Credentials button -&gt; click Access Key -&gt; click on Delete link -&gt; click Yes button</t>
+  </si>
+  <si>
+    <t>Giving permissions to user created above</t>
+  </si>
+  <si>
+    <t>1. Amazon suggests to apply policies to groups, so lets create admin group
+2. IAM dashboard -&gt; click Groups in left side menu -&gt; click Create New Group button -&gt; enter name "admin" -&gt; click Next Step button -&gt; select "Administrator Access" policy -&gt; click Next Step button -&gt; click Create Group button -&gt; we will be navigated to Groups screen where we can see new Group created</t>
+  </si>
+  <si>
+    <t>Adding user to Group</t>
+  </si>
+  <si>
+    <t>click on admin group created above -&gt; click Users tab -&gt; click Add Users to Group button -&gt; select the user(s) you want to add -&gt; click Add Users button</t>
+  </si>
+  <si>
+    <t>Check permissions added to user added in the above group</t>
+  </si>
+  <si>
+    <t>click on user added to group above -&gt; click Permissions tab -&gt; under Group policies we can see Administrator Access policy</t>
+  </si>
+  <si>
+    <t>Create Password policy on AWS account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM dashboarc -&gt; Account Settings -&gt; in password policy section we can see many different options available -&gt; select choices of our requirement -&gt; Apply Password Policy </t>
+  </si>
+  <si>
+    <t>Assign Password to user created above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM dashboard -&gt; Users -&gt; click on user -&gt; click Security Credentials tab -&gt; click Manage Password -&gt; click Assign a custom password -&gt; enter password and confirm password fields -&gt; click Apply button </t>
+  </si>
+  <si>
+    <t>Login as user created above</t>
+  </si>
+  <si>
+    <t>IAM dashboard -&gt; copy IAM User Signin Link -&gt; keep it safe -&gt; Enter in the new tab -&gt; login with new username and password</t>
+  </si>
+  <si>
+    <t>classes for below code samples</t>
+  </si>
+  <si>
+    <t>import com.amazonaws.auth.BasicAWSCredentials;
+import com.amazonaws.services.sqs.AmazonSQS;
+import com.amazonaws.services.sqs.AmazonSQSClient;
+import com.amazonaws.services.sqs.model.DeleteMessageRequest;
+import com.amazonaws.services.sqs.model.GetQueueUrlRequest;
+import com.amazonaws.services.sqs.model.GetQueueUrlResult;
+import com.amazonaws.services.sqs.model.ListQueuesResult;
+import com.amazonaws.services.sqs.model.Message;
+import com.amazonaws.services.sqs.model.ReceiveMessageRequest;
+import com.amazonaws.services.sqs.model.ReceiveMessageResult;
+import com.amazonaws.services.sqs.model.SendMessageRequest;
+import com.amazonaws.services.sqs.model.SendMessageResult;</t>
+  </si>
+  <si>
+    <t>getQueueURL</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest getQueueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(getQueueUrlRequest);
+  String queueUrl = getQueueUrlResult.getQueueUrl();
+  System.out.println("----- queue url ---------");
+  System.out.println("queueUrl: " + queueUrl);</t>
+  </si>
+  <si>
+    <t>listQueues</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  ListQueuesResult queues = sqs.listQueues();
+  System.out.println("---- queues list-----");
+  System.out.println(queues);</t>
+  </si>
+  <si>
+    <t>sendMessageToQueue</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  String message = "Welcome to my queue";
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest getQueueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(getQueueUrlRequest);
+  String queueURL = getQueueUrlResult.getQueueUrl();
+  System.out.println("------- queue url----");
+  System.out.println(queueURL);
+  SendMessageRequest messageRequest = new SendMessageRequest(queueURL, message);
+  System.out.println("---- send message----");
+  SendMessageResult messageResult = sqs.sendMessage(messageRequest);
+  System.out.println("-----message result-----");
+  System.out.println(messageResult.toString());</t>
+  </si>
+  <si>
+    <t>getMessageFromQueue</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest queueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult queueUrlResult = sqs.getQueueUrl(queueUrlRequest);
+  String queueUrl = queueUrlResult.getQueueUrl();
+  ReceiveMessageRequest receiveMessageRequest = new ReceiveMessageRequest(queueUrl);
+  ReceiveMessageResult receiveMessageResult = sqs.receiveMessage(receiveMessageRequest);
+  List&lt;Message&gt; messages = receiveMessageResult.getMessages();
+  System.out.println("--- messages ----");
+  System.out.println(messages);</t>
+  </si>
+  <si>
+    <t>deleteMessageFromQueue</t>
+  </si>
+  <si>
+    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
+  AmazonSQS sqs = new AmazonSQSClient(credentials);
+  sqs.setEndpoint(endPoint);
+  GetQueueUrlRequest queueUrlRequest = new GetQueueUrlRequest(queueName);
+  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(queueUrlRequest);
+  String queueUrl = getQueueUrlResult.getQueueUrl();
+  ReceiveMessageRequest receiveMessageRequest = new ReceiveMessageRequest(queueUrl);
+  ReceiveMessageResult receiveMessageResult = sqs.receiveMessage(receiveMessageRequest);
+  List&lt;Message&gt; messages = receiveMessageResult.getMessages();
+  Message message = messages.get(0);
+  String messageRecieptHandler = message.getReceiptHandle();
+  System.out.println("message to be deleted: " + message.getBody() + ", handle: " + message.getReceiptHandle());
+  DeleteMessageRequest deleteMessageRequest = new DeleteMessageRequest(queueUrl, messageRecieptHandler);
+  sqs.deleteMessage(deleteMessageRequest);</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>Ec2 run in operation system of our choice that enables you to run your application in the cloud</t>
+  </si>
+  <si>
+    <t>Mateials</t>
+  </si>
+  <si>
+    <t>1. VPC allow developers to create virtual network where they can launch resources and have them logically isolated from other VPCs and outside world. 
+2. With VPC our resource can have IP addresses with which they communicate with other VPCs
+3. We can control access to all the resources inside VPCs
+4. VPCs are Free service by AWS. But we can have maximum of 5 VPCs per account</t>
+  </si>
+  <si>
+    <t>One of the widely used tools in VPC</t>
+  </si>
+  <si>
+    <t>Security Group</t>
+  </si>
+  <si>
+    <t>1. Collection of Ips that are allowed to connect to your instance, and Ips that instance allowed to connect to
+2. Security groups are attached at the instance level and can be shared among many instances
+3. We can configure security groups to allow other security groups instead of IP addresses</t>
+  </si>
+  <si>
+    <t>VPCs use Routing Tables</t>
+  </si>
+  <si>
+    <t>1. to configure routing destination for traffic coming out of the VPC
+2. Each VPC has one routing table which declared attempted destination Ips and where they should be routed to</t>
+  </si>
+  <si>
+    <t>1. Security Groups
+2. Network Access Controll list</t>
+  </si>
+  <si>
+    <t>Network Access Controll List</t>
+  </si>
+  <si>
+    <t>1. Each VPC will have one access controll list which acts as IP filtering table</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>1. Sub set of VPC
+2. EC2 instances will be launched in subnets</t>
+  </si>
+  <si>
+    <t>Creating Virtual Private Cloud</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click VPC -&gt; VPC dashboard will load -&gt; click Start VPC Wizard button -&gt; left side we will see type of VPCs we want to launch -&gt; click "VPC with Single Single public subnet" -&gt; click Select button -&gt; IP CIDR Block (available IP addresses, we can choose any) -&gt; VPC Name = Appliction name -&gt; Public subnet is subset of VPC block -&gt; Select Availability Zone from drop down -&gt; Give Subnet name (ex: Cerebro_subnet_a) -&gt; keep other options default -&gt; click Create VPC button -&gt; Once process done we are ready to launch EC2 instances in this VPC</t>
+  </si>
+  <si>
+    <t>The routing table that was created with this VPC currently doesn't have any way for instances to connect to internet. So we do need to add entry to routing table to allow all traffic to go through internet gateway into the public internet. Intenet gatewat is just a connection to the internet</t>
+  </si>
+  <si>
+    <t>Confguring Routing Table</t>
+  </si>
+  <si>
+    <t>click Your VPCs link on left side menu -&gt; in the VPC list select our VPC -&gt; click Summary tab -&gt; click on the link next to Route Table -&gt; We will navigate to a screen where we can see route table entry -&gt; click route table entry -&gt; click Routes tab -&gt; click Edit button -&gt; click Add Another Route button -&gt; in the Destination enter 0.0.0.0/0 (means any IP) -&gt; on clicking Target we can see auto suggestion select it -&gt; click Save button -&gt; Now our VPC configured to reach outside world</t>
+  </si>
+  <si>
+    <t>Configuring to add another Subnet from another availability zone</t>
+  </si>
+  <si>
+    <t>click Subnets on left side menu -&gt; click Create Subnet button -&gt; Enter Cerebro-subnet-b in Name Tag -&gt; Select VPC we created in the VPC drop down -&gt; in the availability zone drop down select a different zone than subnet-a -&gt; Give 10.0.1.0/24 in CIDR block -&gt; click Yes, Create button</t>
+  </si>
+  <si>
+    <t>EC2 instance types</t>
+  </si>
+  <si>
+    <t>1. General Purpose
+2. Compute Optmized
+3. Memory Optimized
+4. Storage Optimized</t>
+  </si>
+  <si>
+    <t>Independent storage volumes used with EC2 instances</t>
+  </si>
+  <si>
+    <t>Elastic Block Storage (EBS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC2 dashboard </t>
+  </si>
+  <si>
+    <t>1. Resources: Details of instances/resources we have created
+2. Running Instances: EC2 instances we have
+3. Volumes: Elastic Block Storage volumes
+4. Launch Instance button: To launch new EC2 instance</t>
+  </si>
+  <si>
+    <t>Login to Amazon web console -&gt; click on EC2 -&gt; click Launch Instance button -&gt; click Select button of any image we want -&gt; select instance type we want, as of now I am selecting free ties instance type -&gt; click Next: Configure Instance Details button -&gt; give Number of instances as 1 (we can increase while giving AutoScaling configurations) -&gt; For Network select VPC we have created -&gt; Select any subnet under that VPC -&gt; Auto Assign Public IP: Disable -&gt; leave rest section to defaults -&gt; click Next: Add Storage button -&gt; keep defaults -&gt; click Next: Tag Instance button -&gt; Give Name to instance -&gt; click Next: Configure Security Group -&gt; give Security Group Name "any name for example Cerebro-security-group" -&gt; enter description -&gt; click Add Rule button -&gt; keep Type "Custom TCP Rule" -&gt; Port Range = 3000 -&gt; Source == Anywhere in the drop down -&gt; click Review and Launch button -&gt; click Launch button -&gt; popup opens asking for key-pair -&gt; select "Create a new key pair" in the first drop down -&gt; give key pair name (Ex: cerebro key pairs) -&gt; click Download Key pair button -&gt; this will download a .pem file -&gt; save and keep it safe -&gt; click Launch Instances button</t>
+  </si>
+  <si>
+    <t>Getting inside virtual machine with EC2 and VPC</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click 1 Running Instances under Resources -&gt; navigates to instance dashboard -&gt; at the bottom -&gt; under Description we can see there is no  Public IP for this instance -&gt; We can see Private IP -&gt; we can see Availability Zone where this instance has been created -&gt; we can see Key Pair, this is important because we will use same key-pair to connect via SSH</t>
+  </si>
+  <si>
+    <t>Create and Assign Public IP address to VPC</t>
+  </si>
+  <si>
+    <t>Elastic IP</t>
+  </si>
+  <si>
+    <t>Public IP addresses that are created, destroyed and assigned independently to EC2 instances. If underlying instance is terminated then associated IP address can still exist and can be assigned to different instance</t>
+  </si>
+  <si>
+    <t>1. To assign this instance an IP address first we need to create an Elastic IP
+2. AWS Console -&gt; EC2 -&gt; click Elastic IPs in the left menu -&gt; click Allocate New Address button -&gt; click Yes, Allocate button in the popup -&gt; click Close button -&gt; Now we have public IP address
+3. select Elastic IP created above -&gt; click Actions button -&gt; click Associate Address -&gt; On clicking Instance text box auto suggestion will come, select intance to which we want to assign this IP -&gt; click Associate button -&gt; Elastic IP address will be updated with EC2 instance that this IP address is associated with -&gt; click on instance link -&gt; navigates to instance details -&gt; here we can see Public IP address assigned to this instance -&gt; Copy this IP address so that we can use it in next configurations</t>
+  </si>
+  <si>
+    <t>Connect to EC2 instance via SSH</t>
+  </si>
+  <si>
+    <t>1. downlod Putty
+2. Download puttyGen
+3. Under Action -&gt; click Load button -&gt; selecte .pem file we have downloaded above -&gt; click Generate button -&gt; click Save Private Key button -&gt; This will generate .ppk file, save it carefully
+4. Open Putty -&gt; Expand Connection -&gt; Expand SSH -&gt; Select Auth -&gt; Browse -&gt; select .ppk file generated above -&gt; click Session on left pane -&gt; In Host Name text box enter "ec2-user@ec2-instance-public-DNS" -&gt; click Open -&gt; EC2 instance will be connected</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/putty.html?icmpid=docs_ec2_console</t>
+  </si>
+  <si>
+    <t>After connecting to EC2 instance using Putty -&gt; run this command</t>
+  </si>
+  <si>
+    <t>sudo yum update</t>
+  </si>
+  <si>
+    <t>Scaling EC2 instances</t>
+  </si>
+  <si>
+    <t>Expand or Shrink pool of instances</t>
+  </si>
+  <si>
+    <t>Auto Scaling Group</t>
+  </si>
+  <si>
+    <t>Expand or Shrink pool of instances based on pre-defined rules</t>
+  </si>
+  <si>
+    <t>Auto configuration has launch configuration which has an image in it, and scaling rules to expand or shrink a pool of instances automatically</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>Routing appliances that maintains a consistant DNS entry and balances requests to multiple instances</t>
+  </si>
+  <si>
+    <t>Once new user created configure AWS console with new user using "aws configure" command -&gt; give Access Key and Secret Key of this user</t>
+  </si>
+  <si>
+    <t>Load balancer is essentially a router instance that provides a stable end point to reliably send your users and set DNS entries to. Load balancer will keep track of which Ips are available and send users to them efficiently</t>
+  </si>
+  <si>
+    <t>Creating an AMI from Ec2 Instance</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click on instances in the left menu -&gt; Select our instance we want to create AMI -&gt; click on Actions button open drop down -&gt; Image -&gt; click Create Image -&gt; give image name (any user defined name) -&gt; leave rest as defaults -&gt; click Create Image button -&gt; click Close button -&gt; We have an AMI created and ready for deployment</t>
+  </si>
+  <si>
+    <t>Where to check our AMI</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click on instances in the left menu -&gt; click Launch Instance button -&gt; click My AMIs tab -&gt; we can see AMI we have created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can also see AMIs in :
+EC2 dashboard -&gt; AMIs in left menu -&gt; </t>
+  </si>
+  <si>
+    <t>Creating Load Balancer</t>
+  </si>
+  <si>
+    <t>Enable stickiness on the load balancer</t>
+  </si>
+  <si>
+    <t>If user requests comes to one EC2 instance all sub sequence requests have to go to same instance, otherwise user may end up in other EC2 instance which does not user's session details which may cause defects. So we need to enable load balancer stickiness. Load Balancer will use cookie to keep track of which user should be sent which EC2 instance</t>
+  </si>
+  <si>
+    <t>Select load balancer we have created -&gt; click Description tab -&gt; we will see Port Configuration: Stickiness Disabled -&gt; click Edit link next to it -&gt; select "Enable load balancer generated cookie stickiness" -&gt; Expiration Period: give expiration seconds how many days that cookie should be alive -&gt; click Save button</t>
+  </si>
+  <si>
+    <t>Creating an Auto scaling group - this is 2 step process
+1. Create Launch Configuration
+2. Create Auto Scaling Group</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creating Launch Configuration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; Auto Scaling Groups in the left menu -&gt; click Create Auto scaling group button -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; click Select button on AMI we have created above -&gt; select free tier instance -&gt; click Next: Configure Details button -&gt; Name: any user defined name -&gt; Expand Advanced Details section -&gt; in the user data field we need to enter the script that should be run to make our application up and running after scaling new AMI EC2 instance -&gt; click Next: Add Storage button -&gt; click Next: Configure Security Group button -&gt; select "select an existing security group" radio button -&gt; select our SG group -&gt; click Review button -&gt; click Create Launch configuration button -&gt; choose key pair in popup -&gt; check confirmation check box -&gt; click Create Launch Configuration button</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Load Balancers in the left menu -&gt; click Create Load Balancer button -&gt; give Load Balancer Name (any user defined name) -&gt; Create LB inside: select our VPC -&gt; do not check "create an internal load balancer" -&gt; Listener section is which ports the load balancer is listening on -&gt; select the Load Balancer Protocol: HTTP -&gt; Load Balancer Port: 80 -&gt; Instance Protocol: HTTP -&gt; Instance Port: on which port our application is running (in our case it is 8080) -&gt; Select Subnets section: select subnets we created previously -&gt; click "Next: Assign Security Groups" -&gt; select "Create New Security Group" radio button -&gt; Security group name: any user defined name -&gt; there will be an existing rule which accepts any request on port 80, this is fine for us -&gt; click "Next: Configure Security Settings" button -&gt; click "Next: Configure Health Check" button -&gt; load balancer will continuously check the health of application by using port and ping path, so give settings to which to hit to get 200 OK response -&gt; click "Next: Add EC2 Instances" -&gt; select out EC2 instance -&gt; click "Next: Add Tags" button -&gt; click Review and Create button -&gt; click Create button -&gt; click Close button -&gt; we will navigate to Load Balancer list</t>
+  </si>
+  <si>
+    <t>Setting security groups to accept requests only from load balancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Security Groups in the left menu -&gt; select our security group -&gt; click Inbound tab -&gt; click Edit button -&gt; change Source: Custom in drop down -&gt; type s in the next text box -&gt; opens auto suggestion box displays our security groups </t>
+  </si>
+  <si>
+    <t>Adding Scaling policy to our Auto Scaling Group</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Auto scaling groups in the left menu -&gt; select out scaling group -&gt; click Scaling Policies button -&gt; click Add Policy button -&gt; click Create a Simple scaling policy link -&gt; Name: any user defined name. for eample "scale_up" -&gt; Execute policy when: click Create new alarm link -&gt; uncheck "send notification to" check unless you want to an email sent while scaling up -&gt; Whenever : second drop down select "Network Out" -&gt; Is: give 5000000 -&gt; leave the rest to default values -&gt; click Create Alarm button -&gt; click close button -&gt; Take action: first drop down=Add, second text box=1, drop down=Instances -&gt; click Create button.</t>
+  </si>
+  <si>
+    <t>Add one more policy to scale down:
+click Add Policy -&gt; Name: scale_down -&gt; click Create new alarm link -&gt; uncheck Send notification to check box -&gt; Whenever second drop down: Network Out -&gt; Is: 1st drop down: &lt; , text box = 5000000 -&gt; leave the rest to default values -&gt; change the rule name from Higt network out to low network out -&gt; click Create Alarm button -&gt; click Close button -&gt; click Create a simple scaling policy link -&gt; Take Action: drop down: Remove, text box=1, drop down= Instances -&gt; click Create button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Now starts autscaling group configuration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Group Name: any user defined name -&gt; Group Size (initial number of instances) : 2 -&gt; Network: select our VPC from drop down -&gt; click in Subnet text box we will get our subnets as auto suggestions select one at a time -&gt; expand Advanced Details section -&gt; check "Receive traffic from Elastic Load Balancers" check box -&gt; click in the input box and select from auto suggestions -&gt; click "Next: Configure scaling policies" button -&gt; click "Next: Configure Notifications" button -&gt; here we can add new notification to be sent anytime scales up or down , for this we need to setup SNS etc -&gt; click Next: Configure Tags button -&gt; click Review button -&gt; click Create Auto Scaling Group button -&gt; click Close button -&gt; we will navigate back to auto scaling groups list</t>
+    </r>
+  </si>
+  <si>
+    <t>S3 basic structure</t>
+  </si>
+  <si>
+    <t>S3 Object</t>
+  </si>
+  <si>
+    <t>File + metadata</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>1. like file type, modified date etc
+2. Will be used by S3
+3. No file type for the objects to be stored</t>
+  </si>
+  <si>
+    <t>Maximim file size for single put operation</t>
+  </si>
+  <si>
+    <t>5 GB</t>
+  </si>
+  <si>
+    <t>Permission on S3 buckets</t>
+  </si>
+  <si>
+    <t>1. By default S3 objects and buckets are accessible to AWS account, which created them
+2. Permission enable you to grant access to another AWS account or anyone</t>
+  </si>
+  <si>
+    <t>Cross region replication</t>
+  </si>
+  <si>
+    <t>1. automaticall copy any files added or modified in S3 bucket to a different region. This feature can be used to reduce latency or to increase redundancy of the data
+2. Cross region replication will copy a file to only one other region. If we want world wide reduction of latency then we have to use CloudFront</t>
+  </si>
+  <si>
+    <t>Creating S3 bucket</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click on S3 -&gt; click on Create Bucker button -&gt; Bucket Name: any user defined name but this name should be unique across all regions -&gt; Region: select region from drop down -&gt; click Create button -&gt; Now we will S3 bucket in the bucket list</t>
+  </si>
+  <si>
+    <t>Configuring permissions to bucket</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click on S3 -&gt; select bucket to which we want configure permissions -&gt; select the Properties on the top right corner -&gt; expand permissions -&gt; we will create a policy to make bucket accessible to every one for this we will AWS policy generator tool</t>
+  </si>
+  <si>
+    <t>AWS policy generator</t>
+  </si>
+  <si>
+    <t>http://awspolicygen.s3.amazonaws.com/policygen.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://awspolicygen.s3.amazonaws.com/policygen.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>link -&gt; Select type of policy: S3 bucket policy from drop down -&gt; Effect: Allow -&gt; Principal: if we want to give another account an access to S3 we need to enter that account ARN in this text field. We want to give an access to every one so enter asterisk (*) here -&gt; AWS Service: Amazon S3 (will be pre selected due to first drop down) -&gt; Actions: select the actions from drop down that principal user can do on bucket, i am selecting "Get Object" -&gt; ARN: we need to give as per format shown below, for example "arn:aws:s3:::adonthu-s3-practice/*" -&gt; click Add Statement button -&gt; click Generate Policy button -&gt; copy the JSON in the window that popsup -&gt; we will use this json to give permissions to our bucket</t>
+    </r>
+  </si>
+  <si>
+    <t>Go back to S3 dashboard -&gt; select S3 bucket -&gt; click Properties on the top right corner -&gt; expland Permissions -&gt; click Add Bucket Policy link -&gt; in the popup window paste the JSON we copied above -&gt; click Save button -&gt; policy will be validated -&gt; if validation done correctly -&gt; click Close button -&gt; click Save button in Permissions section</t>
+  </si>
+  <si>
+    <t>Uploading objects to S3</t>
+  </si>
+  <si>
+    <t>We can upload objects to S3 in 3 different ways
+1. AWS Console
+2. AWS CLI
+3. AWS SDK</t>
+  </si>
+  <si>
+    <t>uploading objects to S3 using AWS CLI</t>
+  </si>
+  <si>
+    <t>aws s3 cp E:\Backup\JavaPrep\AmazonWS\3_S3_upload_practice_files s3://adonthu-s3-practice/cli_practice --recursive --exclude ".xlsx"</t>
+  </si>
+  <si>
+    <t>uploading objects to S3 using AWS CLI (uploading to bucket created in Mumbai region, so did this example with bucket created in Singapore region)</t>
+  </si>
+  <si>
+    <t>Uploading from AWS console</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click S3 -&gt; click on bucket link -&gt; click Create Folder button -&gt; give a name to folder -&gt; click on folder link -&gt; click on upload button -&gt; drag and drop the file we want to upload -&gt; click Start Upload button</t>
+  </si>
+  <si>
+    <t>Uploading objects to S3 using SDK</t>
+  </si>
+  <si>
+    <t>Working with CORS in S3</t>
+  </si>
+  <si>
+    <t>CORS == Cross Origin Resource Sharing</t>
+  </si>
+  <si>
+    <t>If CORS is not enabled it will place restriction on resource for requests from coming another domains. For example if our application is running with domain name "cerebro.com" and it want to get image from S3 then S3 image domain will be something like "S3://cerebro-bucket/....". If we dont enable CORS then cerebro can not download image from S3</t>
+  </si>
+  <si>
+    <t>Enabling CORS on S3</t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; click S3 -&gt; click on bucket link -&gt; click Properties button -&gt; expand Permission -&gt; click Add CORS configuration link -&gt; popup will open displaying xml content in it -&gt; no changes needed -&gt; click Save button</t>
+  </si>
+  <si>
+    <t>Accessing S3 with EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Console -&gt; EC2 -&gt; Instances link in the left sub menu -&gt; select  our instance -&gt; Actions drop down -&gt; Image -&gt; Select Create Image -&gt; give any user defined name -&gt; click Create button </t>
+  </si>
+  <si>
+    <t>AWS Console -&gt; IAM -&gt; click Roles in the left menu -&gt; click Create New Role button -&gt; Role Name: any user defined name -&gt; click Next Step button -&gt; click Select button next to Amazon EC2 -&gt; in the filer type s3 -&gt; select "AmazonS3FullAccess" -&gt; click Next Step button -&gt; click Create Role button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWS Console -&gt; EC2 -&gt; click Launch Configuration in the left menu -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; select the AMI we want -&gt; select free tier -&gt; click Next button -&gt; Name: any user defined name -&gt; IAM Role: select the role we have created from drop down -&gt; Advanced details we need to enter the startup script that has to be executed while creating new image (starts with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#! /bin/bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)-&gt; select "Assign public IP to every instance" radio button -&gt; click Next: Add Storage button -&gt; click Next: configure security group button -&gt; click Select existing group radio button -&gt; select security group -&gt; click Review button -&gt; click Create Launch Configuration button -&gt; popup opens -&gt; select Key pair -&gt; check confirmation box -&gt; click Create Launch Configuration button</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS console -&gt; EC2 -&gt; click Auto scaling group in the left menu -&gt; select our auto scaling group -&gt; select Details tab -&gt; click Edit button -&gt; Launch Configuration: select our new launch configuration from drop down -&gt; click Save button</t>
+  </si>
+  <si>
+    <t>Deleting an EC2 Instance</t>
+  </si>
+  <si>
+    <t>AWS console -&gt; EC2 -&gt; instances in the left menu -&gt; select the instances we want to delete -&gt; Actions drop down -&gt; Instance State -&gt; Terminate -&gt; click Yes, Terminate button -&gt; this will take some time</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -849,848 +1688,9 @@
       <t>Click on "Create New Access Key" button
 7. Access key, Security key will be generated and displayed in popup. We can copy them manually or download as CSV file
 8. Security key will be displayed only once, so keep it safe and secure
-9. How ever we can delete existing keys and delete new ones
+9. How ever we can delete existing keys and create new ones
 10. Access and Security keys will be used to access AWS from CLI and SDK</t>
     </r>
-  </si>
-  <si>
-    <t>Accessing AWS from CLI</t>
-  </si>
-  <si>
-    <t>To check whether aws CLI configured correctly? Execute this command</t>
-  </si>
-  <si>
-    <t>1. open command prompt
-2. type "aws configure"
-3. it will ask for access key. Enter your access key
-4. it will ask for security key. Enter your security key
-5. Default region name. Enter ur region. I entered "ap-south-1". This we can see by selecting your region and check URL. URL will have region request parameter
-6. Default output format. Enter "json".</t>
-  </si>
-  <si>
-    <t>aws ec2 describe-instances</t>
-  </si>
-  <si>
-    <t>Command to access list of access keys</t>
-  </si>
-  <si>
-    <t>aws iam list-access-keys</t>
-  </si>
-  <si>
-    <t>Command to debug describe-instances command</t>
-  </si>
-  <si>
-    <t>aws ec2 describe-instances --debug</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/AmazonSQSPractice.git</t>
-  </si>
-  <si>
-    <t>Security and Identity</t>
-  </si>
-  <si>
-    <t>IAM (Identity and Access Management)</t>
-  </si>
-  <si>
-    <t>1. monitoring service for other services in AWS
-2. Service to set alarms based on Service metric thresholds (for example, EC2 CPU usage, DynamoDB Read/Write throughput, Estimated billing charges)</t>
-  </si>
-  <si>
-    <t>What happens on setting cloudwatch</t>
-  </si>
-  <si>
-    <t>We can set cloud watch to send alerts if some thing weird is happening like examples told above. We can easily configure where the alert should be sent using SNS</t>
-  </si>
-  <si>
-    <t>Notifications can be sent to</t>
-  </si>
-  <si>
-    <t>1. Email
-2. SMS
-3. HTTP and more</t>
-  </si>
-  <si>
-    <t>What else we can do with cloud watch other setting an alarm</t>
-  </si>
-  <si>
-    <t>We can configure an alarm to trigger an action when certain threshold is passed
-This action based response is available for EC2 instances and Autoscaling Groups</t>
-  </si>
-  <si>
-    <t>For example if incoming network requests of an EC2 instancs passed a certain threshold then we can trigger an Auto Scaling Group action that adds another EC2 instance to the group.
-Infact Auto scaling groups use cloud watch under the covers to trigger their own scaling actions</t>
-  </si>
-  <si>
-    <t>SNS (Simple Notification Service)</t>
-  </si>
-  <si>
-    <t>Integral companion to cloudwatch allowing you to easily push alerts to a group of notification end points</t>
-  </si>
-  <si>
-    <t>Note on SNS</t>
-  </si>
-  <si>
-    <t>Main structure in SNS in Topic. Topic is used to create a unique Amazon resource name that can then have notification sent to it. Once you subscribe to a Topic with an email or SMS number then any notification sent to that SNS topic will then be communicated to your subscribed end point</t>
-  </si>
-  <si>
-    <t>Setting Billing alarm SNS</t>
-  </si>
-  <si>
-    <t>Setting CloudWatch billing alarm (Billing alerts are currently available in north verginia region)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting CloudWatch alarm </t>
-  </si>
-  <si>
-    <t>1. This service available in US East N Verginia region. So change to this region before setting this alarm
-2. Click on Services on top menu -&gt; click SNS -&gt; click on Get Started button -&gt; Click on Create Topic -&gt; Give Topic Name, Display Name -&gt;  click Create Topic button
-3. In subscriptions section we can manage end points subscribed to this topic
-4. Setting Email subscription. Click Create Subscription button -&gt; click Protocol -&gt; Choose Email in the drop down -&gt; enter your email in the EndPoint text box -&gt; click Create Subscription button -&gt; Now confirmation mail will be sent to email we entered in Endpoint text box -&gt; Click Confirm Subscription link in the email -&gt; Now refresh subscriptions section in AWS console -&gt; Now email subscription will be indicated active</t>
-  </si>
-  <si>
-    <t>Click on Services on top menu -&gt; click on CloudWatch -&gt; on cloud watch dashboard we will see menu option on left side where we can see different options available</t>
-  </si>
-  <si>
-    <t>1. Select US East N Verginia region
-2. Click on user name -&gt; click on Billing &amp; Cost Management in the drop down -&gt; on the left hand side click on Preferences -&gt; check "Receive Billing Alerts" check box -&gt; click Save Preferences button
-3. Click on Services on Top menu -&gt; click on CloudWatch -&gt; click on Alarms on left side menu -&gt; click on Create Alarm button (in the popup we can see several billing metrics available) -&gt; click on Total Estimated Charge -&gt; Select USD check box -&gt; Set Time Range -&gt; click 12H -&gt; click Next button -&gt; enter any name(Ex: Billing Alarm) in Name text box -&gt; Estimated chanrges (this is threshold when alarm has to be triggered), I am entering 5 means alarm has to be triggered if billing is more than 5$ -&gt; Under Actions setup notification action -&gt; click on Send Notification to: drop down -&gt; select the SNS we created above -&gt; click Create Alarm button</t>
-  </si>
-  <si>
-    <t>What is IAM (Identity Access Management)</t>
-  </si>
-  <si>
-    <t>Access management service that controls who can have access to what in your AWS account</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Allows us to manage passwords, authentication, multifactor autentication, access keys and SSH keys for all users created on an account. Permission to those users to access/manage other services on the account can also be managed using IAM</t>
-  </si>
-  <si>
-    <t>IAM structure</t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>For example Developer Group Policy</t>
-  </si>
-  <si>
-    <t>can have full access to EC2 instances</t>
-  </si>
-  <si>
-    <t>Tester Group Policy</t>
-  </si>
-  <si>
-    <t>1. Read only access to DynamoDB
-2. Full access to S3 Test Bucket</t>
-  </si>
-  <si>
-    <t>is a collection of permissions to access different services in a particular way.
-Policies can be resource level or in a broad upto service level
-Policies will mixed and matched with particular user or group
-Policies make it easy to assign permissions to users or groups in an administrative way</t>
-  </si>
-  <si>
-    <t>Access IAM</t>
-  </si>
-  <si>
-    <t>1. Click on Identity and Access Management link -&gt; opens a dashboard -&gt; Here can see current users, groups etc
-2. Dashboard will have Securty status check based on amazon suggeste best practices
-3. On the left side we will see individual sections of IAM like users, groups, policies etc</t>
-  </si>
-  <si>
-    <t>Base of AWS account is called</t>
-  </si>
-  <si>
-    <t>Root account</t>
-  </si>
-  <si>
-    <t>To root accont all services are available like</t>
-  </si>
-  <si>
-    <t>1. Administer all services
-2. Modify Billing information
-3. Manage Users
-Amazon suggested many best practices to secure accounts. One such is MFA</t>
-  </si>
-  <si>
-    <t>MFA (Multi Factor Authentication)</t>
-  </si>
-  <si>
-    <t>1. has long been industry standard for secure authentication of online accounts. Multi factor means there are more than one way that we will authenticate. The MFA provided by AWS ensures the user knows a specific password and also has a specific device.
-2. When MFA has been activated you will need to enter your password, as well as an authentication code from your MFA device.
-3. This authentication code refreshes every 60 seconds, which is what makes this second form of authentication very secure</t>
-  </si>
-  <si>
-    <t>MFA device</t>
-  </si>
-  <si>
-    <t>1. For MFA device AWS allows us to use either hard ware device (mobile) or virtual device (virtual smart phone)
-2. There are plenty of MFA apps available in Google play. One such app is "Duo Mobile". This works great with AWS</t>
-  </si>
-  <si>
-    <t>Set MFA on AWS account</t>
-  </si>
-  <si>
-    <t>Test above set MFA account</t>
-  </si>
-  <si>
-    <t>Click on user name -&gt; click Security Credentials in the drop down -&gt; click on Continue to Security Credentials button -&gt; click on Multi-Factor Authentication (MFA) -&gt; Click Activate MFA button -&gt; select A virtual MFA device if you are using smart phone -&gt; click Next Step button -&gt; click on Next Step button -&gt; We will see QR Code -&gt; Scan the QR code with Duo Mobile installed in smart phone  -&gt; Enter 2 authentication codes from the account created in that MFA app -&gt; Once both codes entered click on Activate Virtual MFA button -&gt; Finish -&gt; MFA activated on root account</t>
-  </si>
-  <si>
-    <t>1. Signout AWS console
-2. login again
-3. Enter password
-4. Now new screen asking for Authentication Code
-5. Enter authentication code from MFA app</t>
-  </si>
-  <si>
-    <t>Understading Policies</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>Values are "Allow" or "Deny" and controls how a policy can respond when a user requests access. All AWS permissions are denied by default.</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Action an user can perform. Each service has set list of actions that can be performed on it, and this property says what the user is able to perform</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Resource user can request to perform action on.
-The Resource property should have ARN (Amazon Resource Name) entered for the given resource. Alternatively we can use an asterisk for this property to give the user access to any resource</t>
-  </si>
-  <si>
-    <t>IAM policy types</t>
-  </si>
-  <si>
-    <t>1. AWS Managed Policy - General purpose, Service-wide permissions
-2. Customer Managed Policy - Custom, Specific Resource Permissions (for example allowing user to upload files to specific bucket in S3 or not)</t>
-  </si>
-  <si>
-    <t>Take a look at the policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS console -&gt; click on Identity and Access Management -&gt; loads IAM dashboard -&gt; select Policies on left side menu (if you are seeing this page for first time then you will see a popup and click on manage policies button) -&gt; we can see all the available policies -&gt; click on the entry with the name "Administrator Access" -&gt; open a page to show policy details -&gt; policy document is important part of the policy </t>
-  </si>
-  <si>
-    <t>1. Fundamental building blocks of IAM application
-2. Policies are one or more statements that declare whether a user is allowed to do something or not
-3. Policies can be applies to individual users or groups (users will then be added to)
-4. Policy statement has three properties that give or restrict access. They are Effect, Action, Resource
-5. policies are used to give permissions to users</t>
-  </si>
-  <si>
-    <t>IAM Groups</t>
-  </si>
-  <si>
-    <t>Group of IAM users</t>
-  </si>
-  <si>
-    <t>Why IAM Groups</t>
-  </si>
-  <si>
-    <t>1. Groups allow us to apply policies to group of users that have been added to said group
-2. Amazon suggests applying policies to groups instead of users , since it is easier to manage permissions.
-3. Users can be added to more than one group
-4. As a best practice amazon suggests not to use root account to do things in AWS because root user will have unlimited access to do just about anything. Instead it is suggested to create a user and login under that account to administer services in AWS</t>
-  </si>
-  <si>
-    <t>AWS console -&gt; click on Identity and Access Management -&gt; left hand side click on Users -&gt; click Create New Users button -&gt; We can create more than one user, enter usernames based on how many users needed -&gt; Enter username -&gt; check "Generate an access key for each user" check box -&gt; click Create button -&gt; Now Either Download the credentials or show user credentials -&gt; copy the Access Key, Sercret Key -&gt; click Close link below -&gt; click Close link -&gt; we will be navigated to user creation screen -&gt; here we can see new user created</t>
-  </si>
-  <si>
-    <t>Creating a new user</t>
-  </si>
-  <si>
-    <t>Delete Access keys to root account to increase security of root account</t>
-  </si>
-  <si>
-    <t>click on user name -&gt; click on Security Credentials -&gt; click Continue to Security Credentials button -&gt; click Access Key -&gt; click on Delete link -&gt; click Yes button</t>
-  </si>
-  <si>
-    <t>Giving permissions to user created above</t>
-  </si>
-  <si>
-    <t>1. Amazon suggests to apply policies to groups, so lets create admin group
-2. IAM dashboard -&gt; click Groups in left side menu -&gt; click Create New Group button -&gt; enter name "admin" -&gt; click Next Step button -&gt; select "Administrator Access" policy -&gt; click Next Step button -&gt; click Create Group button -&gt; we will be navigated to Groups screen where we can see new Group created</t>
-  </si>
-  <si>
-    <t>Adding user to Group</t>
-  </si>
-  <si>
-    <t>click on admin group created above -&gt; click Users tab -&gt; click Add Users to Group button -&gt; select the user(s) you want to add -&gt; click Add Users button</t>
-  </si>
-  <si>
-    <t>Check permissions added to user added in the above group</t>
-  </si>
-  <si>
-    <t>click on user added to group above -&gt; click Permissions tab -&gt; under Group policies we can see Administrator Access policy</t>
-  </si>
-  <si>
-    <t>Create Password policy on AWS account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM dashboarc -&gt; Account Settings -&gt; in password policy section we can see many different options available -&gt; select choices of our requirement -&gt; Apply Password Policy </t>
-  </si>
-  <si>
-    <t>Assign Password to user created above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM dashboard -&gt; Users -&gt; click on user -&gt; click Security Credentials tab -&gt; click Manage Password -&gt; click Assign a custom password -&gt; enter password and confirm password fields -&gt; click Apply button </t>
-  </si>
-  <si>
-    <t>Login as user created above</t>
-  </si>
-  <si>
-    <t>IAM dashboard -&gt; copy IAM User Signin Link -&gt; keep it safe -&gt; Enter in the new tab -&gt; login with new username and password</t>
-  </si>
-  <si>
-    <t>classes for below code samples</t>
-  </si>
-  <si>
-    <t>import com.amazonaws.auth.BasicAWSCredentials;
-import com.amazonaws.services.sqs.AmazonSQS;
-import com.amazonaws.services.sqs.AmazonSQSClient;
-import com.amazonaws.services.sqs.model.DeleteMessageRequest;
-import com.amazonaws.services.sqs.model.GetQueueUrlRequest;
-import com.amazonaws.services.sqs.model.GetQueueUrlResult;
-import com.amazonaws.services.sqs.model.ListQueuesResult;
-import com.amazonaws.services.sqs.model.Message;
-import com.amazonaws.services.sqs.model.ReceiveMessageRequest;
-import com.amazonaws.services.sqs.model.ReceiveMessageResult;
-import com.amazonaws.services.sqs.model.SendMessageRequest;
-import com.amazonaws.services.sqs.model.SendMessageResult;</t>
-  </si>
-  <si>
-    <t>getQueueURL</t>
-  </si>
-  <si>
-    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
-  AmazonSQS sqs = new AmazonSQSClient(credentials);
-  sqs.setEndpoint(endPoint);
-  GetQueueUrlRequest getQueueUrlRequest = new GetQueueUrlRequest(queueName);
-  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(getQueueUrlRequest);
-  String queueUrl = getQueueUrlResult.getQueueUrl();
-  System.out.println("----- queue url ---------");
-  System.out.println("queueUrl: " + queueUrl);</t>
-  </si>
-  <si>
-    <t>listQueues</t>
-  </si>
-  <si>
-    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
-  AmazonSQS sqs = new AmazonSQSClient(credentials);
-  sqs.setEndpoint(endPoint);
-  ListQueuesResult queues = sqs.listQueues();
-  System.out.println("---- queues list-----");
-  System.out.println(queues);</t>
-  </si>
-  <si>
-    <t>sendMessageToQueue</t>
-  </si>
-  <si>
-    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
-  String message = "Welcome to my queue";
-  AmazonSQS sqs = new AmazonSQSClient(credentials);
-  sqs.setEndpoint(endPoint);
-  GetQueueUrlRequest getQueueUrlRequest = new GetQueueUrlRequest(queueName);
-  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(getQueueUrlRequest);
-  String queueURL = getQueueUrlResult.getQueueUrl();
-  System.out.println("------- queue url----");
-  System.out.println(queueURL);
-  SendMessageRequest messageRequest = new SendMessageRequest(queueURL, message);
-  System.out.println("---- send message----");
-  SendMessageResult messageResult = sqs.sendMessage(messageRequest);
-  System.out.println("-----message result-----");
-  System.out.println(messageResult.toString());</t>
-  </si>
-  <si>
-    <t>getMessageFromQueue</t>
-  </si>
-  <si>
-    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
-  AmazonSQS sqs = new AmazonSQSClient(credentials);
-  sqs.setEndpoint(endPoint);
-  GetQueueUrlRequest queueUrlRequest = new GetQueueUrlRequest(queueName);
-  GetQueueUrlResult queueUrlResult = sqs.getQueueUrl(queueUrlRequest);
-  String queueUrl = queueUrlResult.getQueueUrl();
-  ReceiveMessageRequest receiveMessageRequest = new ReceiveMessageRequest(queueUrl);
-  ReceiveMessageResult receiveMessageResult = sqs.receiveMessage(receiveMessageRequest);
-  List&lt;Message&gt; messages = receiveMessageResult.getMessages();
-  System.out.println("--- messages ----");
-  System.out.println(messages);</t>
-  </si>
-  <si>
-    <t>deleteMessageFromQueue</t>
-  </si>
-  <si>
-    <t>BasicAWSCredentials credentials = new BasicAWSCredentials(accessKey, secretKey);
-  AmazonSQS sqs = new AmazonSQSClient(credentials);
-  sqs.setEndpoint(endPoint);
-  GetQueueUrlRequest queueUrlRequest = new GetQueueUrlRequest(queueName);
-  GetQueueUrlResult getQueueUrlResult = sqs.getQueueUrl(queueUrlRequest);
-  String queueUrl = getQueueUrlResult.getQueueUrl();
-  ReceiveMessageRequest receiveMessageRequest = new ReceiveMessageRequest(queueUrl);
-  ReceiveMessageResult receiveMessageResult = sqs.receiveMessage(receiveMessageRequest);
-  List&lt;Message&gt; messages = receiveMessageResult.getMessages();
-  Message message = messages.get(0);
-  String messageRecieptHandler = message.getReceiptHandle();
-  System.out.println("message to be deleted: " + message.getBody() + ", handle: " + message.getReceiptHandle());
-  DeleteMessageRequest deleteMessageRequest = new DeleteMessageRequest(queueUrl, messageRecieptHandler);
-  sqs.deleteMessage(deleteMessageRequest);</t>
-  </si>
-  <si>
-    <t>EC2</t>
-  </si>
-  <si>
-    <t>Ec2 run in operation system of our choice that enables you to run your application in the cloud</t>
-  </si>
-  <si>
-    <t>Mateials</t>
-  </si>
-  <si>
-    <t>1. VPC allow developers to create virtual network where they can launch resources and have them logically isolated from other VPCs and outside world. 
-2. With VPC our resource can have IP addresses with which they communicate with other VPCs
-3. We can control access to all the resources inside VPCs
-4. VPCs are Free service by AWS. But we can have maximum of 5 VPCs per account</t>
-  </si>
-  <si>
-    <t>One of the widely used tools in VPC</t>
-  </si>
-  <si>
-    <t>Security Group</t>
-  </si>
-  <si>
-    <t>1. Collection of Ips that are allowed to connect to your instance, and Ips that instance allowed to connect to
-2. Security groups are attached at the instance level and can be shared among many instances
-3. We can configure security groups to allow other security groups instead of IP addresses</t>
-  </si>
-  <si>
-    <t>VPCs use Routing Tables</t>
-  </si>
-  <si>
-    <t>1. to configure routing destination for traffic coming out of the VPC
-2. Each VPC has one routing table which declared attempted destination Ips and where they should be routed to</t>
-  </si>
-  <si>
-    <t>1. Security Groups
-2. Network Access Controll list</t>
-  </si>
-  <si>
-    <t>Network Access Controll List</t>
-  </si>
-  <si>
-    <t>1. Each VPC will have one access controll list which acts as IP filtering table</t>
-  </si>
-  <si>
-    <t>Subnet</t>
-  </si>
-  <si>
-    <t>1. Sub set of VPC
-2. EC2 instances will be launched in subnets</t>
-  </si>
-  <si>
-    <t>Creating Virtual Private Cloud</t>
-  </si>
-  <si>
-    <t>AWS Console -&gt; click VPC -&gt; VPC dashboard will load -&gt; click Start VPC Wizard button -&gt; left side we will see type of VPCs we want to launch -&gt; click "VPC with Single Single public subnet" -&gt; click Select button -&gt; IP CIDR Block (available IP addresses, we can choose any) -&gt; VPC Name = Appliction name -&gt; Public subnet is subset of VPC block -&gt; Select Availability Zone from drop down -&gt; Give Subnet name (ex: Cerebro_subnet_a) -&gt; keep other options default -&gt; click Create VPC button -&gt; Once process done we are ready to launch EC2 instances in this VPC</t>
-  </si>
-  <si>
-    <t>The routing table that was created with this VPC currently doesn't have any way for instances to connect to internet. So we do need to add entry to routing table to allow all traffic to go through internet gateway into the public internet. Intenet gatewat is just a connection to the internet</t>
-  </si>
-  <si>
-    <t>Confguring Routing Table</t>
-  </si>
-  <si>
-    <t>click Your VPCs link on left side menu -&gt; in the VPC list select our VPC -&gt; click Summary tab -&gt; click on the link next to Route Table -&gt; We will navigate to a screen where we can see route table entry -&gt; click route table entry -&gt; click Routes tab -&gt; click Edit button -&gt; click Add Another Route button -&gt; in the Destination enter 0.0.0.0/0 (means any IP) -&gt; on clicking Target we can see auto suggestion select it -&gt; click Save button -&gt; Now our VPC configured to reach outside world</t>
-  </si>
-  <si>
-    <t>Configuring to add another Subnet from another availability zone</t>
-  </si>
-  <si>
-    <t>click Subnets on left side menu -&gt; click Create Subnet button -&gt; Enter Cerebro-subnet-b in Name Tag -&gt; Select VPC we created in the VPC drop down -&gt; in the availability zone drop down select a different zone than subnet-a -&gt; Give 10.0.1.0/24 in CIDR block -&gt; click Yes, Create button</t>
-  </si>
-  <si>
-    <t>EC2 instance types</t>
-  </si>
-  <si>
-    <t>1. General Purpose
-2. Compute Optmized
-3. Memory Optimized
-4. Storage Optimized</t>
-  </si>
-  <si>
-    <t>Independent storage volumes used with EC2 instances</t>
-  </si>
-  <si>
-    <t>Elastic Block Storage (EBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC2 dashboard </t>
-  </si>
-  <si>
-    <t>1. Resources: Details of instances/resources we have created
-2. Running Instances: EC2 instances we have
-3. Volumes: Elastic Block Storage volumes
-4. Launch Instance button: To launch new EC2 instance</t>
-  </si>
-  <si>
-    <t>Login to Amazon web console -&gt; click on EC2 -&gt; click Launch Instance button -&gt; click Select button of any image we want -&gt; select instance type we want, as of now I am selecting free ties instance type -&gt; click Next: Configure Instance Details button -&gt; give Number of instances as 1 (we can increase while giving AutoScaling configurations) -&gt; For Network select VPC we have created -&gt; Select any subnet under that VPC -&gt; Auto Assign Public IP: Disable -&gt; leave rest section to defaults -&gt; click Next: Add Storage button -&gt; keep defaults -&gt; click Next: Tag Instance button -&gt; Give Name to instance -&gt; click Next: Configure Security Group -&gt; give Security Group Name "any name for example Cerebro-security-group" -&gt; enter description -&gt; click Add Rule button -&gt; keep Type "Custom TCP Rule" -&gt; Port Range = 3000 -&gt; Source == Anywhere in the drop down -&gt; click Review and Launch button -&gt; click Launch button -&gt; popup opens asking for key-pair -&gt; select "Create a new key pair" in the first drop down -&gt; give key pair name (Ex: cerebro key pairs) -&gt; click Download Key pair button -&gt; this will download a .pem file -&gt; save and keep it safe -&gt; click Launch Instances button</t>
-  </si>
-  <si>
-    <t>Getting inside virtual machine with EC2 and VPC</t>
-  </si>
-  <si>
-    <t>AWS Console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click 1 Running Instances under Resources -&gt; navigates to instance dashboard -&gt; at the bottom -&gt; under Description we can see there is no  Public IP for this instance -&gt; We can see Private IP -&gt; we can see Availability Zone where this instance has been created -&gt; we can see Key Pair, this is important because we will use same key-pair to connect via SSH</t>
-  </si>
-  <si>
-    <t>Create and Assign Public IP address to VPC</t>
-  </si>
-  <si>
-    <t>Elastic IP</t>
-  </si>
-  <si>
-    <t>Public IP addresses that are created, destroyed and assigned independently to EC2 instances. If underlying instance is terminated then associated IP address can still exist and can be assigned to different instance</t>
-  </si>
-  <si>
-    <t>1. To assign this instance an IP address first we need to create an Elastic IP
-2. AWS Console -&gt; EC2 -&gt; click Elastic IPs in the left menu -&gt; click Allocate New Address button -&gt; click Yes, Allocate button in the popup -&gt; click Close button -&gt; Now we have public IP address
-3. select Elastic IP created above -&gt; click Actions button -&gt; click Associate Address -&gt; On clicking Instance text box auto suggestion will come, select intance to which we want to assign this IP -&gt; click Associate button -&gt; Elastic IP address will be updated with EC2 instance that this IP address is associated with -&gt; click on instance link -&gt; navigates to instance details -&gt; here we can see Public IP address assigned to this instance -&gt; Copy this IP address so that we can use it in next configurations</t>
-  </si>
-  <si>
-    <t>Connect to EC2 instance via SSH</t>
-  </si>
-  <si>
-    <t>1. downlod Putty
-2. Download puttyGen
-3. Under Action -&gt; click Load button -&gt; selecte .pem file we have downloaded above -&gt; click Generate button -&gt; click Save Private Key button -&gt; This will generate .ppk file, save it carefully
-4. Open Putty -&gt; Expand Connection -&gt; Expand SSH -&gt; Select Auth -&gt; Browse -&gt; select .ppk file generated above -&gt; click Session on left pane -&gt; In Host Name text box enter "ec2-user@ec2-instance-public-DNS" -&gt; click Open -&gt; EC2 instance will be connected</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/putty.html?icmpid=docs_ec2_console</t>
-  </si>
-  <si>
-    <t>After connecting to EC2 instance using Putty -&gt; run this command</t>
-  </si>
-  <si>
-    <t>sudo yum update</t>
-  </si>
-  <si>
-    <t>Scaling EC2 instances</t>
-  </si>
-  <si>
-    <t>Expand or Shrink pool of instances</t>
-  </si>
-  <si>
-    <t>Auto Scaling Group</t>
-  </si>
-  <si>
-    <t>Expand or Shrink pool of instances based on pre-defined rules</t>
-  </si>
-  <si>
-    <t>Auto configuration has launch configuration which has an image in it, and scaling rules to expand or shrink a pool of instances automatically</t>
-  </si>
-  <si>
-    <t>Load Balancer</t>
-  </si>
-  <si>
-    <t>Routing appliances that maintains a consistant DNS entry and balances requests to multiple instances</t>
-  </si>
-  <si>
-    <t>Once new user created configure AWS console with new user using "aws configure" command -&gt; give Access Key and Secret Key of this user</t>
-  </si>
-  <si>
-    <t>Load balancer is essentially a router instance that provides a stable end point to reliably send your users and set DNS entries to. Load balancer will keep track of which Ips are available and send users to them efficiently</t>
-  </si>
-  <si>
-    <t>Creating an AMI from Ec2 Instance</t>
-  </si>
-  <si>
-    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click on instances in the left menu -&gt; Select our instance we want to create AMI -&gt; click on Actions button open drop down -&gt; Image -&gt; click Create Image -&gt; give image name (any user defined name) -&gt; leave rest as defaults -&gt; click Create Image button -&gt; click Close button -&gt; We have an AMI created and ready for deployment</t>
-  </si>
-  <si>
-    <t>Where to check our AMI</t>
-  </si>
-  <si>
-    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click on instances in the left menu -&gt; click Launch Instance button -&gt; click My AMIs tab -&gt; we can see AMI we have created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We can also see AMIs in :
-EC2 dashboard -&gt; AMIs in left menu -&gt; </t>
-  </si>
-  <si>
-    <t>Creating Load Balancer</t>
-  </si>
-  <si>
-    <t>Enable stickiness on the load balancer</t>
-  </si>
-  <si>
-    <t>If user requests comes to one EC2 instance all sub sequence requests have to go to same instance, otherwise user may end up in other EC2 instance which does not user's session details which may cause defects. So we need to enable load balancer stickiness. Load Balancer will use cookie to keep track of which user should be sent which EC2 instance</t>
-  </si>
-  <si>
-    <t>Select load balancer we have created -&gt; click Description tab -&gt; we will see Port Configuration: Stickiness Disabled -&gt; click Edit link next to it -&gt; select "Enable load balancer generated cookie stickiness" -&gt; Expiration Period: give expiration seconds how many days that cookie should be alive -&gt; click Save button</t>
-  </si>
-  <si>
-    <t>Creating an Auto scaling group - this is 2 step process
-1. Create Launch Configuration
-2. Create Auto Scaling Group</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creating Launch Configuration:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; Auto Scaling Groups in the left menu -&gt; click Create Auto scaling group button -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; click Select button on AMI we have created above -&gt; select free tier instance -&gt; click Next: Configure Details button -&gt; Name: any user defined name -&gt; Expand Advanced Details section -&gt; in the user data field we need to enter the script that should be run to make our application up and running after scaling new AMI EC2 instance -&gt; click Next: Add Storage button -&gt; click Next: Configure Security Group button -&gt; select "select an existing security group" radio button -&gt; select our SG group -&gt; click Review button -&gt; click Create Launch configuration button -&gt; choose key pair in popup -&gt; check confirmation check box -&gt; click Create Launch Configuration button</t>
-    </r>
-  </si>
-  <si>
-    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Load Balancers in the left menu -&gt; click Create Load Balancer button -&gt; give Load Balancer Name (any user defined name) -&gt; Create LB inside: select our VPC -&gt; do not check "create an internal load balancer" -&gt; Listener section is which ports the load balancer is listening on -&gt; select the Load Balancer Protocol: HTTP -&gt; Load Balancer Port: 80 -&gt; Instance Protocol: HTTP -&gt; Instance Port: on which port our application is running (in our case it is 8080) -&gt; Select Subnets section: select subnets we created previously -&gt; click "Next: Assign Security Groups" -&gt; select "Create New Security Group" radio button -&gt; Security group name: any user defined name -&gt; there will be an existing rule which accepts any request on port 80, this is fine for us -&gt; click "Next: Configure Security Settings" button -&gt; click "Next: Configure Health Check" button -&gt; load balancer will continuously check the health of application by using port and ping path, so give settings to which to hit to get 200 OK response -&gt; click "Next: Add EC2 Instances" -&gt; select out EC2 instance -&gt; click "Next: Add Tags" button -&gt; click Review and Create button -&gt; click Create button -&gt; click Close button -&gt; we will navigate to Load Balancer list</t>
-  </si>
-  <si>
-    <t>Setting security groups to accept requests only from load balancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Security Groups in the left menu -&gt; select our security group -&gt; click Inbound tab -&gt; click Edit button -&gt; change Source: Custom in drop down -&gt; type s in the next text box -&gt; opens auto suggestion box displays our security groups </t>
-  </si>
-  <si>
-    <t>Adding Scaling policy to our Auto Scaling Group</t>
-  </si>
-  <si>
-    <t>AWS console -&gt; click EC2 -&gt; open EC2 dashboard -&gt; click Auto scaling groups in the left menu -&gt; select out scaling group -&gt; click Scaling Policies button -&gt; click Add Policy button -&gt; click Create a Simple scaling policy link -&gt; Name: any user defined name. for eample "scale_up" -&gt; Execute policy when: click Create new alarm link -&gt; uncheck "send notification to" check unless you want to an email sent while scaling up -&gt; Whenever : second drop down select "Network Out" -&gt; Is: give 5000000 -&gt; leave the rest to default values -&gt; click Create Alarm button -&gt; click close button -&gt; Take action: first drop down=Add, second text box=1, drop down=Instances -&gt; click Create button.</t>
-  </si>
-  <si>
-    <t>Add one more policy to scale down:
-click Add Policy -&gt; Name: scale_down -&gt; click Create new alarm link -&gt; uncheck Send notification to check box -&gt; Whenever second drop down: Network Out -&gt; Is: 1st drop down: &lt; , text box = 5000000 -&gt; leave the rest to default values -&gt; change the rule name from Higt network out to low network out -&gt; click Create Alarm button -&gt; click Close button -&gt; click Create a simple scaling policy link -&gt; Take Action: drop down: Remove, text box=1, drop down= Instances -&gt; click Create button</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Now starts autscaling group configuration:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Group Name: any user defined name -&gt; Group Size (initial number of instances) : 2 -&gt; Network: select our VPC from drop down -&gt; click in Subnet text box we will get our subnets as auto suggestions select one at a time -&gt; expand Advanced Details section -&gt; check "Receive traffic from Elastic Load Balancers" check box -&gt; click in the input box and select from auto suggestions -&gt; click "Next: Configure scaling policies" button -&gt; click "Next: Configure Notifications" button -&gt; here we can add new notification to be sent anytime scales up or down , for this we need to setup SNS etc -&gt; click Next: Configure Tags button -&gt; click Review button -&gt; click Create Auto Scaling Group button -&gt; click Close button -&gt; we will navigate back to auto scaling groups list</t>
-    </r>
-  </si>
-  <si>
-    <t>S3 basic structure</t>
-  </si>
-  <si>
-    <t>S3 Object</t>
-  </si>
-  <si>
-    <t>File + metadata</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>1. like file type, modified date etc
-2. Will be used by S3
-3. No file type for the objects to be stored</t>
-  </si>
-  <si>
-    <t>Maximim file size for single put operation</t>
-  </si>
-  <si>
-    <t>5 GB</t>
-  </si>
-  <si>
-    <t>Permission on S3 buckets</t>
-  </si>
-  <si>
-    <t>1. By default S3 objects and buckets are accessible to AWS account, which created them
-2. Permission enable you to grant access to another AWS account or anyone</t>
-  </si>
-  <si>
-    <t>Cross region replication</t>
-  </si>
-  <si>
-    <t>1. automaticall copy any files added or modified in S3 bucket to a different region. This feature can be used to reduce latency or to increase redundancy of the data
-2. Cross region replication will copy a file to only one other region. If we want world wide reduction of latency then we have to use CloudFront</t>
-  </si>
-  <si>
-    <t>Creating S3 bucket</t>
-  </si>
-  <si>
-    <t>AWS Console -&gt; click on S3 -&gt; click on Create Bucker button -&gt; Bucket Name: any user defined name but this name should be unique across all regions -&gt; Region: select region from drop down -&gt; click Create button -&gt; Now we will S3 bucket in the bucket list</t>
-  </si>
-  <si>
-    <t>Configuring permissions to bucket</t>
-  </si>
-  <si>
-    <t>AWS Console -&gt; click on S3 -&gt; select bucket to which we want configure permissions -&gt; select the Properties on the top right corner -&gt; expand permissions -&gt; we will create a policy to make bucket accessible to every one for this we will AWS policy generator tool</t>
-  </si>
-  <si>
-    <t>AWS policy generator</t>
-  </si>
-  <si>
-    <t>http://awspolicygen.s3.amazonaws.com/policygen.html</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Go to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://awspolicygen.s3.amazonaws.com/policygen.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>link -&gt; Select type of policy: S3 bucket policy from drop down -&gt; Effect: Allow -&gt; Principal: if we want to give another account an access to S3 we need to enter that account ARN in this text field. We want to give an access to every one so enter asterisk (*) here -&gt; AWS Service: Amazon S3 (will be pre selected due to first drop down) -&gt; Actions: select the actions from drop down that principal user can do on bucket, i am selecting "Get Object" -&gt; ARN: we need to give as per format shown below, for example "arn:aws:s3:::adonthu-s3-practice/*" -&gt; click Add Statement button -&gt; click Generate Policy button -&gt; copy the JSON in the window that popsup -&gt; we will use this json to give permissions to our bucket</t>
-    </r>
-  </si>
-  <si>
-    <t>Go back to S3 dashboard -&gt; select S3 bucket -&gt; click Properties on the top right corner -&gt; expland Permissions -&gt; click Add Bucket Policy link -&gt; in the popup window paste the JSON we copied above -&gt; click Save button -&gt; policy will be validated -&gt; if validation done correctly -&gt; click Close button -&gt; click Save button in Permissions section</t>
-  </si>
-  <si>
-    <t>Uploading objects to S3</t>
-  </si>
-  <si>
-    <t>We can upload objects to S3 in 3 different ways
-1. AWS Console
-2. AWS CLI
-3. AWS SDK</t>
-  </si>
-  <si>
-    <t>uploading objects to S3 using AWS CLI</t>
-  </si>
-  <si>
-    <t>aws s3 cp E:\Backup\JavaPrep\AmazonWS\3_S3_upload_practice_files s3://adonthu-s3-practice/cli_practice --recursive --exclude ".xlsx"</t>
-  </si>
-  <si>
-    <t>uploading objects to S3 using AWS CLI (uploading to bucket created in Mumbai region, so did this example with bucket created in Singapore region)</t>
-  </si>
-  <si>
-    <t>Uploading from AWS console</t>
-  </si>
-  <si>
-    <t>AWS Console -&gt; click S3 -&gt; click on bucket link -&gt; click Create Folder button -&gt; give a name to folder -&gt; click on folder link -&gt; click on upload button -&gt; drag and drop the file we want to upload -&gt; click Start Upload button</t>
-  </si>
-  <si>
-    <t>Uploading objects to S3 using SDK</t>
-  </si>
-  <si>
-    <t>Working with CORS in S3</t>
-  </si>
-  <si>
-    <t>CORS == Cross Origin Resource Sharing</t>
-  </si>
-  <si>
-    <t>If CORS is not enabled it will place restriction on resource for requests from coming another domains. For example if our application is running with domain name "cerebro.com" and it want to get image from S3 then S3 image domain will be something like "S3://cerebro-bucket/....". If we dont enable CORS then cerebro can not download image from S3</t>
-  </si>
-  <si>
-    <t>Enabling CORS on S3</t>
-  </si>
-  <si>
-    <t>AWS Console -&gt; click S3 -&gt; click on bucket link -&gt; click Properties button -&gt; expand Permission -&gt; click Add CORS configuration link -&gt; popup will open displaying xml content in it -&gt; no changes needed -&gt; click Save button</t>
-  </si>
-  <si>
-    <t>Accessing S3 with EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Console -&gt; EC2 -&gt; Instances link in the left sub menu -&gt; select  our instance -&gt; Actions drop down -&gt; Image -&gt; Select Create Image -&gt; give any user defined name -&gt; click Create button </t>
-  </si>
-  <si>
-    <t>AWS Console -&gt; IAM -&gt; click Roles in the left menu -&gt; click Create New Role button -&gt; Role Name: any user defined name -&gt; click Next Step button -&gt; click Select button next to Amazon EC2 -&gt; in the filer type s3 -&gt; select "AmazonS3FullAccess" -&gt; click Next Step button -&gt; click Create Role button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AWS Console -&gt; EC2 -&gt; click Launch Configuration in the left menu -&gt; click Create Launch Configuration button -&gt; click My AMIs tab -&gt; select the AMI we want -&gt; select free tier -&gt; click Next button -&gt; Name: any user defined name -&gt; IAM Role: select the role we have created from drop down -&gt; Advanced details we need to enter the startup script that has to be executed while creating new image (starts with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#! /bin/bash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)-&gt; select "Assign public IP to every instance" radio button -&gt; click Next: Add Storage button -&gt; click Next: configure security group button -&gt; click Select existing group radio button -&gt; select security group -&gt; click Review button -&gt; click Create Launch Configuration button -&gt; popup opens -&gt; select Key pair -&gt; check confirmation box -&gt; click Create Launch Configuration button</t>
-    </r>
-  </si>
-  <si>
-    <t>AWS console -&gt; EC2 -&gt; click Auto scaling group in the left menu -&gt; select our auto scaling group -&gt; select Details tab -&gt; click Edit button -&gt; Launch Configuration: select our new launch configuration from drop down -&gt; click Save button</t>
-  </si>
-  <si>
-    <t>Deleting an EC2 Instance</t>
-  </si>
-  <si>
-    <t>AWS console -&gt; EC2 -&gt; instances in the left menu -&gt; select the instances we want to delete -&gt; Actions drop down -&gt; Instance State -&gt; Terminate -&gt; click Yes, Terminate button -&gt; this will take some time</t>
   </si>
 </sst>
 </file>
@@ -2050,10 +2050,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2353,7 +2353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,7 +2448,7 @@
         <v>156</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" customHeight="1"/>
@@ -2696,7 +2696,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2788,77 +2788,77 @@
         <v>186</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>330</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>332</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>335</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>337</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>339</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="54"/>
       <c r="B26" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>342</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>344</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2921,7 @@
         <v>198</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
@@ -2950,72 +2950,72 @@
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>241</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="49"/>
       <c r="B19" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="105">
       <c r="A21" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="120">
       <c r="A23" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3175,42 +3175,42 @@
     </row>
     <row r="12" spans="1:2" ht="105">
       <c r="A12" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>412</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3269,240 +3269,240 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>256</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>258</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>267</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>269</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60">
       <c r="A21" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>271</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
       <c r="A22" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>275</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75">
       <c r="A24" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
       <c r="A26" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>282</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>284</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
       <c r="A29" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>286</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
       <c r="A30" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>288</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>290</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>293</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>295</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
       <c r="A34" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="49"/>
       <c r="B35" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>301</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>307</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>309</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>311</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3697,9 +3697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3991,7 +3991,7 @@
         <v>224</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>225</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4140,152 +4140,152 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>391</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>392</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>394</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>396</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>398</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>400</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>402</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>404</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90">
       <c r="A29" s="49"/>
       <c r="B29" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
       <c r="A30" s="49"/>
       <c r="B30" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>410</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>415</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>418</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
       <c r="A36" s="49"/>
       <c r="B36" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="B37" s="41" t="s">
         <v>421</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
       <c r="B39" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90">
       <c r="B40" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="B41" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4313,9 +4313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4432,34 +4432,34 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>325</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>350</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
@@ -4467,191 +4467,191 @@
         <v>108</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>353</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="105">
       <c r="A28" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>356</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
       <c r="A30" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>359</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="54"/>
       <c r="B31" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>362</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="B33" s="37" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="56" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="55" t="s">
+      <c r="B34" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B34" s="37" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="56"/>
+      <c r="B35" s="37" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="55"/>
-      <c r="B35" s="37" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="55" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="56" t="s">
+      <c r="B36" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B36" s="37" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="37" t="s">
         <v>373</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
       <c r="A39" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>375</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="54"/>
       <c r="B40" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
       <c r="A41" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
       <c r="A42" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" s="37" t="s">
         <v>379</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="54"/>
       <c r="B43" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
       <c r="A44" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>382</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="105">
       <c r="A45" s="54"/>
       <c r="B45" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
       <c r="A46" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>385</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
       <c r="A47" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="39" t="s">
         <v>387</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
       <c r="A48" s="54"/>
       <c r="B48" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>428</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
@@ -4762,7 +4762,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4824,50 +4824,50 @@
     </row>
     <row r="15" spans="1:2" ht="180">
       <c r="A15" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="165">
       <c r="A16" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>315</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
       <c r="A17" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>317</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="255">
       <c r="A18" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>319</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="210">
       <c r="A19" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>321</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="285">
       <c r="A20" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4890,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1914,7 +1914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2019,6 +2019,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2050,10 +2053,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2520,22 +2523,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2554,7 +2557,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2562,7 +2565,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2614,20 +2617,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2715,10 +2718,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2726,14 +2729,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2832,7 +2835,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>338</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -2840,7 +2843,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="30" t="s">
         <v>340</v>
       </c>
@@ -2901,20 +2904,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2973,7 +2976,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>242</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2981,7 +2984,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="26" t="s">
         <v>244</v>
       </c>
@@ -3057,20 +3060,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -3142,10 +3145,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3156,14 +3159,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
@@ -3209,7 +3212,7 @@
       <c r="A16" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="44" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3252,20 +3255,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -3436,7 +3439,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>297</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -3444,7 +3447,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="49"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="37" t="s">
         <v>370</v>
       </c>
@@ -3524,9 +3527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3544,10 +3547,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3560,10 +3563,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3582,7 +3585,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3590,7 +3593,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3695,11 +3698,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3717,20 +3720,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3845,10 +3848,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="54"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3867,7 +3870,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3875,19 +3878,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="46"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3941,7 +3944,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="50" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3949,7 +3952,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="49"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3986,11 +3989,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="150">
-      <c r="A45" s="21" t="s">
+    <row r="44" spans="1:2" ht="150">
+      <c r="A44" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B44" s="25" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4035,10 +4038,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
@@ -4057,16 +4060,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="41" t="s">
@@ -4085,7 +4088,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -4093,7 +4096,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="41" t="s">
         <v>119</v>
       </c>
@@ -4195,7 +4198,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>403</v>
       </c>
       <c r="B28" s="41" t="s">
@@ -4203,13 +4206,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="90">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="41" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="41" t="s">
         <v>408</v>
       </c>
@@ -4244,7 +4247,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="50" t="s">
         <v>417</v>
       </c>
       <c r="B35" s="41" t="s">
@@ -4252,7 +4255,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="49"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="41" t="s">
         <v>419</v>
       </c>
@@ -4333,10 +4336,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4347,16 +4350,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -4495,7 +4498,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>358</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -4503,7 +4506,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="20" t="s">
         <v>360</v>
       </c>
@@ -4539,7 +4542,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="57" t="s">
         <v>368</v>
       </c>
       <c r="B36" s="37" t="s">
@@ -4547,7 +4550,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="55"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="37" t="s">
         <v>371</v>
       </c>
@@ -4561,7 +4564,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>374</v>
       </c>
       <c r="B39" s="37" t="s">
@@ -4569,7 +4572,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="37" t="s">
         <v>376</v>
       </c>
@@ -4583,7 +4586,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>378</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -4591,13 +4594,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="37" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="50" t="s">
         <v>381</v>
       </c>
       <c r="B44" s="39" t="s">
@@ -4605,7 +4608,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="105">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="39" t="s">
         <v>389</v>
       </c>
@@ -4619,7 +4622,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="55" t="s">
         <v>386</v>
       </c>
       <c r="B47" s="39" t="s">
@@ -4627,7 +4630,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="39" t="s">
         <v>388</v>
       </c>
@@ -4642,16 +4645,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
@@ -4688,20 +4691,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -4781,16 +4784,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -4801,10 +4804,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4909,22 +4912,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5004,20 +5007,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -751,9 +751,6 @@
   </si>
   <si>
     <t>Installing AWS CLI (Command Line Interface)</t>
-  </si>
-  <si>
-    <t>AWS CLI</t>
   </si>
   <si>
     <r>
@@ -1691,6 +1688,9 @@
 9. How ever we can delete existing keys and create new ones
 10. Access and Security keys will be used to access AWS from CLI and SDK</t>
     </r>
+  </si>
+  <si>
+    <t>aws s3 sync E:\Backup\JavaPrep\AmazonWS\3_S3_upload_practice_files s3://adonthu-s3-practice/cli_practice</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2018,7 +2018,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2053,10 +2052,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2356,7 +2355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2451,7 +2450,7 @@
         <v>156</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2465,7 +2464,7 @@
         <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" customHeight="1"/>
@@ -2523,22 +2522,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2557,7 +2556,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2565,7 +2564,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2617,20 +2616,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2718,25 +2717,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2791,77 +2790,77 @@
         <v>186</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>329</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>331</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>334</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B24" s="30" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="54" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="55" t="s">
+      <c r="B25" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B25" s="30" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="54"/>
+      <c r="B26" s="30" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="55"/>
-      <c r="B26" s="30" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>341</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>343</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2904,27 +2903,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
         <v>198</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
@@ -2953,72 +2952,72 @@
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="26" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="49" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="50" t="s">
+      <c r="B18" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="26" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="49"/>
+      <c r="B19" s="26" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="50"/>
-      <c r="B19" s="26" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="105">
       <c r="A21" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="120">
       <c r="A23" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3060,20 +3059,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -3123,11 +3122,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3145,87 +3144,80 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="54"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="A2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="53"/>
+    </row>
+    <row r="7" spans="1:2" ht="90">
+      <c r="A7" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="105">
+      <c r="A8" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="54"/>
-    </row>
-    <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="105">
-      <c r="A12" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>227</v>
+      <c r="A10" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>412</v>
+      <c r="A13" s="56"/>
+      <c r="B13" s="43" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="CLI!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3255,257 +3247,257 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>255</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>263</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>268</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60">
       <c r="A21" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>270</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
       <c r="A22" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>272</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>274</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75">
       <c r="A24" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
       <c r="A26" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>281</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
       <c r="A29" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
       <c r="A30" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>292</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="B33" s="27" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="50"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>298</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>300</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>302</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>304</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>306</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>308</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>310</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3525,11 +3517,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3547,10 +3539,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3563,10 +3555,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3585,7 +3577,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3593,7 +3585,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3614,83 +3606,90 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
+      <c r="A20" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
-        <v>220</v>
+      <c r="A21" s="41" t="s">
+        <v>404</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="45"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
     <hyperlink ref="B14" r:id="rId2"/>
     <hyperlink ref="B15" r:id="rId3"/>
-    <hyperlink ref="B18" r:id="rId4"/>
-    <hyperlink ref="B17" r:id="rId5"/>
-    <hyperlink ref="B19" r:id="rId6"/>
-    <hyperlink ref="B20" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId5"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
     <hyperlink ref="B10" r:id="rId8"/>
     <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B21" r:id="rId10"/>
-    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="B20" r:id="rId10"/>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!C2" display="Topics"/>
-    <hyperlink ref="B23" r:id="rId12"/>
+    <hyperlink ref="B21" r:id="rId11"/>
+    <hyperlink ref="B24" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3720,20 +3719,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3848,10 +3847,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="53"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3870,7 +3869,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3878,19 +3877,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="47"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="47"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3944,7 +3943,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="49" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3952,7 +3951,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -3991,10 +3990,10 @@
     </row>
     <row r="44" spans="1:2" ht="150">
       <c r="A44" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -4038,10 +4037,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
@@ -4060,16 +4059,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="41" t="s">
@@ -4088,7 +4087,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -4096,7 +4095,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="41" t="s">
         <v>119</v>
       </c>
@@ -4143,152 +4142,152 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>390</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>391</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>393</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>397</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>399</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="B27" s="41" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="49" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="50" t="s">
+      <c r="B28" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="29" spans="1:2" ht="90">
-      <c r="A29" s="50"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="49"/>
+      <c r="B30" s="41" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="50"/>
-      <c r="B30" s="41" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>409</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>414</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="41" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="49" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="50" t="s">
+      <c r="B35" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="B35" s="41" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="49"/>
+      <c r="B36" s="41" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="50"/>
-      <c r="B36" s="41" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B37" s="41" t="s">
         <v>420</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>422</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
       <c r="B39" s="41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90">
       <c r="B40" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="B41" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4336,10 +4335,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4350,16 +4349,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="53"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -4435,34 +4434,34 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>324</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
       <c r="A23" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>345</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
       <c r="A25" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>349</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="135">
@@ -4470,191 +4469,191 @@
         <v>108</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>352</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="105">
       <c r="A28" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>356</v>
-      </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="B30" s="33" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="54"/>
+      <c r="B31" s="20" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="20" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>361</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>363</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>365</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="56"/>
       <c r="B35" s="37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="55" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="57" t="s">
+      <c r="B36" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B36" s="37" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="57"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B38" s="37" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="54" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="55" t="s">
+      <c r="B39" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="37" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="54"/>
+      <c r="B40" s="37" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="55"/>
-      <c r="B40" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="135">
       <c r="A41" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45">
+      <c r="A42" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="B41" s="39" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="55" t="s">
+      <c r="B42" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="B42" s="37" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="54"/>
+      <c r="B43" s="37" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="55"/>
-      <c r="B43" s="37" t="s">
+    <row r="44" spans="1:2" ht="120">
+      <c r="A44" s="49" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="50" t="s">
+      <c r="B44" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="45" spans="1:2" ht="105">
-      <c r="A45" s="55"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
       <c r="A46" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="B46" s="39" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="75">
+      <c r="A47" s="54" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="55" t="s">
+      <c r="B47" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="B47" s="39" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="54"/>
+      <c r="B48" s="39" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="55"/>
-      <c r="B48" s="39" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>427</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
@@ -4691,20 +4690,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -4784,30 +4783,30 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4827,50 +4826,50 @@
     </row>
     <row r="15" spans="1:2" ht="180">
       <c r="A15" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>312</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="165">
       <c r="A16" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>314</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
       <c r="A17" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="255">
       <c r="A18" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>318</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="210">
       <c r="A19" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="285">
       <c r="A20" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>322</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4912,22 +4911,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5007,20 +5006,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="433">
   <si>
     <t>Topics</t>
   </si>
@@ -1691,6 +1691,15 @@
   </si>
   <si>
     <t>aws s3 sync E:\Backup\JavaPrep\AmazonWS\3_S3_upload_practice_files s3://adonthu-s3-practice/cli_practice</t>
+  </si>
+  <si>
+    <t>Pluralsight video name</t>
+  </si>
+  <si>
+    <t>Word doc in Definitions</t>
+  </si>
+  <si>
+    <t>images\z_Amazon_WS\1_SQS\1_SQS_basics.docx</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2021,6 +2030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2052,10 +2062,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2355,7 +2365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2522,22 +2532,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2556,7 +2566,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2564,7 +2574,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
       </c>
@@ -2616,20 +2626,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2717,10 +2727,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2728,14 +2738,14 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2834,7 +2844,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>337</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -2842,7 +2852,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="30" t="s">
         <v>339</v>
       </c>
@@ -2903,20 +2913,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
@@ -2975,7 +2985,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>241</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2983,7 +2993,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="26" t="s">
         <v>243</v>
       </c>
@@ -3059,20 +3069,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -3124,9 +3134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3144,16 +3154,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" ht="90">
       <c r="A7" s="18" t="s">
@@ -3247,20 +3257,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
@@ -3431,7 +3441,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
         <v>296</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -3439,7 +3449,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="49"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="37" t="s">
         <v>369</v>
       </c>
@@ -3517,11 +3527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3539,10 +3549,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3555,10 +3565,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3577,7 +3587,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3585,7 +3595,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3655,10 +3665,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="46"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16" t="s">
@@ -3668,12 +3678,32 @@
         <v>215</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="46"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
@@ -3719,20 +3749,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3847,10 +3877,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="54"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
@@ -3869,7 +3899,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3877,19 +3907,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="46"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -3943,7 +3973,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="50" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3951,7 +3981,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="49"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -4037,10 +4067,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
@@ -4059,16 +4089,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="41" t="s">
@@ -4087,7 +4117,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -4095,7 +4125,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="41" t="s">
         <v>119</v>
       </c>
@@ -4197,7 +4227,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>402</v>
       </c>
       <c r="B28" s="41" t="s">
@@ -4205,13 +4235,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="90">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="41" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="41" t="s">
         <v>407</v>
       </c>
@@ -4246,7 +4276,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="50" t="s">
         <v>416</v>
       </c>
       <c r="B35" s="41" t="s">
@@ -4254,7 +4284,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="49"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="41" t="s">
         <v>418</v>
       </c>
@@ -4335,10 +4365,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
@@ -4349,16 +4379,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" t="s">
@@ -4497,7 +4527,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>357</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -4505,7 +4535,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="20" t="s">
         <v>359</v>
       </c>
@@ -4541,7 +4571,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="57" t="s">
         <v>367</v>
       </c>
       <c r="B36" s="37" t="s">
@@ -4549,7 +4579,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="55"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="37" t="s">
         <v>370</v>
       </c>
@@ -4563,7 +4593,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>373</v>
       </c>
       <c r="B39" s="37" t="s">
@@ -4571,7 +4601,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="37" t="s">
         <v>375</v>
       </c>
@@ -4585,7 +4615,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>377</v>
       </c>
       <c r="B42" s="37" t="s">
@@ -4593,13 +4623,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="37" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="50" t="s">
         <v>380</v>
       </c>
       <c r="B44" s="39" t="s">
@@ -4607,7 +4637,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="105">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="39" t="s">
         <v>388</v>
       </c>
@@ -4621,7 +4651,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="55" t="s">
         <v>385</v>
       </c>
       <c r="B47" s="39" t="s">
@@ -4629,7 +4659,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="39" t="s">
         <v>387</v>
       </c>
@@ -4644,16 +4674,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
@@ -4690,20 +4720,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -4783,16 +4813,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
@@ -4803,10 +4833,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4911,22 +4941,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5006,20 +5036,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -3530,8 +3530,8 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2062,10 +2062,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2365,15 +2365,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2410,7 +2410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
@@ -2519,8 +2519,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.875" customWidth="1"/>
-    <col min="2" max="2" width="112.625" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2613,8 +2613,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.125" customWidth="1"/>
-    <col min="2" max="2" width="110.125" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="110.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2714,8 +2714,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.625" customWidth="1"/>
-    <col min="2" max="2" width="108.625" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="108.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="60">
+    <row r="27" spans="1:2" ht="75">
       <c r="A27" s="31" t="s">
         <v>340</v>
       </c>
@@ -2900,8 +2900,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="110.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="110.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105">
+    <row r="21" spans="1:2" ht="120">
       <c r="A21" s="28" t="s">
         <v>248</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="120">
+    <row r="23" spans="1:2" ht="135">
       <c r="A23" s="26" t="s">
         <v>249</v>
       </c>
@@ -3056,8 +3056,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.25" customWidth="1"/>
-    <col min="2" max="2" width="109.625" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3141,8 +3141,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.5" customWidth="1"/>
-    <col min="2" max="2" width="107.625" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B6" s="54"/>
     </row>
-    <row r="7" spans="1:2" ht="90">
+    <row r="7" spans="1:2" ht="105">
       <c r="A7" s="18" t="s">
         <v>219</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="21" t="s">
         <v>225</v>
       </c>
@@ -3205,8 +3205,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="57" t="s">
         <v>410</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="43" t="s">
         <v>429</v>
       </c>
@@ -3244,8 +3244,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="105.375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="105.42578125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="26" t="s">
         <v>256</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60">
+    <row r="22" spans="1:2" ht="105">
       <c r="A22" s="26" t="s">
         <v>271</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75">
+    <row r="24" spans="1:2" ht="90">
       <c r="A24" s="26" t="s">
         <v>275</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45">
+    <row r="31" spans="1:2" ht="60">
       <c r="A31" s="26" t="s">
         <v>288</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="75">
+    <row r="33" spans="1:2" ht="90">
       <c r="A33" s="27" t="s">
         <v>293</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="60">
+    <row r="34" spans="1:2" ht="75">
       <c r="A34" s="50" t="s">
         <v>296</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="30">
       <c r="A39" s="27" t="s">
         <v>303</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="30">
       <c r="A42" s="27" t="s">
         <v>309</v>
       </c>
@@ -3527,17 +3527,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.875" customWidth="1"/>
-    <col min="2" max="2" width="105.25" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="105.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="22" customFormat="1">
@@ -3697,8 +3697,23 @@
         <v>432</v>
       </c>
     </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="46"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
@@ -3720,6 +3735,7 @@
     <hyperlink ref="A1" location="Topics!C2" display="Topics"/>
     <hyperlink ref="B21" r:id="rId11"/>
     <hyperlink ref="B24" r:id="rId12"/>
+    <hyperlink ref="B33" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3736,8 +3752,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.625" customWidth="1"/>
-    <col min="2" max="2" width="111.5" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="111.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3882,7 +3898,7 @@
       </c>
       <c r="B25" s="54"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -3898,7 +3914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75">
+    <row r="28" spans="1:2" ht="90">
       <c r="A28" s="47" t="s">
         <v>52</v>
       </c>
@@ -3918,7 +3934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45">
+    <row r="31" spans="1:2" ht="60">
       <c r="A31" s="47"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
@@ -3986,7 +4002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45">
+    <row r="40" spans="1:2" ht="60">
       <c r="A40" s="5" t="s">
         <v>88</v>
       </c>
@@ -4054,8 +4070,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="109.625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4218,7 +4234,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
+    <row r="27" spans="1:2" ht="45">
       <c r="A27" s="41" t="s">
         <v>400</v>
       </c>
@@ -4226,7 +4242,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
+    <row r="28" spans="1:2" ht="45">
       <c r="A28" s="50" t="s">
         <v>402</v>
       </c>
@@ -4234,7 +4250,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="90">
+    <row r="29" spans="1:2" ht="105">
       <c r="A29" s="50"/>
       <c r="B29" s="41" t="s">
         <v>406</v>
@@ -4283,7 +4299,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="45">
+    <row r="36" spans="1:2" ht="60">
       <c r="A36" s="50"/>
       <c r="B36" s="41" t="s">
         <v>418</v>
@@ -4310,7 +4326,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="90">
+    <row r="40" spans="1:2" ht="105">
       <c r="B40" s="41" t="s">
         <v>424</v>
       </c>
@@ -4343,17 +4359,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
-    <col min="2" max="2" width="107.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4366,333 +4382,317 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="54"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="54"/>
     </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="54"/>
-    </row>
-    <row r="13" spans="1:2" ht="30">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75">
       <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
+        <v>108</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>107</v>
+      <c r="A17" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
-      <c r="A18" t="s">
+      <c r="A18" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="150">
+      <c r="A21" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
+      <c r="B21" s="33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="120">
       <c r="A23" s="34" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" s="34" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="34" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="105">
+      <c r="A25" s="55" t="s">
+        <v>357</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="135">
-      <c r="A26" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="105">
-      <c r="A28" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" s="33" t="s">
         <v>358</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="55"/>
+      <c r="B26" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="57"/>
+      <c r="B30" s="37" t="s">
+        <v>366</v>
+      </c>
+    </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="36" t="s">
-        <v>362</v>
+      <c r="A31" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="56"/>
+      <c r="B32" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60">
+      <c r="A33" s="38" t="s">
+        <v>371</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="56" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="55" t="s">
+        <v>373</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="37" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="57"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="150">
+      <c r="A36" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="55" t="s">
+        <v>377</v>
+      </c>
       <c r="B37" s="37" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="38" t="s">
-        <v>371</v>
-      </c>
+      <c r="A38" s="55"/>
       <c r="B38" s="37" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="135">
+      <c r="A39" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="120">
       <c r="A40" s="55"/>
-      <c r="B40" s="37" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="135">
-      <c r="A41" s="38" t="s">
-        <v>376</v>
+      <c r="B40" s="39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="40" t="s">
+        <v>383</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="45">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="90">
       <c r="A42" s="55" t="s">
-        <v>377</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
+        <v>385</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="90">
       <c r="A43" s="55"/>
-      <c r="B43" s="37" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="105">
-      <c r="A45" s="55"/>
-      <c r="B45" s="39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="75">
-      <c r="A48" s="55"/>
-      <c r="B48" s="39" t="s">
+      <c r="B43" s="39" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="42" t="s">
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B44" s="41" t="s">
         <v>427</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
+  <mergeCells count="9">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'EC2'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B31" r:id="rId2"/>
+    <hyperlink ref="B26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4707,8 +4707,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.875" customWidth="1"/>
-    <col min="2" max="2" width="105.5" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="105.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4801,7 +4801,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58" style="5" customWidth="1"/>
-    <col min="2" max="2" width="105.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="105.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="285">
+    <row r="20" spans="1:2" ht="300">
       <c r="A20" s="32" t="s">
         <v>321</v>
       </c>
@@ -4928,8 +4928,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="115.125" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5023,8 +5023,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="109.5" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1776,7 +1776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1804,6 +1804,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4220C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,7 +1929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2031,10 +2037,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2062,10 +2068,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2073,6 +2082,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4220C"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2365,7 +2379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2381,7 +2395,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2392,9 +2409,6 @@
       <c r="B2" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
@@ -2486,7 +2500,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="C1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
     <hyperlink ref="A4" location="'EC2'!A1" display="EC2 (Elastic Cloud Compute)"/>
     <hyperlink ref="C5" location="DynamoDB!A1" display="DynamoDB"/>
@@ -2500,7 +2514,7 @@
     <hyperlink ref="B12" location="cloudwatch!A1" display="CloudWatch"/>
     <hyperlink ref="C12" location="cloudfront!A1" display="Cloud Front"/>
     <hyperlink ref="B2" location="CLI!A1" display="CLI"/>
-    <hyperlink ref="C2" location="Materials!A1" display="Material Links"/>
+    <hyperlink ref="B1" location="Materials!A1" display="Material Links"/>
     <hyperlink ref="D12" location="IAM!A1" display="IAM (Identity and Access Management)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3206,7 +3220,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>410</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -3214,7 +3228,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="43" t="s">
         <v>429</v>
       </c>
@@ -3529,9 +3543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3549,10 +3563,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
@@ -3565,10 +3579,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
@@ -3665,10 +3679,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16" t="s">
@@ -3679,10 +3693,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="44" t="s">
@@ -3698,10 +3712,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
@@ -3732,7 +3746,7 @@
     <hyperlink ref="B11" r:id="rId9"/>
     <hyperlink ref="B20" r:id="rId10"/>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!C2" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
     <hyperlink ref="B21" r:id="rId11"/>
     <hyperlink ref="B24" r:id="rId12"/>
     <hyperlink ref="B33" r:id="rId13"/>
@@ -3747,7 +3761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4361,9 +4375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4559,7 +4573,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>364</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -4567,13 +4581,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="57"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="37" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>367</v>
       </c>
       <c r="B31" s="37" t="s">
@@ -4581,7 +4595,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="37" t="s">
         <v>370</v>
       </c>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -23,13 +23,14 @@
     <sheet name="cloudfront" sheetId="13" r:id="rId14"/>
     <sheet name="CLI" sheetId="14" r:id="rId15"/>
     <sheet name="IAM" sheetId="17" r:id="rId16"/>
+    <sheet name="CF" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="457">
   <si>
     <t>Topics</t>
   </si>
@@ -459,14 +460,6 @@
     <t>RDS database options</t>
   </si>
   <si>
-    <t>1. MySQL
-2. Postgre SQL
-3. SQL Server
-4. Maria DB
-5. Oracle
-6. Amazon Aurora</t>
-  </si>
-  <si>
     <t>AWS will take care of
 1. Scheduled automated backups
 2. Software Updates
@@ -742,9 +735,6 @@
   </si>
   <si>
     <t>AWS Developer: Getting Started</t>
-  </si>
-  <si>
-    <t>Pluralsight tutorial videos - go through in the same order</t>
   </si>
   <si>
     <t>Little firewals installed per instance basis</t>
@@ -1330,12 +1320,6 @@
     <t>Connect to EC2 instance via SSH</t>
   </si>
   <si>
-    <t>1. downlod Putty
-2. Download puttyGen
-3. Under Action -&gt; click Load button -&gt; selecte .pem file we have downloaded above -&gt; click Generate button -&gt; click Save Private Key button -&gt; This will generate .ppk file, save it carefully
-4. Open Putty -&gt; Expand Connection -&gt; Expand SSH -&gt; Select Auth -&gt; Browse -&gt; select .ppk file generated above -&gt; click Session on left pane -&gt; In Host Name text box enter "ec2-user@ec2-instance-public-DNS" -&gt; click Open -&gt; EC2 instance will be connected</t>
-  </si>
-  <si>
     <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/putty.html?icmpid=docs_ec2_console</t>
   </si>
   <si>
@@ -1700,6 +1684,94 @@
   </si>
   <si>
     <t>images\z_Amazon_WS\1_SQS\1_SQS_basics.docx</t>
+  </si>
+  <si>
+    <t>AWS - all material</t>
+  </si>
+  <si>
+    <t>Plural sight video 1</t>
+  </si>
+  <si>
+    <t>Plural sight video 2</t>
+  </si>
+  <si>
+    <t>1. downlod Putty
+2. Download puttyGen
+3. Open PuttyGen -&gt; Under Action -&gt; click Load button -&gt; selecte .pem file we have downloaded above -&gt; click Generate button -&gt; click Save Private Key button -&gt; This will generate .ppk file, save it carefully
+4. Open Putty -&gt; Expand Connection -&gt; Expand SSH -&gt; Select Auth -&gt; Browse -&gt; select .ppk file generated above -&gt; click Session on left pane -&gt; In Host Name text box enter "ec2-user@ec2-instance-public-DNS" -&gt; click Open -&gt; EC2 instance will be connected</t>
+  </si>
+  <si>
+    <t>Oracle, SQL Server, MySQL, Postgre SQL, Maria DB, Amazon Aurora</t>
+  </si>
+  <si>
+    <t>Create PostgreSQL database instance</t>
+  </si>
+  <si>
+    <t>AWS web console -&gt; RDS -&gt; Left side we can see dashboard menu -&gt; If we are coming here for the first time, we can see Get Started Now button -&gt; click on Get Started Now button -&gt; Select the database engine we want to create (I am selecting PostgreSQL) -&gt; click on Select button -&gt; select the purpose for creating this DB instance (production - for creating Multy A(vailibility)-Z(one) database, Dev/Test - single instance), i am selecting Dev/Test -&gt; click on Next Step button -&gt; Fill the details appropriately -&gt; click Next Step button -&gt; VPC drop down: select our VPC created before (check VPC tab to know how to create VPC) -&gt; Publicly Accessable: yes -&gt; Database Name: any user defined name -&gt; keep the rest of options to defaults -&gt; click Launch DB Instance button -&gt; This will take some time</t>
+  </si>
+  <si>
+    <t>Security group created for the database created above</t>
+  </si>
+  <si>
+    <t>AWS web console -&gt; RDS -&gt; click on Instances on left menu -&gt; Expand database row -&gt; click on magnifying glass document icon -&gt; click on link available for Security Groups -&gt; click on Inbound tab -&gt; here we can see port for connecting to PostGre SQL DB-&gt; IP Address will be default to our system IP address. If we want to change IP Address -&gt; click on Edit button -&gt; change Source to Anywhere -&gt; click Save button.</t>
+  </si>
+  <si>
+    <t>Connecting to PostGre SQL Created above</t>
+  </si>
+  <si>
+    <t>We need to use any of the below tools
+1. Postico
+2. pgAdmin</t>
+  </si>
+  <si>
+    <t>Open Postico -&gt; click on New Favorite button -&gt; Nickname: local nick name for DB -&gt; Host: expland database row in AWS RDS web console, copy End point -&gt; Port: port our database is running -&gt; enter username and password -&gt; enter database name what we gave while creating DB -&gt; click Connect button -&gt; now connected to DB</t>
+  </si>
+  <si>
+    <t>To create table</t>
+  </si>
+  <si>
+    <t>After connecting to database -&gt; click on "+Table" button -&gt; give table name, column names etc -&gt; click Save Changes button</t>
+  </si>
+  <si>
+    <t>What table contains?</t>
+  </si>
+  <si>
+    <t>1. Table contains many rows of data called items that have whatever schema you give them at the time of putting them in the table
+2. Each item should have primary key. Key is used to index the data and make efficient querying of data
+3. data type of primary key - String, Number, binary</t>
+  </si>
+  <si>
+    <t>Creating table in DynamoDB</t>
+  </si>
+  <si>
+    <t>AWS web console -&gt; click on Dynamo DB -&gt; click on Create Table button -&gt; Table name: our table name -&gt; Primary Key: any user defined name. Ex: id, and select data type -&gt; Table Settings: check Use default settings check box -&gt; click on Create button</t>
+  </si>
+  <si>
+    <t>Overview tab</t>
+  </si>
+  <si>
+    <t>overview of table created above</t>
+  </si>
+  <si>
+    <t>Items tab</t>
+  </si>
+  <si>
+    <t>Displays data in data base</t>
+  </si>
+  <si>
+    <t>Capacity tab</t>
+  </si>
+  <si>
+    <t>Current provisioned throughput capacity</t>
+  </si>
+  <si>
+    <t>Cloud Formation</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1804,12 +1876,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4220C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2037,10 +2103,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2072,7 +2140,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2395,7 +2466,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2407,21 +2478,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="C3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
@@ -2440,21 +2511,21 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>81</v>
@@ -2468,13 +2539,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2485,10 +2556,15 @@
         <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" customHeight="1"/>
@@ -2516,6 +2592,7 @@
     <hyperlink ref="B2" location="CLI!A1" display="CLI"/>
     <hyperlink ref="B1" location="Materials!A1" display="Material Links"/>
     <hyperlink ref="D12" location="IAM!A1" display="IAM (Identity and Access Management)"/>
+    <hyperlink ref="B13" location="CF!A1" display="Cloud Formation"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2546,59 +2623,59 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="57" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="55" t="s">
+      <c r="B14" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="57"/>
+      <c r="B15" s="11" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2640,67 +2717,67 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2741,150 +2818,150 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
       <c r="A19" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B25" s="30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="55" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="57"/>
+      <c r="B26" s="30" t="s">
         <v>337</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="55"/>
-      <c r="B26" s="30" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2927,121 +3004,121 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="50" t="s">
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="52"/>
+      <c r="B19" s="26" t="s">
         <v>241</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="50"/>
-      <c r="B19" s="26" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120">
       <c r="A21" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="135">
       <c r="A23" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3083,51 +3160,51 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3168,69 +3245,69 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2" ht="105">
       <c r="A7" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
       <c r="A8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="56" t="s">
-        <v>410</v>
+      <c r="A12" s="58" t="s">
+        <v>407</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="43" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3252,8 +3329,8 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3271,257 +3348,257 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60">
       <c r="A21" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
       <c r="A22" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
       <c r="A24" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>275</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>276</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
       <c r="A26" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
       <c r="A29" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
       <c r="A30" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="90">
       <c r="A33" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
       <c r="A39" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3539,22 +3616,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="127.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!B13" display="Topics"/>
+    <hyperlink ref="B1" location="CF!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="105.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1">
+    <row r="1" spans="1:3" s="22" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3562,29 +3688,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="46"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="45" t="s">
+      <c r="C3" s="46" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="45"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="48"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -3592,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3600,21 +3738,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="49"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -3622,7 +3760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -3630,7 +3768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3664,75 +3802,75 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="45"/>
+      <c r="A23" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="48"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>215</v>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="48"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="44" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="44" t="s">
-        <v>430</v>
+      <c r="A28" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="B32" s="45"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="A30" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" s="48"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
@@ -3749,7 +3887,7 @@
     <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
     <hyperlink ref="B21" r:id="rId11"/>
     <hyperlink ref="B24" r:id="rId12"/>
-    <hyperlink ref="B33" r:id="rId13"/>
+    <hyperlink ref="B31" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3760,7 +3898,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -3779,20 +3917,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -3907,10 +4045,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="56"/>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="5" t="s">
@@ -3929,7 +4067,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3937,19 +4075,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="47"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="47"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -4003,7 +4141,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -4011,7 +4149,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -4050,10 +4188,10 @@
     </row>
     <row r="44" spans="1:2" ht="150">
       <c r="A44" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4097,10 +4235,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
@@ -4119,16 +4257,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="41" t="s">
@@ -4147,7 +4285,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -4155,7 +4293,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="41" t="s">
         <v>119</v>
       </c>
@@ -4202,152 +4340,152 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="41" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="41" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" s="41" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="41" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="41" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="B28" s="41" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="105">
+      <c r="A29" s="52"/>
+      <c r="B29" s="41" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="105">
-      <c r="A29" s="50"/>
-      <c r="B29" s="41" t="s">
-        <v>406</v>
-      </c>
-    </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="50"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="41" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="28" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="28" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="52"/>
+      <c r="B36" s="41" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="50" t="s">
-        <v>416</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="50"/>
-      <c r="B36" s="41" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
       <c r="B39" s="41" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="B40" s="41" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="B41" s="41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4376,8 +4514,8 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4395,16 +4533,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
@@ -4475,39 +4613,39 @@
         <v>113</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="150">
@@ -4515,177 +4653,177 @@
         <v>108</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
       <c r="A22" s="34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="120">
       <c r="A23" s="34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="105">
+      <c r="A25" s="57" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>358</v>
+      <c r="B25" s="45" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="55"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="36" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="B28" s="37" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="58"/>
+      <c r="B30" s="37" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="56" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B31" s="37" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="56"/>
-      <c r="B30" s="37" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="57" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="59"/>
+      <c r="B32" s="37" t="s">
         <v>367</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="57"/>
-      <c r="B32" s="37" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B33" s="37" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="57"/>
+      <c r="B35" s="37" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="55"/>
-      <c r="B35" s="37" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
       <c r="A36" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="57"/>
+      <c r="B38" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="55" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="135">
+      <c r="A39" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B39" s="39" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="55"/>
-      <c r="B38" s="37" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="135">
-      <c r="A39" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>381</v>
-      </c>
-    </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="55"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="39" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
       <c r="A41" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="90">
+      <c r="A42" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="B41" s="39" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="90">
+      <c r="A43" s="57"/>
+      <c r="B43" s="39" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="90">
-      <c r="A42" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="90">
-      <c r="A43" s="55"/>
-      <c r="B43" s="39" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="42" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4712,17 +4850,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
-    <col min="2" max="2" width="105.42578125" customWidth="1"/>
+    <col min="2" max="2" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4734,66 +4872,101 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="54"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="56"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="54"/>
+      <c r="A10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>172</v>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>174</v>
+      <c r="A15" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="DynamoDB!A2" display="Up"/>
@@ -4827,30 +5000,30 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -4870,50 +5043,50 @@
     </row>
     <row r="15" spans="1:2" ht="180">
       <c r="A15" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="165">
       <c r="A16" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
       <c r="A17" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="255">
       <c r="A18" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="210">
       <c r="A19" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="300">
       <c r="A20" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4933,17 +5106,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="115.140625" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="130.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4955,22 +5128,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -4985,38 +5158,77 @@
         <v>133</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="90">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>135</v>
+      <c r="B12" s="45" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>140</v>
+    </row>
+    <row r="15" spans="1:2" ht="90">
+      <c r="A15" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="60"/>
+      <c r="B18" s="45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="RDS!A2" display="Up"/>
@@ -5050,43 +5262,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="457">
   <si>
     <t>Topics</t>
   </si>
@@ -834,9 +834,6 @@
     <t>Github</t>
   </si>
   <si>
-    <t>https://github.com/avinashbabudonthu/AmazonSQSPractice.git</t>
-  </si>
-  <si>
     <t>Security and Identity</t>
   </si>
   <si>
@@ -1772,6 +1769,9 @@
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/AmazonAWSPractice</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2108,6 +2108,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2142,9 +2148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,7 +2453,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2466,7 +2469,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2545,7 +2548,7 @@
         <v>155</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2559,12 +2562,12 @@
         <v>148</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" customHeight="1"/>
@@ -2623,22 +2626,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="58"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
@@ -2657,7 +2660,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="59" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2665,7 +2668,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="11" t="s">
         <v>161</v>
       </c>
@@ -2717,20 +2720,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="58"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
@@ -2818,25 +2821,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="58"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
@@ -2891,77 +2894,77 @@
         <v>185</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>326</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>328</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>331</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="30" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="59" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="57" t="s">
+      <c r="B25" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="30" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="59"/>
+      <c r="B26" s="30" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="57"/>
-      <c r="B26" s="30" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>338</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3004,27 +3007,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="58"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="26" t="s">
         <v>197</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
@@ -3053,72 +3056,72 @@
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>242</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="26" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="54" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="52" t="s">
+      <c r="B18" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="26" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="54"/>
+      <c r="B19" s="26" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="52"/>
-      <c r="B19" s="26" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>244</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120">
       <c r="A21" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="135">
       <c r="A23" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3160,20 +3163,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="58"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
@@ -3245,16 +3248,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="105">
       <c r="A7" s="18" t="s">
@@ -3297,17 +3300,17 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>408</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3348,257 +3351,257 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="58"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>252</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>254</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>256</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>258</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>263</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>265</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60">
       <c r="A21" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>267</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
       <c r="A22" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>269</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>271</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90">
       <c r="A24" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75">
       <c r="A25" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
       <c r="A26" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>278</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>280</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
       <c r="A29" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>282</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
       <c r="A30" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>284</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>286</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="90">
       <c r="A33" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="B33" s="27" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="52"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>295</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>297</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
       <c r="A39" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>301</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>307</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3640,16 +3643,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3668,9 +3671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3689,38 +3692,38 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2" s="48"/>
+      <c r="A2" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
@@ -3739,7 +3742,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3747,7 +3750,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3810,17 +3813,17 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>402</v>
-      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="50"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16" t="s">
@@ -3831,29 +3834,29 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="50"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="B28" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="B30" s="48"/>
+      <c r="A30" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30" s="50"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
@@ -3917,20 +3920,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -4045,10 +4048,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="56"/>
+      <c r="B25" s="58"/>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="5" t="s">
@@ -4067,7 +4070,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -4075,19 +4078,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="49"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="49"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="49"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -4141,7 +4144,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="54" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -4149,7 +4152,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="52"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>221</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4216,8 +4219,8 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4235,10 +4238,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="41" t="s">
@@ -4257,16 +4260,24 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="58"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="41" t="s">
@@ -4285,7 +4296,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -4293,7 +4304,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="41" t="s">
         <v>119</v>
       </c>
@@ -4340,152 +4351,152 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>386</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>387</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>389</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>391</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>393</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
       <c r="A27" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="B27" s="41" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="54" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="52" t="s">
+      <c r="B28" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="29" spans="1:2" ht="105">
-      <c r="A29" s="52"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="54"/>
+      <c r="B30" s="41" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="52"/>
-      <c r="B30" s="41" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>405</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>410</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="54" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="52" t="s">
+      <c r="B35" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B35" s="41" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="54"/>
+      <c r="B36" s="41" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="52"/>
-      <c r="B36" s="41" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="41" t="s">
         <v>416</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>418</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
       <c r="B39" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="B40" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="B41" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4503,9 +4514,10 @@
     <hyperlink ref="B16" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4514,8 +4526,8 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4533,16 +4545,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="58"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
@@ -4618,34 +4630,34 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>321</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>342</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="150">
@@ -4653,177 +4665,177 @@
         <v>108</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60">
       <c r="A22" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>349</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="120">
       <c r="A23" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="20" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>357</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="37" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="58" t="s">
+      <c r="B29" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="B29" s="37" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="60"/>
+      <c r="B30" s="37" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="58"/>
-      <c r="B30" s="37" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="61" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="59" t="s">
+      <c r="B31" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="37" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="59" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="57" t="s">
+      <c r="B34" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="B34" s="37" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="59"/>
+      <c r="B35" s="37" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="57"/>
-      <c r="B35" s="37" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150">
       <c r="A36" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="57" t="s">
+      <c r="B37" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="B37" s="37" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="59"/>
+      <c r="B38" s="37" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="57"/>
-      <c r="B38" s="37" t="s">
+    <row r="39" spans="1:2" ht="135">
+      <c r="A39" s="54" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="135">
-      <c r="A39" s="52" t="s">
+      <c r="B39" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="B39" s="39" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="57"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
       <c r="A41" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="B41" s="39" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="90">
+      <c r="A42" s="59" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="90">
-      <c r="A42" s="57" t="s">
+      <c r="B42" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="B42" s="39" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="90">
+      <c r="A43" s="59"/>
+      <c r="B43" s="39" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="90">
-      <c r="A43" s="57"/>
-      <c r="B43" s="39" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="B44" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4872,16 +4884,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="58"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
@@ -4925,42 +4937,42 @@
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>444</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>446</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>448</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>450</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>452</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -4980,9 +4992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5000,30 +5012,30 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="26" t="s">
         <v>230</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>231</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="58"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -5043,50 +5055,50 @@
     </row>
     <row r="15" spans="1:2" ht="180">
       <c r="A15" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>309</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="165">
       <c r="A16" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120">
       <c r="A17" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="255">
       <c r="A18" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>315</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="210">
       <c r="A19" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>317</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="300">
       <c r="A20" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>319</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5128,22 +5140,22 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="58"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5166,7 +5178,7 @@
         <v>134</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
@@ -5187,40 +5199,40 @@
     </row>
     <row r="15" spans="1:2" ht="90">
       <c r="A15" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>435</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="B16" s="45" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="62" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="60" t="s">
+      <c r="B17" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="B17" s="45" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="62"/>
+      <c r="B18" s="45" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="60"/>
-      <c r="B18" s="45" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>442</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5262,20 +5274,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="58"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/e_Definitions_Amazon_AWS.xlsx
+++ b/Definitions/e_Definitions_Amazon_AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="941" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="460">
   <si>
     <t>Topics</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Simple Queue Service</t>
   </si>
   <si>
-    <t>AWS Developer: The Big Picture</t>
-  </si>
-  <si>
     <t>EC2 (Elastic Cloud Compute)</t>
   </si>
   <si>
@@ -732,9 +729,6 @@
   </si>
   <si>
     <t>https://aws.amazon.com/cli/</t>
-  </si>
-  <si>
-    <t>AWS Developer: Getting Started</t>
   </si>
   <si>
     <t>Little firewals installed per instance basis</t>
@@ -1772,6 +1766,21 @@
   </si>
   <si>
     <t>https://github.com/avinashbabudonthu/AmazonAWSPractice</t>
+  </si>
+  <si>
+    <t>AWS Developer: The Big Picture [Course]</t>
+  </si>
+  <si>
+    <t>AWS Developer: Getting Started [Course]</t>
+  </si>
+  <si>
+    <t>AWS Developer Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>AWS Developer - An Introduction to AWS Lambda [Course]</t>
+  </si>
+  <si>
+    <t>File Storage Using AWS S3 and Glacier: Developer Deep Dive [Course]</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2031,9 +2040,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2469,7 +2475,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2481,57 +2487,57 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="C3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2539,43 +2545,43 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="5:5" ht="15" customHeight="1"/>
     <row r="22" spans="5:5">
-      <c r="E22" s="19"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="20"/>
+      <c r="E23" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2626,59 +2632,59 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="58" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="59" t="s">
+      <c r="B14" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="58"/>
+      <c r="B15" s="11" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2720,67 +2726,67 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2821,150 +2827,150 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="30" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="30" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="31" t="s">
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="59" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="58"/>
+      <c r="B26" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="B25" s="30" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="30" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="59"/>
-      <c r="B26" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75">
-      <c r="A27" s="31" t="s">
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +3000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="110.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3007,121 +3013,121 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B12" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="26" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="26" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="53"/>
+      <c r="B19" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="54"/>
-      <c r="B19" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="28" t="s">
+    <row r="21" spans="1:2" ht="120">
+      <c r="A21" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B21" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="135">
+      <c r="A23" s="25" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="120">
-      <c r="A21" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="135">
-      <c r="A23" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3163,51 +3169,51 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3248,69 +3254,69 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="105">
-      <c r="A7" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>218</v>
+      <c r="A7" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="21" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="23" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>407</v>
+      <c r="A12" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="43" t="s">
-        <v>425</v>
+      <c r="A13" s="59"/>
+      <c r="B13" s="42" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3338,8 +3344,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="105.42578125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="105.42578125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3351,257 +3357,257 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="26" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="26" t="s">
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="26" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="26" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="26" t="s">
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="26" t="s">
+    <row r="22" spans="1:2" ht="105">
+      <c r="A22" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="26" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="26" t="s">
+    <row r="24" spans="1:2" ht="90">
+      <c r="A24" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B24" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75">
+      <c r="A25" s="25" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="B25" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="75">
-      <c r="A25" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="B26" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="25" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B26" s="26" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="27" t="s">
+    <row r="33" spans="1:2" ht="90">
+      <c r="A33" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="90">
-      <c r="A33" s="27" t="s">
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="54" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="53"/>
+      <c r="B35" s="36" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="54"/>
-      <c r="B35" s="37" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="27" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="27" t="s">
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="27" t="s">
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="27" t="s">
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="27" t="s">
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="27" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3643,16 +3649,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3671,9 +3677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3683,7 +3689,7 @@
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1">
+    <row r="1" spans="1:3" s="21" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3692,44 +3698,59 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="50"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="46" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="46" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>455</v>
+      <c r="B4" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3737,12 +3758,12 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3750,7 +3771,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3804,59 +3825,59 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="21" t="s">
-        <v>219</v>
+      <c r="A20" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="41" t="s">
-        <v>400</v>
+      <c r="A21" s="40" t="s">
+        <v>398</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="50"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="49"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>428</v>
-      </c>
-    </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="B30" s="50"/>
+      <c r="A30" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="49"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
@@ -3891,8 +3912,14 @@
     <hyperlink ref="B21" r:id="rId11"/>
     <hyperlink ref="B24" r:id="rId12"/>
     <hyperlink ref="B31" r:id="rId13"/>
+    <hyperlink ref="B3" r:id="rId14" display="https://app.pluralsight.com/library/courses/aws-developer-big-picture"/>
+    <hyperlink ref="B4" r:id="rId15" display="https://app.pluralsight.com/library/courses/aws-developer-getting-started"/>
+    <hyperlink ref="B5" r:id="rId16" display="https://app.pluralsight.com/library/courses/aws-course"/>
+    <hyperlink ref="B6" r:id="rId17" display="https://app.pluralsight.com/library/courses/aws-developer-introduction-aws-lambda"/>
+    <hyperlink ref="B7" r:id="rId18" display="https://app.pluralsight.com/library/courses/file-storage-aws-s3-glacier-developer-deep-dive"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3920,20 +3947,20 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="55"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
@@ -4048,10 +4075,10 @@
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="5" t="s">
@@ -4070,7 +4097,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -4078,19 +4105,19 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="51"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="5" t="s">
         <v>56</v>
       </c>
@@ -4137,64 +4164,64 @@
     </row>
     <row r="37" spans="1:2" ht="45">
       <c r="A37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="54" t="s">
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="53"/>
+      <c r="B39" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
       <c r="A40" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="44" spans="1:2" ht="150">
-      <c r="A44" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>424</v>
+      <c r="A44" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4225,8 +4252,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="109.5703125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4238,265 +4265,265 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>456</v>
+      <c r="A7" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="41" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="53" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="54" t="s">
+      <c r="B14" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="41" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="41" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="41" t="s">
+      <c r="B16" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="20" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="40" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="41" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="41" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="40" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="41" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="40" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="B21" s="41" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="40" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" s="41" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="41" t="s">
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="41" t="s">
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="41" t="s">
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B27" s="40" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="41" t="s">
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>399</v>
-      </c>
-    </row>
     <row r="29" spans="1:2" ht="105">
-      <c r="A29" s="54"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="53"/>
+      <c r="B30" s="40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="27" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="54"/>
-      <c r="B30" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="B31" s="41" t="s">
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="28" t="s">
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="28" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="B33" s="41" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="53" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="54" t="s">
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="53"/>
+      <c r="B36" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="B35" s="41" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="40" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="54"/>
-      <c r="B36" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="41" t="s">
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B38" s="40" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="41" t="s">
+    <row r="39" spans="1:2" ht="45">
+      <c r="B39" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="B38" s="41" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="105">
+      <c r="B40" s="40" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
-      <c r="B39" s="41" t="s">
+    <row r="41" spans="1:2" ht="30">
+      <c r="B41" s="40" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="105">
-      <c r="B40" s="41" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="B41" s="41" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4545,297 +4572,297 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>216</v>
+        <v>112</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>321</v>
+      <c r="A17" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="34" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="34" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="150">
+      <c r="A21" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="B20" s="33" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="33" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="150">
-      <c r="A21" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60">
-      <c r="A22" s="34" t="s">
+    <row r="23" spans="1:2" ht="120">
+      <c r="A23" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B23" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="33" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="120">
-      <c r="A23" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="33" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="105">
+      <c r="A25" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="105">
-      <c r="A25" s="59" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="20" t="s">
+      <c r="B27" s="34" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="36" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="36" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="60" t="s">
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="59"/>
+      <c r="B30" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="B29" s="37" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="60" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="60"/>
-      <c r="B30" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="B31" s="37" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="60"/>
+      <c r="B32" s="36" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="61"/>
-      <c r="B32" s="37" t="s">
+    <row r="33" spans="1:2" ht="60">
+      <c r="A33" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60">
-      <c r="A33" s="38" t="s">
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="59" t="s">
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="58"/>
+      <c r="B35" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="B34" s="37" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="150">
+      <c r="A36" s="37" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="59"/>
-      <c r="B35" s="37" t="s">
+      <c r="B36" s="38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="150">
-      <c r="A36" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="B36" s="39" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="58"/>
+      <c r="B38" s="36" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="135">
+      <c r="A39" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="120">
+      <c r="A40" s="58"/>
+      <c r="B40" s="38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45">
+      <c r="A41" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="B41" s="38" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="59"/>
-      <c r="B38" s="37" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="135">
-      <c r="A39" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="59"/>
-      <c r="B40" s="39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="45">
-      <c r="A41" s="40" t="s">
+    <row r="42" spans="1:2" ht="90">
+      <c r="A42" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="90">
-      <c r="A42" s="59" t="s">
+    <row r="43" spans="1:2" ht="90">
+      <c r="A43" s="58"/>
+      <c r="B43" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="B42" s="39" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="90">
-      <c r="A43" s="59"/>
-      <c r="B43" s="39" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>423</v>
+      <c r="A44" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4884,95 +4911,95 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
       <c r="A9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="46" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="46" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="46" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="45" t="s">
         <v>449</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +5019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
     </sheetView>
@@ -5012,30 +5039,30 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>456</v>
+      <c r="A7" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
@@ -5046,7 +5073,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5054,51 +5081,51 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="180">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="165">
+      <c r="A16" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="165">
-      <c r="A16" s="32" t="s">
+    <row r="17" spans="1:2" ht="120">
+      <c r="A17" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="120">
-      <c r="A17" s="32" t="s">
+    <row r="18" spans="1:2" ht="255">
+      <c r="A18" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="255">
-      <c r="A18" s="32" t="s">
+    <row r="19" spans="1:2" ht="210">
+      <c r="A19" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="210">
-      <c r="A19" s="32" t="s">
+    <row r="20" spans="1:2" ht="300">
+      <c r="A20" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="300">
-      <c r="A20" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5140,99 +5167,99 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="58"/>
+      <c r="A5" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="57"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
         <v>131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>433</v>
+        <v>133</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="15" spans="1:2" ht="90">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="45" t="s">
         <v>434</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="46" t="s">
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="61" t="s">
         <v>436</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="62" t="s">
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="61"/>
+      <c r="B18" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="B17" s="45" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="46" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="62"/>
-      <c r="B18" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5274,43 +5301,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
         <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
